--- a/config/excel/Crystal.xlsx
+++ b/config/excel/Crystal.xlsx
@@ -4,22 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="RuneProto" sheetId="1" r:id="rId1"/>
+    <sheet name="Crystal" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="68">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>魂石类型待定：</t>
+    <t>与item物品表id对应</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晶石类型：
+0: 地
+1: 水
+2: 火
+3: 风
+4: 雷
+5: 时
+6: 空
+7：钢
+8：灭
+</t>
   </si>
   <si>
     <t>0-5</t>
@@ -28,31 +41,16 @@
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>id</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>type</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Pos</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>SuitID</t>
+    <t>pos</t>
   </si>
   <si>
     <t>导出字段描述</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>名称</t>
   </si>
   <si>
     <t>类型</t>
@@ -61,16 +59,7 @@
     <t>位置</t>
   </si>
   <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>套装id</t>
-  </si>
-  <si>
     <t>字段控制</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>服务器导出字段类型</t>
@@ -79,25 +68,166 @@
     <t>int32</t>
   </si>
   <si>
-    <t>string</t>
+    <t>残响-地1星</t>
   </si>
   <si>
-    <t>A魂石</t>
+    <t>残响-地2星</t>
   </si>
   <si>
-    <t>B魂石</t>
+    <t>残响-地3星</t>
   </si>
   <si>
-    <t>C魂石</t>
+    <t>残响-地4星</t>
   </si>
   <si>
-    <t>D魂石</t>
+    <t>残响-地5星</t>
   </si>
   <si>
-    <t>E魂石</t>
+    <t>残响-地6星</t>
   </si>
   <si>
-    <t>F魂石</t>
+    <t>残响-水1星</t>
+  </si>
+  <si>
+    <t>残响-水2星</t>
+  </si>
+  <si>
+    <t>残响-水3星</t>
+  </si>
+  <si>
+    <t>残响-水4星</t>
+  </si>
+  <si>
+    <t>残响-水5星</t>
+  </si>
+  <si>
+    <t>残响-水6星</t>
+  </si>
+  <si>
+    <t>残响-火1星</t>
+  </si>
+  <si>
+    <t>残响-火2星</t>
+  </si>
+  <si>
+    <t>残响-火3星</t>
+  </si>
+  <si>
+    <t>残响-火4星</t>
+  </si>
+  <si>
+    <t>残响-火5星</t>
+  </si>
+  <si>
+    <t>残响-火6星</t>
+  </si>
+  <si>
+    <t>残响-风1星</t>
+  </si>
+  <si>
+    <t>残响-风2星</t>
+  </si>
+  <si>
+    <t>残响-风3星</t>
+  </si>
+  <si>
+    <t>残响-风4星</t>
+  </si>
+  <si>
+    <t>残响-风5星</t>
+  </si>
+  <si>
+    <t>残响-风6星</t>
+  </si>
+  <si>
+    <t>残响-雷1星</t>
+  </si>
+  <si>
+    <t>残响-雷2星</t>
+  </si>
+  <si>
+    <t>残响-雷3星</t>
+  </si>
+  <si>
+    <t>残响-雷4星</t>
+  </si>
+  <si>
+    <t>残响-雷5星</t>
+  </si>
+  <si>
+    <t>残响-雷6星</t>
+  </si>
+  <si>
+    <t>残响-时1星</t>
+  </si>
+  <si>
+    <t>残响-时2星</t>
+  </si>
+  <si>
+    <t>残响-时3星</t>
+  </si>
+  <si>
+    <t>残响-时4星</t>
+  </si>
+  <si>
+    <t>残响-时5星</t>
+  </si>
+  <si>
+    <t>残响-时6星</t>
+  </si>
+  <si>
+    <t>残响-空1星</t>
+  </si>
+  <si>
+    <t>残响-空2星</t>
+  </si>
+  <si>
+    <t>残响-空3星</t>
+  </si>
+  <si>
+    <t>残响-空4星</t>
+  </si>
+  <si>
+    <t>残响-空5星</t>
+  </si>
+  <si>
+    <t>残响-空6星</t>
+  </si>
+  <si>
+    <t>残响-钢1星</t>
+  </si>
+  <si>
+    <t>残响-钢2星</t>
+  </si>
+  <si>
+    <t>残响-钢3星</t>
+  </si>
+  <si>
+    <t>残响-钢4星</t>
+  </si>
+  <si>
+    <t>残响-钢5星</t>
+  </si>
+  <si>
+    <t>残响-钢6星</t>
+  </si>
+  <si>
+    <t>残响-灭1星</t>
+  </si>
+  <si>
+    <t>残响-灭2星</t>
+  </si>
+  <si>
+    <t>残响-灭3星</t>
+  </si>
+  <si>
+    <t>残响-灭4星</t>
+  </si>
+  <si>
+    <t>残响-灭5星</t>
+  </si>
+  <si>
+    <t>残响-灭6星</t>
   </si>
 </sst>
 </file>
@@ -105,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -131,32 +261,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,7 +293,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,27 +351,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,37 +382,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,145 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +451,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,24 +589,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -569,19 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -589,52 +706,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,41 +721,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,234 +748,292 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2087,28 +2181,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C7" sqref="C7:C330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3557692307692" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3557692307692" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1730769230769" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.84615384615385" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46153846153846" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.69230769230769" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="16380" width="6" style="1" customWidth="1"/>
+    <col min="16381" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1" spans="1:8">
+    <row r="1" ht="16.15" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2116,251 +2208,4616 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="16.15" customHeight="1" spans="1:8">
+    </row>
+    <row r="2" ht="148.5" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:8">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:5">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="14">
+        <v>2001</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="14">
+        <v>2002</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:5">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="14">
+        <v>2004</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="14">
+        <v>2005</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="16.15" customHeight="1" spans="1:5">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16">
+        <v>2006</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
+      <c r="C19" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C25" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9" t="s">
+      <c r="C31" s="1">
+        <v>2024</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2025</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
+      <c r="A33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2026</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
+      <c r="A34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2027</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2028</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
+      <c r="A36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2029</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C37" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2031</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2032</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
+      <c r="A40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2033</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
+      <c r="A41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2034</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
+      <c r="A42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2035</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
+      <c r="A43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C43" s="1">
+        <v>2036</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2037</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2038</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
+      <c r="A46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2039</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
+      <c r="A47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2040</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2041</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
+      <c r="A49" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="14.65" customHeight="1" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C49" s="1">
+        <v>2042</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:5">
+      <c r="A50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2043</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
+      <c r="A51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2044</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
+      <c r="A52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2045</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
+      <c r="A53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2046</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2047</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14.65" customHeight="1" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C55" s="1">
+        <v>2048</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:5">
+      <c r="A56" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2049</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:5">
+      <c r="A57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2050</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:5">
+      <c r="A58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2051</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:5">
+      <c r="A59" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2052</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
+      <c r="A60" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2053</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:5">
+      <c r="A61" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="14.65" customHeight="1" spans="1:8">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="12">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C61" s="1">
+        <v>2054</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:5">
+      <c r="A62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2055</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:5">
+      <c r="A63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2056</v>
+      </c>
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:5">
+      <c r="A64" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2057</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:5">
+      <c r="A65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2058</v>
+      </c>
+      <c r="D65" s="13">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:5">
+      <c r="A66" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2059</v>
+      </c>
+      <c r="D66" s="13">
+        <v>1</v>
+      </c>
+      <c r="E66" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:5">
+      <c r="A67" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="18">
-        <v>2</v>
-      </c>
-      <c r="F9" s="18">
-        <v>2</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="14.65" customHeight="1" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="12">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C67" s="1">
+        <v>2060</v>
+      </c>
+      <c r="D67" s="13">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:5">
+      <c r="A68" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2061</v>
+      </c>
+      <c r="D68" s="13">
+        <v>1</v>
+      </c>
+      <c r="E68" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:5">
+      <c r="A69" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2062</v>
+      </c>
+      <c r="D69" s="13">
+        <v>1</v>
+      </c>
+      <c r="E69" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:5">
+      <c r="A70" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2063</v>
+      </c>
+      <c r="D70" s="13">
+        <v>1</v>
+      </c>
+      <c r="E70" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:5">
+      <c r="A71" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2064</v>
+      </c>
+      <c r="D71" s="13">
+        <v>1</v>
+      </c>
+      <c r="E71" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:5">
+      <c r="A72" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2065</v>
+      </c>
+      <c r="D72" s="13">
+        <v>1</v>
+      </c>
+      <c r="E72" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:5">
+      <c r="A73" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="18">
-        <v>3</v>
-      </c>
-      <c r="F10" s="18">
-        <v>3</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="14.65" customHeight="1" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="12">
-        <v>5</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C73" s="1">
+        <v>2066</v>
+      </c>
+      <c r="D73" s="13">
+        <v>1</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:5">
+      <c r="A74" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2067</v>
+      </c>
+      <c r="D74" s="13">
+        <v>1</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:5">
+      <c r="A75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2068</v>
+      </c>
+      <c r="D75" s="13">
+        <v>1</v>
+      </c>
+      <c r="E75" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:5">
+      <c r="A76" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2069</v>
+      </c>
+      <c r="D76" s="13">
+        <v>1</v>
+      </c>
+      <c r="E76" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:5">
+      <c r="A77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2070</v>
+      </c>
+      <c r="D77" s="13">
+        <v>1</v>
+      </c>
+      <c r="E77" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2071</v>
+      </c>
+      <c r="D78" s="13">
+        <v>1</v>
+      </c>
+      <c r="E78" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:5">
+      <c r="A79" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="18">
-        <v>4</v>
-      </c>
-      <c r="F11" s="18">
-        <v>4</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="14.65" customHeight="1" spans="1:8">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="12">
+      <c r="C79" s="1">
+        <v>2072</v>
+      </c>
+      <c r="D79" s="13">
+        <v>2</v>
+      </c>
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2073</v>
+      </c>
+      <c r="D80" s="13">
+        <v>2</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:5">
+      <c r="A81" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2074</v>
+      </c>
+      <c r="D81" s="13">
+        <v>2</v>
+      </c>
+      <c r="E81" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:5">
+      <c r="A82" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2075</v>
+      </c>
+      <c r="D82" s="13">
+        <v>2</v>
+      </c>
+      <c r="E82" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:5">
+      <c r="A83" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2076</v>
+      </c>
+      <c r="D83" s="13">
+        <v>2</v>
+      </c>
+      <c r="E83" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:5">
+      <c r="A84" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2077</v>
+      </c>
+      <c r="D84" s="13">
+        <v>2</v>
+      </c>
+      <c r="E84" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:5">
+      <c r="A85" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2078</v>
+      </c>
+      <c r="D85" s="13">
+        <v>2</v>
+      </c>
+      <c r="E85" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:5">
+      <c r="A86" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2079</v>
+      </c>
+      <c r="D86" s="13">
+        <v>2</v>
+      </c>
+      <c r="E86" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:5">
+      <c r="A87" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D87" s="13">
+        <v>2</v>
+      </c>
+      <c r="E87" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:5">
+      <c r="A88" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2081</v>
+      </c>
+      <c r="D88" s="13">
+        <v>2</v>
+      </c>
+      <c r="E88" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:5">
+      <c r="A89" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2082</v>
+      </c>
+      <c r="D89" s="13">
+        <v>2</v>
+      </c>
+      <c r="E89" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:5">
+      <c r="A90" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2083</v>
+      </c>
+      <c r="D90" s="13">
+        <v>2</v>
+      </c>
+      <c r="E90" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:5">
+      <c r="A91" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2084</v>
+      </c>
+      <c r="D91" s="13">
+        <v>2</v>
+      </c>
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:5">
+      <c r="A92" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2085</v>
+      </c>
+      <c r="D92" s="13">
+        <v>2</v>
+      </c>
+      <c r="E92" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:5">
+      <c r="A93" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2086</v>
+      </c>
+      <c r="D93" s="13">
+        <v>2</v>
+      </c>
+      <c r="E93" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:5">
+      <c r="A94" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2087</v>
+      </c>
+      <c r="D94" s="13">
+        <v>2</v>
+      </c>
+      <c r="E94" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:5">
+      <c r="A95" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2088</v>
+      </c>
+      <c r="D95" s="13">
+        <v>2</v>
+      </c>
+      <c r="E95" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:5">
+      <c r="A96" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2089</v>
+      </c>
+      <c r="D96" s="13">
+        <v>2</v>
+      </c>
+      <c r="E96" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:5">
+      <c r="A97" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2090</v>
+      </c>
+      <c r="D97" s="13">
+        <v>2</v>
+      </c>
+      <c r="E97" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:5">
+      <c r="A98" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2091</v>
+      </c>
+      <c r="D98" s="13">
+        <v>2</v>
+      </c>
+      <c r="E98" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:5">
+      <c r="A99" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2092</v>
+      </c>
+      <c r="D99" s="13">
+        <v>2</v>
+      </c>
+      <c r="E99" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:5">
+      <c r="A100" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2093</v>
+      </c>
+      <c r="D100" s="13">
+        <v>2</v>
+      </c>
+      <c r="E100" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:5">
+      <c r="A101" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2094</v>
+      </c>
+      <c r="D101" s="13">
+        <v>2</v>
+      </c>
+      <c r="E101" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:5">
+      <c r="A102" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2095</v>
+      </c>
+      <c r="D102" s="13">
+        <v>2</v>
+      </c>
+      <c r="E102" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:5">
+      <c r="A103" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2096</v>
+      </c>
+      <c r="D103" s="13">
+        <v>2</v>
+      </c>
+      <c r="E103" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:5">
+      <c r="A104" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2097</v>
+      </c>
+      <c r="D104" s="13">
+        <v>2</v>
+      </c>
+      <c r="E104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:5">
+      <c r="A105" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2098</v>
+      </c>
+      <c r="D105" s="13">
+        <v>2</v>
+      </c>
+      <c r="E105" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:5">
+      <c r="A106" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2099</v>
+      </c>
+      <c r="D106" s="13">
+        <v>2</v>
+      </c>
+      <c r="E106" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:5">
+      <c r="A107" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2100</v>
+      </c>
+      <c r="D107" s="13">
+        <v>2</v>
+      </c>
+      <c r="E107" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:5">
+      <c r="A108" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2101</v>
+      </c>
+      <c r="D108" s="13">
+        <v>2</v>
+      </c>
+      <c r="E108" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:5">
+      <c r="A109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2102</v>
+      </c>
+      <c r="D109" s="13">
+        <v>2</v>
+      </c>
+      <c r="E109" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:5">
+      <c r="A110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D110" s="13">
+        <v>2</v>
+      </c>
+      <c r="E110" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:5">
+      <c r="A111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2104</v>
+      </c>
+      <c r="D111" s="13">
+        <v>2</v>
+      </c>
+      <c r="E111" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:5">
+      <c r="A112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2105</v>
+      </c>
+      <c r="D112" s="13">
+        <v>2</v>
+      </c>
+      <c r="E112" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:5">
+      <c r="A113" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2106</v>
+      </c>
+      <c r="D113" s="13">
+        <v>2</v>
+      </c>
+      <c r="E113" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:5">
+      <c r="A114" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2107</v>
+      </c>
+      <c r="D114" s="13">
+        <v>2</v>
+      </c>
+      <c r="E114" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:5">
+      <c r="A115" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2108</v>
+      </c>
+      <c r="D115" s="13">
+        <v>3</v>
+      </c>
+      <c r="E115" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:5">
+      <c r="A116" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2109</v>
+      </c>
+      <c r="D116" s="13">
+        <v>3</v>
+      </c>
+      <c r="E116" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:5">
+      <c r="A117" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2110</v>
+      </c>
+      <c r="D117" s="13">
+        <v>3</v>
+      </c>
+      <c r="E117" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:5">
+      <c r="A118" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2111</v>
+      </c>
+      <c r="D118" s="13">
+        <v>3</v>
+      </c>
+      <c r="E118" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:5">
+      <c r="A119" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2112</v>
+      </c>
+      <c r="D119" s="13">
+        <v>3</v>
+      </c>
+      <c r="E119" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:5">
+      <c r="A120" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2113</v>
+      </c>
+      <c r="D120" s="13">
+        <v>3</v>
+      </c>
+      <c r="E120" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:5">
+      <c r="A121" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2114</v>
+      </c>
+      <c r="D121" s="13">
+        <v>3</v>
+      </c>
+      <c r="E121" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:5">
+      <c r="A122" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2115</v>
+      </c>
+      <c r="D122" s="13">
+        <v>3</v>
+      </c>
+      <c r="E122" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:5">
+      <c r="A123" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2116</v>
+      </c>
+      <c r="D123" s="13">
+        <v>3</v>
+      </c>
+      <c r="E123" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:5">
+      <c r="A124" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2117</v>
+      </c>
+      <c r="D124" s="13">
+        <v>3</v>
+      </c>
+      <c r="E124" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:5">
+      <c r="A125" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2118</v>
+      </c>
+      <c r="D125" s="13">
+        <v>3</v>
+      </c>
+      <c r="E125" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:5">
+      <c r="A126" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2119</v>
+      </c>
+      <c r="D126" s="13">
+        <v>3</v>
+      </c>
+      <c r="E126" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:5">
+      <c r="A127" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2120</v>
+      </c>
+      <c r="D127" s="13">
+        <v>3</v>
+      </c>
+      <c r="E127" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:5">
+      <c r="A128" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2121</v>
+      </c>
+      <c r="D128" s="13">
+        <v>3</v>
+      </c>
+      <c r="E128" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:5">
+      <c r="A129" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2122</v>
+      </c>
+      <c r="D129" s="13">
+        <v>3</v>
+      </c>
+      <c r="E129" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:5">
+      <c r="A130" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2123</v>
+      </c>
+      <c r="D130" s="13">
+        <v>3</v>
+      </c>
+      <c r="E130" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:5">
+      <c r="A131" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2124</v>
+      </c>
+      <c r="D131" s="13">
+        <v>3</v>
+      </c>
+      <c r="E131" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:5">
+      <c r="A132" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2125</v>
+      </c>
+      <c r="D132" s="13">
+        <v>3</v>
+      </c>
+      <c r="E132" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:5">
+      <c r="A133" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2126</v>
+      </c>
+      <c r="D133" s="13">
+        <v>3</v>
+      </c>
+      <c r="E133" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:5">
+      <c r="A134" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2127</v>
+      </c>
+      <c r="D134" s="13">
+        <v>3</v>
+      </c>
+      <c r="E134" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:5">
+      <c r="A135" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2128</v>
+      </c>
+      <c r="D135" s="13">
+        <v>3</v>
+      </c>
+      <c r="E135" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:5">
+      <c r="A136" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2129</v>
+      </c>
+      <c r="D136" s="13">
+        <v>3</v>
+      </c>
+      <c r="E136" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:5">
+      <c r="A137" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2130</v>
+      </c>
+      <c r="D137" s="13">
+        <v>3</v>
+      </c>
+      <c r="E137" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:5">
+      <c r="A138" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2131</v>
+      </c>
+      <c r="D138" s="13">
+        <v>3</v>
+      </c>
+      <c r="E138" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:5">
+      <c r="A139" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2132</v>
+      </c>
+      <c r="D139" s="13">
+        <v>3</v>
+      </c>
+      <c r="E139" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:5">
+      <c r="A140" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2133</v>
+      </c>
+      <c r="D140" s="13">
+        <v>3</v>
+      </c>
+      <c r="E140" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:5">
+      <c r="A141" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2134</v>
+      </c>
+      <c r="D141" s="13">
+        <v>3</v>
+      </c>
+      <c r="E141" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:5">
+      <c r="A142" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2135</v>
+      </c>
+      <c r="D142" s="13">
+        <v>3</v>
+      </c>
+      <c r="E142" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:5">
+      <c r="A143" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2136</v>
+      </c>
+      <c r="D143" s="13">
+        <v>3</v>
+      </c>
+      <c r="E143" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:5">
+      <c r="A144" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2137</v>
+      </c>
+      <c r="D144" s="13">
+        <v>3</v>
+      </c>
+      <c r="E144" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:5">
+      <c r="A145" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2138</v>
+      </c>
+      <c r="D145" s="13">
+        <v>3</v>
+      </c>
+      <c r="E145" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:5">
+      <c r="A146" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2139</v>
+      </c>
+      <c r="D146" s="13">
+        <v>3</v>
+      </c>
+      <c r="E146" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:5">
+      <c r="A147" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2140</v>
+      </c>
+      <c r="D147" s="13">
+        <v>3</v>
+      </c>
+      <c r="E147" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:5">
+      <c r="A148" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2141</v>
+      </c>
+      <c r="D148" s="13">
+        <v>3</v>
+      </c>
+      <c r="E148" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:5">
+      <c r="A149" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2142</v>
+      </c>
+      <c r="D149" s="13">
+        <v>3</v>
+      </c>
+      <c r="E149" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:5">
+      <c r="A150" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2143</v>
+      </c>
+      <c r="D150" s="13">
+        <v>3</v>
+      </c>
+      <c r="E150" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:5">
+      <c r="A151" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2144</v>
+      </c>
+      <c r="D151" s="13">
+        <v>4</v>
+      </c>
+      <c r="E151" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:5">
+      <c r="A152" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2145</v>
+      </c>
+      <c r="D152" s="13">
+        <v>4</v>
+      </c>
+      <c r="E152" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:5">
+      <c r="A153" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2146</v>
+      </c>
+      <c r="D153" s="13">
+        <v>4</v>
+      </c>
+      <c r="E153" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:5">
+      <c r="A154" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2147</v>
+      </c>
+      <c r="D154" s="13">
+        <v>4</v>
+      </c>
+      <c r="E154" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:5">
+      <c r="A155" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2148</v>
+      </c>
+      <c r="D155" s="13">
+        <v>4</v>
+      </c>
+      <c r="E155" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:5">
+      <c r="A156" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2149</v>
+      </c>
+      <c r="D156" s="13">
+        <v>4</v>
+      </c>
+      <c r="E156" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:5">
+      <c r="A157" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2150</v>
+      </c>
+      <c r="D157" s="13">
+        <v>4</v>
+      </c>
+      <c r="E157" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:5">
+      <c r="A158" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2151</v>
+      </c>
+      <c r="D158" s="13">
+        <v>4</v>
+      </c>
+      <c r="E158" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:5">
+      <c r="A159" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2152</v>
+      </c>
+      <c r="D159" s="13">
+        <v>4</v>
+      </c>
+      <c r="E159" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:5">
+      <c r="A160" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2153</v>
+      </c>
+      <c r="D160" s="13">
+        <v>4</v>
+      </c>
+      <c r="E160" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:5">
+      <c r="A161" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2154</v>
+      </c>
+      <c r="D161" s="13">
+        <v>4</v>
+      </c>
+      <c r="E161" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:5">
+      <c r="A162" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2155</v>
+      </c>
+      <c r="D162" s="13">
+        <v>4</v>
+      </c>
+      <c r="E162" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:5">
+      <c r="A163" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2156</v>
+      </c>
+      <c r="D163" s="13">
+        <v>4</v>
+      </c>
+      <c r="E163" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:5">
+      <c r="A164" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2157</v>
+      </c>
+      <c r="D164" s="13">
+        <v>4</v>
+      </c>
+      <c r="E164" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:5">
+      <c r="A165" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2158</v>
+      </c>
+      <c r="D165" s="13">
+        <v>4</v>
+      </c>
+      <c r="E165" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:5">
+      <c r="A166" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2159</v>
+      </c>
+      <c r="D166" s="13">
+        <v>4</v>
+      </c>
+      <c r="E166" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:5">
+      <c r="A167" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2160</v>
+      </c>
+      <c r="D167" s="13">
+        <v>4</v>
+      </c>
+      <c r="E167" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:5">
+      <c r="A168" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2161</v>
+      </c>
+      <c r="D168" s="13">
+        <v>4</v>
+      </c>
+      <c r="E168" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:5">
+      <c r="A169" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2162</v>
+      </c>
+      <c r="D169" s="13">
+        <v>4</v>
+      </c>
+      <c r="E169" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:5">
+      <c r="A170" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2163</v>
+      </c>
+      <c r="D170" s="13">
+        <v>4</v>
+      </c>
+      <c r="E170" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:5">
+      <c r="A171" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2164</v>
+      </c>
+      <c r="D171" s="13">
+        <v>4</v>
+      </c>
+      <c r="E171" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:5">
+      <c r="A172" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2165</v>
+      </c>
+      <c r="D172" s="13">
+        <v>4</v>
+      </c>
+      <c r="E172" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:5">
+      <c r="A173" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2166</v>
+      </c>
+      <c r="D173" s="13">
+        <v>4</v>
+      </c>
+      <c r="E173" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:5">
+      <c r="A174" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2167</v>
+      </c>
+      <c r="D174" s="13">
+        <v>4</v>
+      </c>
+      <c r="E174" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:5">
+      <c r="A175" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2168</v>
+      </c>
+      <c r="D175" s="13">
+        <v>4</v>
+      </c>
+      <c r="E175" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:5">
+      <c r="A176" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2169</v>
+      </c>
+      <c r="D176" s="13">
+        <v>4</v>
+      </c>
+      <c r="E176" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:5">
+      <c r="A177" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2170</v>
+      </c>
+      <c r="D177" s="13">
+        <v>4</v>
+      </c>
+      <c r="E177" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:5">
+      <c r="A178" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2171</v>
+      </c>
+      <c r="D178" s="13">
+        <v>4</v>
+      </c>
+      <c r="E178" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:5">
+      <c r="A179" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2172</v>
+      </c>
+      <c r="D179" s="13">
+        <v>4</v>
+      </c>
+      <c r="E179" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:5">
+      <c r="A180" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2173</v>
+      </c>
+      <c r="D180" s="13">
+        <v>4</v>
+      </c>
+      <c r="E180" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="1:5">
+      <c r="A181" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2174</v>
+      </c>
+      <c r="D181" s="13">
+        <v>4</v>
+      </c>
+      <c r="E181" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:5">
+      <c r="A182" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2175</v>
+      </c>
+      <c r="D182" s="13">
+        <v>4</v>
+      </c>
+      <c r="E182" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:5">
+      <c r="A183" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2176</v>
+      </c>
+      <c r="D183" s="13">
+        <v>4</v>
+      </c>
+      <c r="E183" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:5">
+      <c r="A184" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2177</v>
+      </c>
+      <c r="D184" s="13">
+        <v>4</v>
+      </c>
+      <c r="E184" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="1:5">
+      <c r="A185" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2178</v>
+      </c>
+      <c r="D185" s="13">
+        <v>4</v>
+      </c>
+      <c r="E185" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:5">
+      <c r="A186" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C186" s="1">
+        <v>2179</v>
+      </c>
+      <c r="D186" s="13">
+        <v>4</v>
+      </c>
+      <c r="E186" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:5">
+      <c r="A187" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2180</v>
+      </c>
+      <c r="D187" s="13">
+        <v>5</v>
+      </c>
+      <c r="E187" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:5">
+      <c r="A188" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2181</v>
+      </c>
+      <c r="D188" s="13">
+        <v>5</v>
+      </c>
+      <c r="E188" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:5">
+      <c r="A189" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2182</v>
+      </c>
+      <c r="D189" s="13">
+        <v>5</v>
+      </c>
+      <c r="E189" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:5">
+      <c r="A190" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2183</v>
+      </c>
+      <c r="D190" s="13">
+        <v>5</v>
+      </c>
+      <c r="E190" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="1:5">
+      <c r="A191" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2184</v>
+      </c>
+      <c r="D191" s="13">
+        <v>5</v>
+      </c>
+      <c r="E191" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="1:5">
+      <c r="A192" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2185</v>
+      </c>
+      <c r="D192" s="13">
+        <v>5</v>
+      </c>
+      <c r="E192" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="1:5">
+      <c r="A193" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2186</v>
+      </c>
+      <c r="D193" s="13">
+        <v>5</v>
+      </c>
+      <c r="E193" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="1:5">
+      <c r="A194" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2187</v>
+      </c>
+      <c r="D194" s="13">
+        <v>5</v>
+      </c>
+      <c r="E194" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="1:5">
+      <c r="A195" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2188</v>
+      </c>
+      <c r="D195" s="13">
+        <v>5</v>
+      </c>
+      <c r="E195" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" customHeight="1" spans="1:5">
+      <c r="A196" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C196" s="1">
+        <v>2189</v>
+      </c>
+      <c r="D196" s="13">
+        <v>5</v>
+      </c>
+      <c r="E196" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="1:5">
+      <c r="A197" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2190</v>
+      </c>
+      <c r="D197" s="13">
+        <v>5</v>
+      </c>
+      <c r="E197" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="1:5">
+      <c r="A198" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198" s="1">
+        <v>2191</v>
+      </c>
+      <c r="D198" s="13">
+        <v>5</v>
+      </c>
+      <c r="E198" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:5">
+      <c r="A199" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2192</v>
+      </c>
+      <c r="D199" s="13">
+        <v>5</v>
+      </c>
+      <c r="E199" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="1:5">
+      <c r="A200" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C200" s="1">
+        <v>2193</v>
+      </c>
+      <c r="D200" s="13">
+        <v>5</v>
+      </c>
+      <c r="E200" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="1:5">
+      <c r="A201" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2194</v>
+      </c>
+      <c r="D201" s="13">
+        <v>5</v>
+      </c>
+      <c r="E201" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="1:5">
+      <c r="A202" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C202" s="1">
+        <v>2195</v>
+      </c>
+      <c r="D202" s="13">
+        <v>5</v>
+      </c>
+      <c r="E202" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="1:5">
+      <c r="A203" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C203" s="1">
+        <v>2196</v>
+      </c>
+      <c r="D203" s="13">
+        <v>5</v>
+      </c>
+      <c r="E203" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="1:5">
+      <c r="A204" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C204" s="1">
+        <v>2197</v>
+      </c>
+      <c r="D204" s="13">
+        <v>5</v>
+      </c>
+      <c r="E204" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="1:5">
+      <c r="A205" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" s="1">
+        <v>2198</v>
+      </c>
+      <c r="D205" s="13">
+        <v>5</v>
+      </c>
+      <c r="E205" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customHeight="1" spans="1:5">
+      <c r="A206" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="1">
+        <v>2199</v>
+      </c>
+      <c r="D206" s="13">
+        <v>5</v>
+      </c>
+      <c r="E206" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="1:5">
+      <c r="A207" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D207" s="13">
+        <v>5</v>
+      </c>
+      <c r="E207" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="1:5">
+      <c r="A208" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="1">
+        <v>2201</v>
+      </c>
+      <c r="D208" s="13">
+        <v>5</v>
+      </c>
+      <c r="E208" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" customHeight="1" spans="1:5">
+      <c r="A209" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" s="1">
+        <v>2202</v>
+      </c>
+      <c r="D209" s="13">
+        <v>5</v>
+      </c>
+      <c r="E209" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="1:5">
+      <c r="A210" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2203</v>
+      </c>
+      <c r="D210" s="13">
+        <v>5</v>
+      </c>
+      <c r="E210" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="1:5">
+      <c r="A211" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C211" s="1">
+        <v>2204</v>
+      </c>
+      <c r="D211" s="13">
+        <v>5</v>
+      </c>
+      <c r="E211" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customHeight="1" spans="1:5">
+      <c r="A212" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212" s="1">
+        <v>2205</v>
+      </c>
+      <c r="D212" s="13">
+        <v>5</v>
+      </c>
+      <c r="E212" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="1:5">
+      <c r="A213" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2206</v>
+      </c>
+      <c r="D213" s="13">
+        <v>5</v>
+      </c>
+      <c r="E213" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="1:5">
+      <c r="A214" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C214" s="1">
+        <v>2207</v>
+      </c>
+      <c r="D214" s="13">
+        <v>5</v>
+      </c>
+      <c r="E214" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" customHeight="1" spans="1:5">
+      <c r="A215" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C215" s="1">
+        <v>2208</v>
+      </c>
+      <c r="D215" s="13">
+        <v>5</v>
+      </c>
+      <c r="E215" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="1:5">
+      <c r="A216" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C216" s="1">
+        <v>2209</v>
+      </c>
+      <c r="D216" s="13">
+        <v>5</v>
+      </c>
+      <c r="E216" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" customHeight="1" spans="1:5">
+      <c r="A217" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C217" s="1">
+        <v>2210</v>
+      </c>
+      <c r="D217" s="13">
+        <v>5</v>
+      </c>
+      <c r="E217" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="1:5">
+      <c r="A218" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C218" s="1">
+        <v>2211</v>
+      </c>
+      <c r="D218" s="13">
+        <v>5</v>
+      </c>
+      <c r="E218" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" customHeight="1" spans="1:5">
+      <c r="A219" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2212</v>
+      </c>
+      <c r="D219" s="13">
+        <v>5</v>
+      </c>
+      <c r="E219" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="1:5">
+      <c r="A220" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C220" s="1">
+        <v>2213</v>
+      </c>
+      <c r="D220" s="13">
+        <v>5</v>
+      </c>
+      <c r="E220" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" customHeight="1" spans="1:5">
+      <c r="A221" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C221" s="1">
+        <v>2214</v>
+      </c>
+      <c r="D221" s="13">
+        <v>5</v>
+      </c>
+      <c r="E221" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="1:5">
+      <c r="A222" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C222" s="1">
+        <v>2215</v>
+      </c>
+      <c r="D222" s="13">
+        <v>5</v>
+      </c>
+      <c r="E222" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" customHeight="1" spans="1:5">
+      <c r="A223" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C223" s="1">
+        <v>2216</v>
+      </c>
+      <c r="D223" s="13">
         <v>6</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="18">
-        <v>5</v>
-      </c>
-      <c r="F12" s="18">
-        <v>5</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="E223" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="1:5">
+      <c r="A224" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2217</v>
+      </c>
+      <c r="D224" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" ht="16.15" customHeight="1" spans="1:8">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="19"/>
+      <c r="E224" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:5">
+      <c r="A225" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2218</v>
+      </c>
+      <c r="D225" s="13">
+        <v>6</v>
+      </c>
+      <c r="E225" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:5">
+      <c r="A226" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C226" s="1">
+        <v>2219</v>
+      </c>
+      <c r="D226" s="13">
+        <v>6</v>
+      </c>
+      <c r="E226" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:5">
+      <c r="A227" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C227" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D227" s="13">
+        <v>6</v>
+      </c>
+      <c r="E227" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:5">
+      <c r="A228" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2221</v>
+      </c>
+      <c r="D228" s="13">
+        <v>6</v>
+      </c>
+      <c r="E228" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="1:5">
+      <c r="A229" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C229" s="1">
+        <v>2222</v>
+      </c>
+      <c r="D229" s="13">
+        <v>6</v>
+      </c>
+      <c r="E229" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customHeight="1" spans="1:5">
+      <c r="A230" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C230" s="1">
+        <v>2223</v>
+      </c>
+      <c r="D230" s="13">
+        <v>6</v>
+      </c>
+      <c r="E230" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:5">
+      <c r="A231" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2224</v>
+      </c>
+      <c r="D231" s="13">
+        <v>6</v>
+      </c>
+      <c r="E231" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" customHeight="1" spans="1:5">
+      <c r="A232" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C232" s="1">
+        <v>2225</v>
+      </c>
+      <c r="D232" s="13">
+        <v>6</v>
+      </c>
+      <c r="E232" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="1:5">
+      <c r="A233" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2226</v>
+      </c>
+      <c r="D233" s="13">
+        <v>6</v>
+      </c>
+      <c r="E233" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" customHeight="1" spans="1:5">
+      <c r="A234" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C234" s="1">
+        <v>2227</v>
+      </c>
+      <c r="D234" s="13">
+        <v>6</v>
+      </c>
+      <c r="E234" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="1:5">
+      <c r="A235" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C235" s="1">
+        <v>2228</v>
+      </c>
+      <c r="D235" s="13">
+        <v>6</v>
+      </c>
+      <c r="E235" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customHeight="1" spans="1:5">
+      <c r="A236" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C236" s="1">
+        <v>2229</v>
+      </c>
+      <c r="D236" s="13">
+        <v>6</v>
+      </c>
+      <c r="E236" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="1:5">
+      <c r="A237" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237" s="1">
+        <v>2230</v>
+      </c>
+      <c r="D237" s="13">
+        <v>6</v>
+      </c>
+      <c r="E237" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="1:5">
+      <c r="A238" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2231</v>
+      </c>
+      <c r="D238" s="13">
+        <v>6</v>
+      </c>
+      <c r="E238" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" customHeight="1" spans="1:5">
+      <c r="A239" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C239" s="1">
+        <v>2232</v>
+      </c>
+      <c r="D239" s="13">
+        <v>6</v>
+      </c>
+      <c r="E239" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="1:5">
+      <c r="A240" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C240" s="1">
+        <v>2233</v>
+      </c>
+      <c r="D240" s="13">
+        <v>6</v>
+      </c>
+      <c r="E240" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="1:5">
+      <c r="A241" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2234</v>
+      </c>
+      <c r="D241" s="13">
+        <v>6</v>
+      </c>
+      <c r="E241" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customHeight="1" spans="1:5">
+      <c r="A242" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C242" s="1">
+        <v>2235</v>
+      </c>
+      <c r="D242" s="13">
+        <v>6</v>
+      </c>
+      <c r="E242" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="1:5">
+      <c r="A243" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="1">
+        <v>2236</v>
+      </c>
+      <c r="D243" s="13">
+        <v>6</v>
+      </c>
+      <c r="E243" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="1:5">
+      <c r="A244" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="1">
+        <v>2237</v>
+      </c>
+      <c r="D244" s="13">
+        <v>6</v>
+      </c>
+      <c r="E244" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" customHeight="1" spans="1:5">
+      <c r="A245" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C245" s="1">
+        <v>2238</v>
+      </c>
+      <c r="D245" s="13">
+        <v>6</v>
+      </c>
+      <c r="E245" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" customHeight="1" spans="1:5">
+      <c r="A246" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C246" s="1">
+        <v>2239</v>
+      </c>
+      <c r="D246" s="13">
+        <v>6</v>
+      </c>
+      <c r="E246" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="1:5">
+      <c r="A247" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C247" s="1">
+        <v>2240</v>
+      </c>
+      <c r="D247" s="13">
+        <v>6</v>
+      </c>
+      <c r="E247" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="1:5">
+      <c r="A248" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C248" s="1">
+        <v>2241</v>
+      </c>
+      <c r="D248" s="13">
+        <v>6</v>
+      </c>
+      <c r="E248" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" customHeight="1" spans="1:5">
+      <c r="A249" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249" s="1">
+        <v>2242</v>
+      </c>
+      <c r="D249" s="13">
+        <v>6</v>
+      </c>
+      <c r="E249" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" customHeight="1" spans="1:5">
+      <c r="A250" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C250" s="1">
+        <v>2243</v>
+      </c>
+      <c r="D250" s="13">
+        <v>6</v>
+      </c>
+      <c r="E250" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" customHeight="1" spans="1:5">
+      <c r="A251" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2244</v>
+      </c>
+      <c r="D251" s="13">
+        <v>6</v>
+      </c>
+      <c r="E251" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" customHeight="1" spans="1:5">
+      <c r="A252" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C252" s="1">
+        <v>2245</v>
+      </c>
+      <c r="D252" s="13">
+        <v>6</v>
+      </c>
+      <c r="E252" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" customHeight="1" spans="1:5">
+      <c r="A253" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C253" s="1">
+        <v>2246</v>
+      </c>
+      <c r="D253" s="13">
+        <v>6</v>
+      </c>
+      <c r="E253" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customHeight="1" spans="1:5">
+      <c r="A254" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C254" s="1">
+        <v>2247</v>
+      </c>
+      <c r="D254" s="13">
+        <v>6</v>
+      </c>
+      <c r="E254" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" customHeight="1" spans="1:5">
+      <c r="A255" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C255" s="1">
+        <v>2248</v>
+      </c>
+      <c r="D255" s="13">
+        <v>6</v>
+      </c>
+      <c r="E255" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" customHeight="1" spans="1:5">
+      <c r="A256" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C256" s="1">
+        <v>2249</v>
+      </c>
+      <c r="D256" s="13">
+        <v>6</v>
+      </c>
+      <c r="E256" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" customHeight="1" spans="1:5">
+      <c r="A257" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C257" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D257" s="13">
+        <v>6</v>
+      </c>
+      <c r="E257" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="1:5">
+      <c r="A258" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C258" s="1">
+        <v>2251</v>
+      </c>
+      <c r="D258" s="13">
+        <v>6</v>
+      </c>
+      <c r="E258" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="1:5">
+      <c r="A259" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2252</v>
+      </c>
+      <c r="D259" s="13">
+        <v>7</v>
+      </c>
+      <c r="E259" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="1:5">
+      <c r="A260" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C260" s="1">
+        <v>2253</v>
+      </c>
+      <c r="D260" s="13">
+        <v>7</v>
+      </c>
+      <c r="E260" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customHeight="1" spans="1:5">
+      <c r="A261" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C261" s="1">
+        <v>2254</v>
+      </c>
+      <c r="D261" s="13">
+        <v>7</v>
+      </c>
+      <c r="E261" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="1:5">
+      <c r="A262" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C262" s="1">
+        <v>2255</v>
+      </c>
+      <c r="D262" s="13">
+        <v>7</v>
+      </c>
+      <c r="E262" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" customHeight="1" spans="1:5">
+      <c r="A263" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C263" s="1">
+        <v>2256</v>
+      </c>
+      <c r="D263" s="13">
+        <v>7</v>
+      </c>
+      <c r="E263" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="1:5">
+      <c r="A264" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C264" s="1">
+        <v>2257</v>
+      </c>
+      <c r="D264" s="13">
+        <v>7</v>
+      </c>
+      <c r="E264" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" customHeight="1" spans="1:5">
+      <c r="A265" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C265" s="1">
+        <v>2258</v>
+      </c>
+      <c r="D265" s="13">
+        <v>7</v>
+      </c>
+      <c r="E265" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" customHeight="1" spans="1:5">
+      <c r="A266" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C266" s="1">
+        <v>2259</v>
+      </c>
+      <c r="D266" s="13">
+        <v>7</v>
+      </c>
+      <c r="E266" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" customHeight="1" spans="1:5">
+      <c r="A267" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C267" s="1">
+        <v>2260</v>
+      </c>
+      <c r="D267" s="13">
+        <v>7</v>
+      </c>
+      <c r="E267" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" customHeight="1" spans="1:5">
+      <c r="A268" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C268" s="1">
+        <v>2261</v>
+      </c>
+      <c r="D268" s="13">
+        <v>7</v>
+      </c>
+      <c r="E268" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" customHeight="1" spans="1:5">
+      <c r="A269" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C269" s="1">
+        <v>2262</v>
+      </c>
+      <c r="D269" s="13">
+        <v>7</v>
+      </c>
+      <c r="E269" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" customHeight="1" spans="1:5">
+      <c r="A270" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C270" s="1">
+        <v>2263</v>
+      </c>
+      <c r="D270" s="13">
+        <v>7</v>
+      </c>
+      <c r="E270" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" customHeight="1" spans="1:5">
+      <c r="A271" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C271" s="1">
+        <v>2264</v>
+      </c>
+      <c r="D271" s="13">
+        <v>7</v>
+      </c>
+      <c r="E271" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" customHeight="1" spans="1:5">
+      <c r="A272" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C272" s="1">
+        <v>2265</v>
+      </c>
+      <c r="D272" s="13">
+        <v>7</v>
+      </c>
+      <c r="E272" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customHeight="1" spans="1:5">
+      <c r="A273" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C273" s="1">
+        <v>2266</v>
+      </c>
+      <c r="D273" s="13">
+        <v>7</v>
+      </c>
+      <c r="E273" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" customHeight="1" spans="1:5">
+      <c r="A274" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C274" s="1">
+        <v>2267</v>
+      </c>
+      <c r="D274" s="13">
+        <v>7</v>
+      </c>
+      <c r="E274" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" customHeight="1" spans="1:5">
+      <c r="A275" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2268</v>
+      </c>
+      <c r="D275" s="13">
+        <v>7</v>
+      </c>
+      <c r="E275" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" customHeight="1" spans="1:5">
+      <c r="A276" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C276" s="1">
+        <v>2269</v>
+      </c>
+      <c r="D276" s="13">
+        <v>7</v>
+      </c>
+      <c r="E276" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" customHeight="1" spans="1:5">
+      <c r="A277" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C277" s="1">
+        <v>2270</v>
+      </c>
+      <c r="D277" s="13">
+        <v>7</v>
+      </c>
+      <c r="E277" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" customHeight="1" spans="1:5">
+      <c r="A278" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C278" s="1">
+        <v>2271</v>
+      </c>
+      <c r="D278" s="13">
+        <v>7</v>
+      </c>
+      <c r="E278" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" customHeight="1" spans="1:5">
+      <c r="A279" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C279" s="1">
+        <v>2272</v>
+      </c>
+      <c r="D279" s="13">
+        <v>7</v>
+      </c>
+      <c r="E279" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" customHeight="1" spans="1:5">
+      <c r="A280" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C280" s="1">
+        <v>2273</v>
+      </c>
+      <c r="D280" s="13">
+        <v>7</v>
+      </c>
+      <c r="E280" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" customHeight="1" spans="1:5">
+      <c r="A281" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C281" s="1">
+        <v>2274</v>
+      </c>
+      <c r="D281" s="13">
+        <v>7</v>
+      </c>
+      <c r="E281" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="1:5">
+      <c r="A282" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C282" s="1">
+        <v>2275</v>
+      </c>
+      <c r="D282" s="13">
+        <v>7</v>
+      </c>
+      <c r="E282" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" customHeight="1" spans="1:5">
+      <c r="A283" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C283" s="1">
+        <v>2276</v>
+      </c>
+      <c r="D283" s="13">
+        <v>7</v>
+      </c>
+      <c r="E283" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="1:5">
+      <c r="A284" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C284" s="1">
+        <v>2277</v>
+      </c>
+      <c r="D284" s="13">
+        <v>7</v>
+      </c>
+      <c r="E284" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="1:5">
+      <c r="A285" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C285" s="1">
+        <v>2278</v>
+      </c>
+      <c r="D285" s="13">
+        <v>7</v>
+      </c>
+      <c r="E285" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="1:5">
+      <c r="A286" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C286" s="1">
+        <v>2279</v>
+      </c>
+      <c r="D286" s="13">
+        <v>7</v>
+      </c>
+      <c r="E286" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" customHeight="1" spans="1:5">
+      <c r="A287" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C287" s="1">
+        <v>2280</v>
+      </c>
+      <c r="D287" s="13">
+        <v>7</v>
+      </c>
+      <c r="E287" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="1:5">
+      <c r="A288" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C288" s="1">
+        <v>2281</v>
+      </c>
+      <c r="D288" s="13">
+        <v>7</v>
+      </c>
+      <c r="E288" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" customHeight="1" spans="1:5">
+      <c r="A289" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C289" s="1">
+        <v>2282</v>
+      </c>
+      <c r="D289" s="13">
+        <v>7</v>
+      </c>
+      <c r="E289" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="1:5">
+      <c r="A290" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C290" s="1">
+        <v>2283</v>
+      </c>
+      <c r="D290" s="13">
+        <v>7</v>
+      </c>
+      <c r="E290" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="1:5">
+      <c r="A291" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C291" s="1">
+        <v>2284</v>
+      </c>
+      <c r="D291" s="13">
+        <v>7</v>
+      </c>
+      <c r="E291" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" customHeight="1" spans="1:5">
+      <c r="A292" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C292" s="1">
+        <v>2285</v>
+      </c>
+      <c r="D292" s="13">
+        <v>7</v>
+      </c>
+      <c r="E292" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" customHeight="1" spans="1:5">
+      <c r="A293" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C293" s="1">
+        <v>2286</v>
+      </c>
+      <c r="D293" s="13">
+        <v>7</v>
+      </c>
+      <c r="E293" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" customHeight="1" spans="1:5">
+      <c r="A294" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C294" s="1">
+        <v>2287</v>
+      </c>
+      <c r="D294" s="13">
+        <v>7</v>
+      </c>
+      <c r="E294" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" customHeight="1" spans="1:5">
+      <c r="A295" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C295" s="1">
+        <v>2288</v>
+      </c>
+      <c r="D295" s="13">
+        <v>8</v>
+      </c>
+      <c r="E295" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" customHeight="1" spans="1:5">
+      <c r="A296" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C296" s="1">
+        <v>2289</v>
+      </c>
+      <c r="D296" s="13">
+        <v>8</v>
+      </c>
+      <c r="E296" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" customHeight="1" spans="1:5">
+      <c r="A297" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C297" s="1">
+        <v>2290</v>
+      </c>
+      <c r="D297" s="13">
+        <v>8</v>
+      </c>
+      <c r="E297" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" customHeight="1" spans="1:5">
+      <c r="A298" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C298" s="1">
+        <v>2291</v>
+      </c>
+      <c r="D298" s="13">
+        <v>8</v>
+      </c>
+      <c r="E298" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" customHeight="1" spans="1:5">
+      <c r="A299" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C299" s="1">
+        <v>2292</v>
+      </c>
+      <c r="D299" s="13">
+        <v>8</v>
+      </c>
+      <c r="E299" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" customHeight="1" spans="1:5">
+      <c r="A300" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C300" s="1">
+        <v>2293</v>
+      </c>
+      <c r="D300" s="13">
+        <v>8</v>
+      </c>
+      <c r="E300" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" customHeight="1" spans="1:5">
+      <c r="A301" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C301" s="1">
+        <v>2294</v>
+      </c>
+      <c r="D301" s="13">
+        <v>8</v>
+      </c>
+      <c r="E301" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" customHeight="1" spans="1:5">
+      <c r="A302" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C302" s="1">
+        <v>2295</v>
+      </c>
+      <c r="D302" s="13">
+        <v>8</v>
+      </c>
+      <c r="E302" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" customHeight="1" spans="1:5">
+      <c r="A303" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C303" s="1">
+        <v>2296</v>
+      </c>
+      <c r="D303" s="13">
+        <v>8</v>
+      </c>
+      <c r="E303" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" customHeight="1" spans="1:5">
+      <c r="A304" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C304" s="1">
+        <v>2297</v>
+      </c>
+      <c r="D304" s="13">
+        <v>8</v>
+      </c>
+      <c r="E304" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" customHeight="1" spans="1:5">
+      <c r="A305" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C305" s="1">
+        <v>2298</v>
+      </c>
+      <c r="D305" s="13">
+        <v>8</v>
+      </c>
+      <c r="E305" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" customHeight="1" spans="1:5">
+      <c r="A306" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C306" s="1">
+        <v>2299</v>
+      </c>
+      <c r="D306" s="13">
+        <v>8</v>
+      </c>
+      <c r="E306" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" customHeight="1" spans="1:5">
+      <c r="A307" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C307" s="1">
+        <v>2300</v>
+      </c>
+      <c r="D307" s="13">
+        <v>8</v>
+      </c>
+      <c r="E307" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" customHeight="1" spans="1:5">
+      <c r="A308" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C308" s="1">
+        <v>2301</v>
+      </c>
+      <c r="D308" s="13">
+        <v>8</v>
+      </c>
+      <c r="E308" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" customHeight="1" spans="1:5">
+      <c r="A309" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C309" s="1">
+        <v>2302</v>
+      </c>
+      <c r="D309" s="13">
+        <v>8</v>
+      </c>
+      <c r="E309" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" customHeight="1" spans="1:5">
+      <c r="A310" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C310" s="1">
+        <v>2303</v>
+      </c>
+      <c r="D310" s="13">
+        <v>8</v>
+      </c>
+      <c r="E310" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="1:5">
+      <c r="A311" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C311" s="1">
+        <v>2304</v>
+      </c>
+      <c r="D311" s="13">
+        <v>8</v>
+      </c>
+      <c r="E311" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="1:5">
+      <c r="A312" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C312" s="1">
+        <v>2305</v>
+      </c>
+      <c r="D312" s="13">
+        <v>8</v>
+      </c>
+      <c r="E312" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" customHeight="1" spans="1:5">
+      <c r="A313" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C313" s="1">
+        <v>2306</v>
+      </c>
+      <c r="D313" s="13">
+        <v>8</v>
+      </c>
+      <c r="E313" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="1:5">
+      <c r="A314" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C314" s="1">
+        <v>2307</v>
+      </c>
+      <c r="D314" s="13">
+        <v>8</v>
+      </c>
+      <c r="E314" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="1:5">
+      <c r="A315" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C315" s="1">
+        <v>2308</v>
+      </c>
+      <c r="D315" s="13">
+        <v>8</v>
+      </c>
+      <c r="E315" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="1:5">
+      <c r="A316" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C316" s="1">
+        <v>2309</v>
+      </c>
+      <c r="D316" s="13">
+        <v>8</v>
+      </c>
+      <c r="E316" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="1:5">
+      <c r="A317" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C317" s="1">
+        <v>2310</v>
+      </c>
+      <c r="D317" s="13">
+        <v>8</v>
+      </c>
+      <c r="E317" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" customHeight="1" spans="1:5">
+      <c r="A318" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C318" s="1">
+        <v>2311</v>
+      </c>
+      <c r="D318" s="13">
+        <v>8</v>
+      </c>
+      <c r="E318" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" customHeight="1" spans="1:5">
+      <c r="A319" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C319" s="1">
+        <v>2312</v>
+      </c>
+      <c r="D319" s="13">
+        <v>8</v>
+      </c>
+      <c r="E319" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" customHeight="1" spans="1:5">
+      <c r="A320" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C320" s="1">
+        <v>2313</v>
+      </c>
+      <c r="D320" s="13">
+        <v>8</v>
+      </c>
+      <c r="E320" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" customHeight="1" spans="1:5">
+      <c r="A321" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C321" s="1">
+        <v>2314</v>
+      </c>
+      <c r="D321" s="13">
+        <v>8</v>
+      </c>
+      <c r="E321" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" customHeight="1" spans="1:5">
+      <c r="A322" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C322" s="1">
+        <v>2315</v>
+      </c>
+      <c r="D322" s="13">
+        <v>8</v>
+      </c>
+      <c r="E322" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" customHeight="1" spans="1:5">
+      <c r="A323" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C323" s="1">
+        <v>2316</v>
+      </c>
+      <c r="D323" s="13">
+        <v>8</v>
+      </c>
+      <c r="E323" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" customHeight="1" spans="1:5">
+      <c r="A324" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C324" s="1">
+        <v>2317</v>
+      </c>
+      <c r="D324" s="13">
+        <v>8</v>
+      </c>
+      <c r="E324" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" customHeight="1" spans="1:5">
+      <c r="A325" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C325" s="1">
+        <v>2318</v>
+      </c>
+      <c r="D325" s="13">
+        <v>8</v>
+      </c>
+      <c r="E325" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" customHeight="1" spans="1:5">
+      <c r="A326" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C326" s="1">
+        <v>2319</v>
+      </c>
+      <c r="D326" s="13">
+        <v>8</v>
+      </c>
+      <c r="E326" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" customHeight="1" spans="1:5">
+      <c r="A327" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C327" s="1">
+        <v>2320</v>
+      </c>
+      <c r="D327" s="13">
+        <v>8</v>
+      </c>
+      <c r="E327" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" customHeight="1" spans="1:5">
+      <c r="A328" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C328" s="1">
+        <v>2321</v>
+      </c>
+      <c r="D328" s="13">
+        <v>8</v>
+      </c>
+      <c r="E328" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" customHeight="1" spans="1:5">
+      <c r="A329" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C329" s="1">
+        <v>2322</v>
+      </c>
+      <c r="D329" s="13">
+        <v>8</v>
+      </c>
+      <c r="E329" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" customHeight="1" spans="1:5">
+      <c r="A330" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C330" s="1">
+        <v>2323</v>
+      </c>
+      <c r="D330" s="13">
+        <v>8</v>
+      </c>
+      <c r="E330" s="15">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/Crystal.xlsx
+++ b/config/excel/Crystal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="65">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -22,19 +22,6 @@
     <t>与item物品表id对应</t>
   </si>
   <si>
-    <t xml:space="preserve">晶石类型：
-0: 地
-1: 水
-2: 火
-3: 风
-4: 雷
-5: 时
-6: 空
-7：钢
-8：灭
-</t>
-  </si>
-  <si>
     <t>0-5</t>
   </si>
   <si>
@@ -44,16 +31,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>pos</t>
   </si>
   <si>
     <t>导出字段描述</t>
-  </si>
-  <si>
-    <t>类型</t>
   </si>
   <si>
     <t>位置</t>
@@ -235,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -261,32 +242,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,10 +263,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,7 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,9 +293,79 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,62 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,7 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +438,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,43 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,67 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,43 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,30 +692,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -758,16 +715,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -788,74 +765,72 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,106 +839,109 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2183,33 +2161,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:D330"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C330"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.3583333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="16380" width="6" style="1" customWidth="1"/>
-    <col min="16381" max="16384" width="6" style="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="16379" width="6" style="1" customWidth="1"/>
+    <col min="16380" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1" spans="1:5">
+    <row r="1" ht="16.15" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="148.5" spans="1:5">
+    </row>
+    <row r="2" ht="27" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2218,4604 +2194,3619 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
+    <row r="5" ht="16.15" customHeight="1" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:4">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="13">
+        <v>2001</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="13">
+        <v>2002</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:4">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="13">
+        <v>2004</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="1:4">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="13">
+        <v>2005</v>
+      </c>
+      <c r="D12" s="14">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="13" ht="16.15" customHeight="1" spans="1:4">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" spans="1:5">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15">
+        <v>2006</v>
+      </c>
+      <c r="D13" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" spans="1:5">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="14">
-        <v>2001</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" spans="1:5">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="14">
-        <v>2002</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" spans="1:5">
-      <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="14">
-        <v>2003</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:5">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="14">
-        <v>2004</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:5">
-      <c r="A12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="14">
-        <v>2005</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="16.15" customHeight="1" spans="1:5">
-      <c r="A13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16">
-        <v>2006</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="11" t="s">
-        <v>15</v>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>2007</v>
       </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="11" t="s">
-        <v>15</v>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>2008</v>
       </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>15</v>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>2009</v>
       </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="11" t="s">
-        <v>15</v>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>2010</v>
       </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D17" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>15</v>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>2011</v>
       </c>
-      <c r="D18" s="13">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="D18" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>16</v>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="1">
         <v>2012</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>0</v>
       </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="11" t="s">
-        <v>16</v>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="1">
         <v>2013</v>
       </c>
-      <c r="D20" s="13">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="D20" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="11" t="s">
-        <v>16</v>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>2014</v>
       </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="D21" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="11" t="s">
-        <v>16</v>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="1">
         <v>2015</v>
       </c>
-      <c r="D22" s="13">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="D22" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="11" t="s">
-        <v>16</v>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C23" s="1">
         <v>2016</v>
       </c>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="D23" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="11" t="s">
-        <v>16</v>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C24" s="1">
         <v>2017</v>
       </c>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="D24" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="11" t="s">
-        <v>17</v>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>2018</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>0</v>
       </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="11" t="s">
-        <v>17</v>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C26" s="1">
         <v>2019</v>
       </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="11" t="s">
-        <v>17</v>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C27" s="1">
         <v>2020</v>
       </c>
-      <c r="D27" s="13">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D27" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="11" t="s">
-        <v>17</v>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C28" s="1">
         <v>2021</v>
       </c>
-      <c r="D28" s="13">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
+      <c r="D28" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="11" t="s">
-        <v>17</v>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C29" s="1">
         <v>2022</v>
       </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
+      <c r="D29" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="11" t="s">
-        <v>17</v>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <v>2023</v>
       </c>
-      <c r="D30" s="13">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
+      <c r="D30" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="11" t="s">
-        <v>18</v>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C31" s="1">
         <v>2024</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>0</v>
       </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="11" t="s">
-        <v>18</v>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <v>2025</v>
       </c>
-      <c r="D32" s="13">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15">
+      <c r="D32" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="11" t="s">
-        <v>18</v>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>2026</v>
       </c>
-      <c r="D33" s="13">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
+      <c r="D33" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="11" t="s">
-        <v>18</v>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C34" s="1">
         <v>2027</v>
       </c>
-      <c r="D34" s="13">
-        <v>0</v>
-      </c>
-      <c r="E34" s="15">
+      <c r="D34" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="11" t="s">
-        <v>18</v>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C35" s="1">
         <v>2028</v>
       </c>
-      <c r="D35" s="13">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
+      <c r="D35" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="11" t="s">
-        <v>18</v>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C36" s="1">
         <v>2029</v>
       </c>
-      <c r="D36" s="13">
-        <v>0</v>
-      </c>
-      <c r="E36" s="15">
+      <c r="D36" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="11" t="s">
-        <v>19</v>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C37" s="1">
         <v>2030</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="11" t="s">
-        <v>19</v>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C38" s="1">
         <v>2031</v>
       </c>
-      <c r="D38" s="13">
-        <v>0</v>
-      </c>
-      <c r="E38" s="15">
+      <c r="D38" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="11" t="s">
-        <v>19</v>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C39" s="1">
         <v>2032</v>
       </c>
-      <c r="D39" s="13">
-        <v>0</v>
-      </c>
-      <c r="E39" s="15">
+      <c r="D39" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="11" t="s">
-        <v>19</v>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C40" s="1">
         <v>2033</v>
       </c>
-      <c r="D40" s="13">
-        <v>0</v>
-      </c>
-      <c r="E40" s="15">
+      <c r="D40" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="11" t="s">
-        <v>19</v>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C41" s="1">
         <v>2034</v>
       </c>
-      <c r="D41" s="13">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15">
+      <c r="D41" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="11" t="s">
-        <v>19</v>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C42" s="1">
         <v>2035</v>
       </c>
-      <c r="D42" s="13">
-        <v>0</v>
-      </c>
-      <c r="E42" s="15">
+      <c r="D42" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="11" t="s">
-        <v>20</v>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C43" s="1">
         <v>2036</v>
       </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13">
+      <c r="D43" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="11" t="s">
-        <v>20</v>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C44" s="1">
         <v>2037</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="14">
         <v>1</v>
       </c>
-      <c r="E44" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="11" t="s">
-        <v>20</v>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>2038</v>
       </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="15">
+      <c r="D45" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="11" t="s">
-        <v>20</v>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>2039</v>
       </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="15">
+      <c r="D46" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="11" t="s">
-        <v>20</v>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C47" s="1">
         <v>2040</v>
       </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="15">
+      <c r="D47" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="11" t="s">
-        <v>20</v>
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C48" s="1">
         <v>2041</v>
       </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="15">
+      <c r="D48" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="11" t="s">
-        <v>21</v>
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C49" s="1">
         <v>2042</v>
       </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13">
+      <c r="D49" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="11" t="s">
-        <v>21</v>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C50" s="1">
         <v>2043</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="14">
         <v>1</v>
       </c>
-      <c r="E50" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="11" t="s">
-        <v>21</v>
+    </row>
+    <row r="51" customHeight="1" spans="1:4">
+      <c r="A51" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C51" s="1">
         <v>2044</v>
       </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="15">
+      <c r="D51" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="11" t="s">
-        <v>21</v>
+    <row r="52" customHeight="1" spans="1:4">
+      <c r="A52" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C52" s="1">
         <v>2045</v>
       </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="15">
+      <c r="D52" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="11" t="s">
-        <v>21</v>
+    <row r="53" customHeight="1" spans="1:4">
+      <c r="A53" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C53" s="1">
         <v>2046</v>
       </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="15">
+      <c r="D53" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="11" t="s">
-        <v>21</v>
+    <row r="54" customHeight="1" spans="1:4">
+      <c r="A54" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C54" s="1">
         <v>2047</v>
       </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="15">
+      <c r="D54" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="11" t="s">
-        <v>22</v>
+    <row r="55" customHeight="1" spans="1:4">
+      <c r="A55" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C55" s="1">
         <v>2048</v>
       </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="13">
+      <c r="D55" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="11" t="s">
-        <v>22</v>
+    <row r="56" customHeight="1" spans="1:4">
+      <c r="A56" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C56" s="1">
         <v>2049</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="14">
         <v>1</v>
       </c>
-      <c r="E56" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="11" t="s">
-        <v>22</v>
+    </row>
+    <row r="57" customHeight="1" spans="1:4">
+      <c r="A57" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C57" s="1">
         <v>2050</v>
       </c>
-      <c r="D57" s="13">
-        <v>1</v>
-      </c>
-      <c r="E57" s="15">
+      <c r="D57" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="11" t="s">
-        <v>22</v>
+    <row r="58" customHeight="1" spans="1:4">
+      <c r="A58" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C58" s="1">
         <v>2051</v>
       </c>
-      <c r="D58" s="13">
-        <v>1</v>
-      </c>
-      <c r="E58" s="15">
+      <c r="D58" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="11" t="s">
-        <v>22</v>
+    <row r="59" customHeight="1" spans="1:4">
+      <c r="A59" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C59" s="1">
         <v>2052</v>
       </c>
-      <c r="D59" s="13">
-        <v>1</v>
-      </c>
-      <c r="E59" s="15">
+      <c r="D59" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="11" t="s">
-        <v>22</v>
+    <row r="60" customHeight="1" spans="1:4">
+      <c r="A60" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C60" s="1">
         <v>2053</v>
       </c>
-      <c r="D60" s="13">
-        <v>1</v>
-      </c>
-      <c r="E60" s="15">
+      <c r="D60" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="11" t="s">
-        <v>23</v>
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C61" s="1">
         <v>2054</v>
       </c>
-      <c r="D61" s="13">
-        <v>1</v>
-      </c>
-      <c r="E61" s="13">
+      <c r="D61" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="11" t="s">
-        <v>23</v>
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C62" s="1">
         <v>2055</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="14">
         <v>1</v>
       </c>
-      <c r="E62" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="11" t="s">
-        <v>23</v>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
+      <c r="A63" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C63" s="1">
         <v>2056</v>
       </c>
-      <c r="D63" s="13">
-        <v>1</v>
-      </c>
-      <c r="E63" s="15">
+      <c r="D63" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="11" t="s">
-        <v>23</v>
+    <row r="64" customHeight="1" spans="1:4">
+      <c r="A64" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C64" s="1">
         <v>2057</v>
       </c>
-      <c r="D64" s="13">
-        <v>1</v>
-      </c>
-      <c r="E64" s="15">
+      <c r="D64" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="11" t="s">
-        <v>23</v>
+    <row r="65" customHeight="1" spans="1:4">
+      <c r="A65" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C65" s="1">
         <v>2058</v>
       </c>
-      <c r="D65" s="13">
-        <v>1</v>
-      </c>
-      <c r="E65" s="15">
+      <c r="D65" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="11" t="s">
-        <v>23</v>
+    <row r="66" customHeight="1" spans="1:4">
+      <c r="A66" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C66" s="1">
         <v>2059</v>
       </c>
-      <c r="D66" s="13">
-        <v>1</v>
-      </c>
-      <c r="E66" s="15">
+      <c r="D66" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="11" t="s">
-        <v>24</v>
+    <row r="67" customHeight="1" spans="1:4">
+      <c r="A67" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C67" s="1">
         <v>2060</v>
       </c>
-      <c r="D67" s="13">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13">
+      <c r="D67" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="11" t="s">
-        <v>24</v>
+    <row r="68" customHeight="1" spans="1:4">
+      <c r="A68" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C68" s="1">
         <v>2061</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="14">
         <v>1</v>
       </c>
-      <c r="E68" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="11" t="s">
-        <v>24</v>
+    </row>
+    <row r="69" customHeight="1" spans="1:4">
+      <c r="A69" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C69" s="1">
         <v>2062</v>
       </c>
-      <c r="D69" s="13">
-        <v>1</v>
-      </c>
-      <c r="E69" s="15">
+      <c r="D69" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="11" t="s">
-        <v>24</v>
+    <row r="70" customHeight="1" spans="1:4">
+      <c r="A70" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C70" s="1">
         <v>2063</v>
       </c>
-      <c r="D70" s="13">
-        <v>1</v>
-      </c>
-      <c r="E70" s="15">
+      <c r="D70" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="11" t="s">
-        <v>24</v>
+    <row r="71" customHeight="1" spans="1:4">
+      <c r="A71" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C71" s="1">
         <v>2064</v>
       </c>
-      <c r="D71" s="13">
-        <v>1</v>
-      </c>
-      <c r="E71" s="15">
+      <c r="D71" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="11" t="s">
-        <v>24</v>
+    <row r="72" customHeight="1" spans="1:4">
+      <c r="A72" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C72" s="1">
         <v>2065</v>
       </c>
-      <c r="D72" s="13">
-        <v>1</v>
-      </c>
-      <c r="E72" s="15">
+      <c r="D72" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="11" t="s">
-        <v>25</v>
+    <row r="73" customHeight="1" spans="1:4">
+      <c r="A73" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C73" s="1">
         <v>2066</v>
       </c>
-      <c r="D73" s="13">
-        <v>1</v>
-      </c>
-      <c r="E73" s="13">
+      <c r="D73" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="11" t="s">
-        <v>25</v>
+    <row r="74" customHeight="1" spans="1:4">
+      <c r="A74" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C74" s="1">
         <v>2067</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="14">
         <v>1</v>
       </c>
-      <c r="E74" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="11" t="s">
-        <v>25</v>
+    </row>
+    <row r="75" customHeight="1" spans="1:4">
+      <c r="A75" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C75" s="1">
         <v>2068</v>
       </c>
-      <c r="D75" s="13">
-        <v>1</v>
-      </c>
-      <c r="E75" s="15">
+      <c r="D75" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="11" t="s">
-        <v>25</v>
+    <row r="76" customHeight="1" spans="1:4">
+      <c r="A76" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C76" s="1">
         <v>2069</v>
       </c>
-      <c r="D76" s="13">
-        <v>1</v>
-      </c>
-      <c r="E76" s="15">
+      <c r="D76" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="11" t="s">
-        <v>25</v>
+    <row r="77" customHeight="1" spans="1:4">
+      <c r="A77" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C77" s="1">
         <v>2070</v>
       </c>
-      <c r="D77" s="13">
-        <v>1</v>
-      </c>
-      <c r="E77" s="15">
+      <c r="D77" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="11" t="s">
-        <v>25</v>
+    <row r="78" customHeight="1" spans="1:4">
+      <c r="A78" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C78" s="1">
         <v>2071</v>
       </c>
-      <c r="D78" s="13">
-        <v>1</v>
-      </c>
-      <c r="E78" s="15">
+      <c r="D78" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="11" t="s">
-        <v>26</v>
+    <row r="79" customHeight="1" spans="1:4">
+      <c r="A79" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C79" s="1">
         <v>2072</v>
       </c>
-      <c r="D79" s="13">
-        <v>2</v>
-      </c>
-      <c r="E79" s="13">
+      <c r="D79" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="11" t="s">
-        <v>26</v>
+    <row r="80" customHeight="1" spans="1:4">
+      <c r="A80" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C80" s="1">
         <v>2073</v>
       </c>
-      <c r="D80" s="13">
-        <v>2</v>
-      </c>
-      <c r="E80" s="15">
+      <c r="D80" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="11" t="s">
-        <v>26</v>
+    <row r="81" customHeight="1" spans="1:4">
+      <c r="A81" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C81" s="1">
         <v>2074</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="14">
         <v>2</v>
       </c>
-      <c r="E81" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="11" t="s">
-        <v>26</v>
+    </row>
+    <row r="82" customHeight="1" spans="1:4">
+      <c r="A82" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C82" s="1">
         <v>2075</v>
       </c>
-      <c r="D82" s="13">
-        <v>2</v>
-      </c>
-      <c r="E82" s="15">
+      <c r="D82" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="11" t="s">
-        <v>26</v>
+    <row r="83" customHeight="1" spans="1:4">
+      <c r="A83" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C83" s="1">
         <v>2076</v>
       </c>
-      <c r="D83" s="13">
-        <v>2</v>
-      </c>
-      <c r="E83" s="15">
+      <c r="D83" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="11" t="s">
-        <v>26</v>
+    <row r="84" customHeight="1" spans="1:4">
+      <c r="A84" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C84" s="1">
         <v>2077</v>
       </c>
-      <c r="D84" s="13">
-        <v>2</v>
-      </c>
-      <c r="E84" s="15">
+      <c r="D84" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="11" t="s">
-        <v>27</v>
+    <row r="85" customHeight="1" spans="1:4">
+      <c r="A85" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C85" s="1">
         <v>2078</v>
       </c>
-      <c r="D85" s="13">
-        <v>2</v>
-      </c>
-      <c r="E85" s="13">
+      <c r="D85" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="11" t="s">
-        <v>27</v>
+    <row r="86" customHeight="1" spans="1:4">
+      <c r="A86" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C86" s="1">
         <v>2079</v>
       </c>
-      <c r="D86" s="13">
-        <v>2</v>
-      </c>
-      <c r="E86" s="15">
+      <c r="D86" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="11" t="s">
-        <v>27</v>
+    <row r="87" customHeight="1" spans="1:4">
+      <c r="A87" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C87" s="1">
         <v>2080</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="14">
         <v>2</v>
       </c>
-      <c r="E87" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="11" t="s">
-        <v>27</v>
+    </row>
+    <row r="88" customHeight="1" spans="1:4">
+      <c r="A88" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C88" s="1">
         <v>2081</v>
       </c>
-      <c r="D88" s="13">
-        <v>2</v>
-      </c>
-      <c r="E88" s="15">
+      <c r="D88" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="11" t="s">
-        <v>27</v>
+    <row r="89" customHeight="1" spans="1:4">
+      <c r="A89" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C89" s="1">
         <v>2082</v>
       </c>
-      <c r="D89" s="13">
-        <v>2</v>
-      </c>
-      <c r="E89" s="15">
+      <c r="D89" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="11" t="s">
-        <v>27</v>
+    <row r="90" customHeight="1" spans="1:4">
+      <c r="A90" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C90" s="1">
         <v>2083</v>
       </c>
-      <c r="D90" s="13">
-        <v>2</v>
-      </c>
-      <c r="E90" s="15">
+      <c r="D90" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="11" t="s">
-        <v>28</v>
+    <row r="91" customHeight="1" spans="1:4">
+      <c r="A91" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C91" s="1">
         <v>2084</v>
       </c>
-      <c r="D91" s="13">
-        <v>2</v>
-      </c>
-      <c r="E91" s="13">
+      <c r="D91" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="11" t="s">
-        <v>28</v>
+    <row r="92" customHeight="1" spans="1:4">
+      <c r="A92" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C92" s="1">
         <v>2085</v>
       </c>
-      <c r="D92" s="13">
-        <v>2</v>
-      </c>
-      <c r="E92" s="15">
+      <c r="D92" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="11" t="s">
-        <v>28</v>
+    <row r="93" customHeight="1" spans="1:4">
+      <c r="A93" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C93" s="1">
         <v>2086</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="14">
         <v>2</v>
       </c>
-      <c r="E93" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="11" t="s">
-        <v>28</v>
+    </row>
+    <row r="94" customHeight="1" spans="1:4">
+      <c r="A94" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C94" s="1">
         <v>2087</v>
       </c>
-      <c r="D94" s="13">
-        <v>2</v>
-      </c>
-      <c r="E94" s="15">
+      <c r="D94" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="11" t="s">
-        <v>28</v>
+    <row r="95" customHeight="1" spans="1:4">
+      <c r="A95" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C95" s="1">
         <v>2088</v>
       </c>
-      <c r="D95" s="13">
-        <v>2</v>
-      </c>
-      <c r="E95" s="15">
+      <c r="D95" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="11" t="s">
-        <v>28</v>
+    <row r="96" customHeight="1" spans="1:4">
+      <c r="A96" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C96" s="1">
         <v>2089</v>
       </c>
-      <c r="D96" s="13">
-        <v>2</v>
-      </c>
-      <c r="E96" s="15">
+      <c r="D96" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="11" t="s">
-        <v>29</v>
+    <row r="97" customHeight="1" spans="1:4">
+      <c r="A97" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C97" s="1">
         <v>2090</v>
       </c>
-      <c r="D97" s="13">
-        <v>2</v>
-      </c>
-      <c r="E97" s="13">
+      <c r="D97" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="11" t="s">
-        <v>29</v>
+    <row r="98" customHeight="1" spans="1:4">
+      <c r="A98" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C98" s="1">
         <v>2091</v>
       </c>
-      <c r="D98" s="13">
-        <v>2</v>
-      </c>
-      <c r="E98" s="15">
+      <c r="D98" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="11" t="s">
-        <v>29</v>
+    <row r="99" customHeight="1" spans="1:4">
+      <c r="A99" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C99" s="1">
         <v>2092</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="14">
         <v>2</v>
       </c>
-      <c r="E99" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="11" t="s">
-        <v>29</v>
+    </row>
+    <row r="100" customHeight="1" spans="1:4">
+      <c r="A100" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C100" s="1">
         <v>2093</v>
       </c>
-      <c r="D100" s="13">
-        <v>2</v>
-      </c>
-      <c r="E100" s="15">
+      <c r="D100" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="11" t="s">
-        <v>29</v>
+    <row r="101" customHeight="1" spans="1:4">
+      <c r="A101" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C101" s="1">
         <v>2094</v>
       </c>
-      <c r="D101" s="13">
-        <v>2</v>
-      </c>
-      <c r="E101" s="15">
+      <c r="D101" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:5">
-      <c r="A102" s="11" t="s">
-        <v>29</v>
+    <row r="102" customHeight="1" spans="1:4">
+      <c r="A102" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C102" s="1">
         <v>2095</v>
       </c>
-      <c r="D102" s="13">
-        <v>2</v>
-      </c>
-      <c r="E102" s="15">
+      <c r="D102" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:5">
-      <c r="A103" s="11" t="s">
-        <v>30</v>
+    <row r="103" customHeight="1" spans="1:4">
+      <c r="A103" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C103" s="1">
         <v>2096</v>
       </c>
-      <c r="D103" s="13">
-        <v>2</v>
-      </c>
-      <c r="E103" s="13">
+      <c r="D103" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:5">
-      <c r="A104" s="11" t="s">
-        <v>30</v>
+    <row r="104" customHeight="1" spans="1:4">
+      <c r="A104" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C104" s="1">
         <v>2097</v>
       </c>
-      <c r="D104" s="13">
-        <v>2</v>
-      </c>
-      <c r="E104" s="15">
+      <c r="D104" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:5">
-      <c r="A105" s="11" t="s">
-        <v>30</v>
+    <row r="105" customHeight="1" spans="1:4">
+      <c r="A105" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C105" s="1">
         <v>2098</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="14">
         <v>2</v>
       </c>
-      <c r="E105" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:5">
-      <c r="A106" s="11" t="s">
-        <v>30</v>
+    </row>
+    <row r="106" customHeight="1" spans="1:4">
+      <c r="A106" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C106" s="1">
         <v>2099</v>
       </c>
-      <c r="D106" s="13">
-        <v>2</v>
-      </c>
-      <c r="E106" s="15">
+      <c r="D106" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:5">
-      <c r="A107" s="11" t="s">
-        <v>30</v>
+    <row r="107" customHeight="1" spans="1:4">
+      <c r="A107" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C107" s="1">
         <v>2100</v>
       </c>
-      <c r="D107" s="13">
-        <v>2</v>
-      </c>
-      <c r="E107" s="15">
+      <c r="D107" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:5">
-      <c r="A108" s="11" t="s">
-        <v>30</v>
+    <row r="108" customHeight="1" spans="1:4">
+      <c r="A108" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C108" s="1">
         <v>2101</v>
       </c>
-      <c r="D108" s="13">
-        <v>2</v>
-      </c>
-      <c r="E108" s="15">
+      <c r="D108" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:5">
-      <c r="A109" s="11" t="s">
-        <v>31</v>
+    <row r="109" customHeight="1" spans="1:4">
+      <c r="A109" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C109" s="1">
         <v>2102</v>
       </c>
-      <c r="D109" s="13">
-        <v>2</v>
-      </c>
-      <c r="E109" s="13">
+      <c r="D109" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:5">
-      <c r="A110" s="11" t="s">
-        <v>31</v>
+    <row r="110" customHeight="1" spans="1:4">
+      <c r="A110" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C110" s="1">
         <v>2103</v>
       </c>
-      <c r="D110" s="13">
-        <v>2</v>
-      </c>
-      <c r="E110" s="15">
+      <c r="D110" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:5">
-      <c r="A111" s="11" t="s">
-        <v>31</v>
+    <row r="111" customHeight="1" spans="1:4">
+      <c r="A111" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C111" s="1">
         <v>2104</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="14">
         <v>2</v>
       </c>
-      <c r="E111" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:5">
-      <c r="A112" s="11" t="s">
-        <v>31</v>
+    </row>
+    <row r="112" customHeight="1" spans="1:4">
+      <c r="A112" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C112" s="1">
         <v>2105</v>
       </c>
-      <c r="D112" s="13">
-        <v>2</v>
-      </c>
-      <c r="E112" s="15">
+      <c r="D112" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:5">
-      <c r="A113" s="11" t="s">
-        <v>31</v>
+    <row r="113" customHeight="1" spans="1:4">
+      <c r="A113" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C113" s="1">
         <v>2106</v>
       </c>
-      <c r="D113" s="13">
-        <v>2</v>
-      </c>
-      <c r="E113" s="15">
+      <c r="D113" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:5">
-      <c r="A114" s="11" t="s">
-        <v>31</v>
+    <row r="114" customHeight="1" spans="1:4">
+      <c r="A114" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C114" s="1">
         <v>2107</v>
       </c>
-      <c r="D114" s="13">
-        <v>2</v>
-      </c>
-      <c r="E114" s="15">
+      <c r="D114" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:5">
-      <c r="A115" s="11" t="s">
-        <v>32</v>
+    <row r="115" customHeight="1" spans="1:4">
+      <c r="A115" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C115" s="1">
         <v>2108</v>
       </c>
-      <c r="D115" s="13">
-        <v>3</v>
-      </c>
-      <c r="E115" s="13">
+      <c r="D115" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:5">
-      <c r="A116" s="11" t="s">
-        <v>32</v>
+    <row r="116" customHeight="1" spans="1:4">
+      <c r="A116" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C116" s="1">
         <v>2109</v>
       </c>
-      <c r="D116" s="13">
-        <v>3</v>
-      </c>
-      <c r="E116" s="15">
+      <c r="D116" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:5">
-      <c r="A117" s="11" t="s">
-        <v>32</v>
+    <row r="117" customHeight="1" spans="1:4">
+      <c r="A117" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C117" s="1">
         <v>2110</v>
       </c>
-      <c r="D117" s="13">
-        <v>3</v>
-      </c>
-      <c r="E117" s="15">
+      <c r="D117" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:5">
-      <c r="A118" s="11" t="s">
-        <v>32</v>
+    <row r="118" customHeight="1" spans="1:4">
+      <c r="A118" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C118" s="1">
         <v>2111</v>
       </c>
-      <c r="D118" s="13">
+      <c r="D118" s="14">
         <v>3</v>
       </c>
-      <c r="E118" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:5">
-      <c r="A119" s="11" t="s">
-        <v>32</v>
+    </row>
+    <row r="119" customHeight="1" spans="1:4">
+      <c r="A119" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C119" s="1">
         <v>2112</v>
       </c>
-      <c r="D119" s="13">
-        <v>3</v>
-      </c>
-      <c r="E119" s="15">
+      <c r="D119" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:5">
-      <c r="A120" s="11" t="s">
-        <v>32</v>
+    <row r="120" customHeight="1" spans="1:4">
+      <c r="A120" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C120" s="1">
         <v>2113</v>
       </c>
-      <c r="D120" s="13">
-        <v>3</v>
-      </c>
-      <c r="E120" s="15">
+      <c r="D120" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:5">
-      <c r="A121" s="11" t="s">
-        <v>33</v>
+    <row r="121" customHeight="1" spans="1:4">
+      <c r="A121" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C121" s="1">
         <v>2114</v>
       </c>
-      <c r="D121" s="13">
-        <v>3</v>
-      </c>
-      <c r="E121" s="13">
+      <c r="D121" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:5">
-      <c r="A122" s="11" t="s">
-        <v>33</v>
+    <row r="122" customHeight="1" spans="1:4">
+      <c r="A122" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C122" s="1">
         <v>2115</v>
       </c>
-      <c r="D122" s="13">
-        <v>3</v>
-      </c>
-      <c r="E122" s="15">
+      <c r="D122" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:5">
-      <c r="A123" s="11" t="s">
-        <v>33</v>
+    <row r="123" customHeight="1" spans="1:4">
+      <c r="A123" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C123" s="1">
         <v>2116</v>
       </c>
-      <c r="D123" s="13">
-        <v>3</v>
-      </c>
-      <c r="E123" s="15">
+      <c r="D123" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:5">
-      <c r="A124" s="11" t="s">
-        <v>33</v>
+    <row r="124" customHeight="1" spans="1:4">
+      <c r="A124" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C124" s="1">
         <v>2117</v>
       </c>
-      <c r="D124" s="13">
+      <c r="D124" s="14">
         <v>3</v>
       </c>
-      <c r="E124" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:5">
-      <c r="A125" s="11" t="s">
-        <v>33</v>
+    </row>
+    <row r="125" customHeight="1" spans="1:4">
+      <c r="A125" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C125" s="1">
         <v>2118</v>
       </c>
-      <c r="D125" s="13">
-        <v>3</v>
-      </c>
-      <c r="E125" s="15">
+      <c r="D125" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:5">
-      <c r="A126" s="11" t="s">
-        <v>33</v>
+    <row r="126" customHeight="1" spans="1:4">
+      <c r="A126" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C126" s="1">
         <v>2119</v>
       </c>
-      <c r="D126" s="13">
-        <v>3</v>
-      </c>
-      <c r="E126" s="15">
+      <c r="D126" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:5">
-      <c r="A127" s="11" t="s">
-        <v>34</v>
+    <row r="127" customHeight="1" spans="1:4">
+      <c r="A127" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C127" s="1">
         <v>2120</v>
       </c>
-      <c r="D127" s="13">
-        <v>3</v>
-      </c>
-      <c r="E127" s="13">
+      <c r="D127" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:5">
-      <c r="A128" s="11" t="s">
-        <v>34</v>
+    <row r="128" customHeight="1" spans="1:4">
+      <c r="A128" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C128" s="1">
         <v>2121</v>
       </c>
-      <c r="D128" s="13">
-        <v>3</v>
-      </c>
-      <c r="E128" s="15">
+      <c r="D128" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:5">
-      <c r="A129" s="11" t="s">
-        <v>34</v>
+    <row r="129" customHeight="1" spans="1:4">
+      <c r="A129" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C129" s="1">
         <v>2122</v>
       </c>
-      <c r="D129" s="13">
-        <v>3</v>
-      </c>
-      <c r="E129" s="15">
+      <c r="D129" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:5">
-      <c r="A130" s="11" t="s">
-        <v>34</v>
+    <row r="130" customHeight="1" spans="1:4">
+      <c r="A130" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C130" s="1">
         <v>2123</v>
       </c>
-      <c r="D130" s="13">
+      <c r="D130" s="14">
         <v>3</v>
       </c>
-      <c r="E130" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="1:5">
-      <c r="A131" s="11" t="s">
-        <v>34</v>
+    </row>
+    <row r="131" customHeight="1" spans="1:4">
+      <c r="A131" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C131" s="1">
         <v>2124</v>
       </c>
-      <c r="D131" s="13">
-        <v>3</v>
-      </c>
-      <c r="E131" s="15">
+      <c r="D131" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:5">
-      <c r="A132" s="11" t="s">
-        <v>34</v>
+    <row r="132" customHeight="1" spans="1:4">
+      <c r="A132" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C132" s="1">
         <v>2125</v>
       </c>
-      <c r="D132" s="13">
-        <v>3</v>
-      </c>
-      <c r="E132" s="15">
+      <c r="D132" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:5">
-      <c r="A133" s="11" t="s">
-        <v>35</v>
+    <row r="133" customHeight="1" spans="1:4">
+      <c r="A133" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C133" s="1">
         <v>2126</v>
       </c>
-      <c r="D133" s="13">
-        <v>3</v>
-      </c>
-      <c r="E133" s="13">
+      <c r="D133" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:5">
-      <c r="A134" s="11" t="s">
-        <v>35</v>
+    <row r="134" customHeight="1" spans="1:4">
+      <c r="A134" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C134" s="1">
         <v>2127</v>
       </c>
-      <c r="D134" s="13">
-        <v>3</v>
-      </c>
-      <c r="E134" s="15">
+      <c r="D134" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:5">
-      <c r="A135" s="11" t="s">
-        <v>35</v>
+    <row r="135" customHeight="1" spans="1:4">
+      <c r="A135" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C135" s="1">
         <v>2128</v>
       </c>
-      <c r="D135" s="13">
-        <v>3</v>
-      </c>
-      <c r="E135" s="15">
+      <c r="D135" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:5">
-      <c r="A136" s="11" t="s">
-        <v>35</v>
+    <row r="136" customHeight="1" spans="1:4">
+      <c r="A136" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C136" s="1">
         <v>2129</v>
       </c>
-      <c r="D136" s="13">
+      <c r="D136" s="14">
         <v>3</v>
       </c>
-      <c r="E136" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" customHeight="1" spans="1:5">
-      <c r="A137" s="11" t="s">
-        <v>35</v>
+    </row>
+    <row r="137" customHeight="1" spans="1:4">
+      <c r="A137" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C137" s="1">
         <v>2130</v>
       </c>
-      <c r="D137" s="13">
-        <v>3</v>
-      </c>
-      <c r="E137" s="15">
+      <c r="D137" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:5">
-      <c r="A138" s="11" t="s">
-        <v>35</v>
+    <row r="138" customHeight="1" spans="1:4">
+      <c r="A138" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C138" s="1">
         <v>2131</v>
       </c>
-      <c r="D138" s="13">
-        <v>3</v>
-      </c>
-      <c r="E138" s="15">
+      <c r="D138" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:5">
-      <c r="A139" s="11" t="s">
-        <v>36</v>
+    <row r="139" customHeight="1" spans="1:4">
+      <c r="A139" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C139" s="1">
         <v>2132</v>
       </c>
-      <c r="D139" s="13">
-        <v>3</v>
-      </c>
-      <c r="E139" s="13">
+      <c r="D139" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:5">
-      <c r="A140" s="11" t="s">
-        <v>36</v>
+    <row r="140" customHeight="1" spans="1:4">
+      <c r="A140" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C140" s="1">
         <v>2133</v>
       </c>
-      <c r="D140" s="13">
-        <v>3</v>
-      </c>
-      <c r="E140" s="15">
+      <c r="D140" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:5">
-      <c r="A141" s="11" t="s">
-        <v>36</v>
+    <row r="141" customHeight="1" spans="1:4">
+      <c r="A141" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C141" s="1">
         <v>2134</v>
       </c>
-      <c r="D141" s="13">
-        <v>3</v>
-      </c>
-      <c r="E141" s="15">
+      <c r="D141" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:5">
-      <c r="A142" s="11" t="s">
-        <v>36</v>
+    <row r="142" customHeight="1" spans="1:4">
+      <c r="A142" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C142" s="1">
         <v>2135</v>
       </c>
-      <c r="D142" s="13">
+      <c r="D142" s="14">
         <v>3</v>
       </c>
-      <c r="E142" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="1:5">
-      <c r="A143" s="11" t="s">
-        <v>36</v>
+    </row>
+    <row r="143" customHeight="1" spans="1:4">
+      <c r="A143" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C143" s="1">
         <v>2136</v>
       </c>
-      <c r="D143" s="13">
-        <v>3</v>
-      </c>
-      <c r="E143" s="15">
+      <c r="D143" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:5">
-      <c r="A144" s="11" t="s">
-        <v>36</v>
+    <row r="144" customHeight="1" spans="1:4">
+      <c r="A144" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C144" s="1">
         <v>2137</v>
       </c>
-      <c r="D144" s="13">
-        <v>3</v>
-      </c>
-      <c r="E144" s="15">
+      <c r="D144" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:5">
-      <c r="A145" s="11" t="s">
-        <v>37</v>
+    <row r="145" customHeight="1" spans="1:4">
+      <c r="A145" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C145" s="1">
         <v>2138</v>
       </c>
-      <c r="D145" s="13">
-        <v>3</v>
-      </c>
-      <c r="E145" s="13">
+      <c r="D145" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:5">
-      <c r="A146" s="11" t="s">
-        <v>37</v>
+    <row r="146" customHeight="1" spans="1:4">
+      <c r="A146" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C146" s="1">
         <v>2139</v>
       </c>
-      <c r="D146" s="13">
-        <v>3</v>
-      </c>
-      <c r="E146" s="15">
+      <c r="D146" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:5">
-      <c r="A147" s="11" t="s">
-        <v>37</v>
+    <row r="147" customHeight="1" spans="1:4">
+      <c r="A147" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C147" s="1">
         <v>2140</v>
       </c>
-      <c r="D147" s="13">
-        <v>3</v>
-      </c>
-      <c r="E147" s="15">
+      <c r="D147" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:5">
-      <c r="A148" s="11" t="s">
-        <v>37</v>
+    <row r="148" customHeight="1" spans="1:4">
+      <c r="A148" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C148" s="1">
         <v>2141</v>
       </c>
-      <c r="D148" s="13">
+      <c r="D148" s="14">
         <v>3</v>
       </c>
-      <c r="E148" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" customHeight="1" spans="1:5">
-      <c r="A149" s="11" t="s">
-        <v>37</v>
+    </row>
+    <row r="149" customHeight="1" spans="1:4">
+      <c r="A149" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C149" s="1">
         <v>2142</v>
       </c>
-      <c r="D149" s="13">
-        <v>3</v>
-      </c>
-      <c r="E149" s="15">
+      <c r="D149" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:5">
-      <c r="A150" s="11" t="s">
-        <v>37</v>
+    <row r="150" customHeight="1" spans="1:4">
+      <c r="A150" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C150" s="1">
         <v>2143</v>
       </c>
-      <c r="D150" s="13">
-        <v>3</v>
-      </c>
-      <c r="E150" s="15">
+      <c r="D150" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:5">
-      <c r="A151" s="11" t="s">
-        <v>38</v>
+    <row r="151" customHeight="1" spans="1:4">
+      <c r="A151" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C151" s="1">
         <v>2144</v>
       </c>
-      <c r="D151" s="13">
-        <v>4</v>
-      </c>
-      <c r="E151" s="13">
+      <c r="D151" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:5">
-      <c r="A152" s="11" t="s">
-        <v>38</v>
+    <row r="152" customHeight="1" spans="1:4">
+      <c r="A152" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C152" s="1">
         <v>2145</v>
       </c>
-      <c r="D152" s="13">
-        <v>4</v>
-      </c>
-      <c r="E152" s="15">
+      <c r="D152" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:5">
-      <c r="A153" s="11" t="s">
-        <v>38</v>
+    <row r="153" customHeight="1" spans="1:4">
+      <c r="A153" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C153" s="1">
         <v>2146</v>
       </c>
-      <c r="D153" s="13">
-        <v>4</v>
-      </c>
-      <c r="E153" s="15">
+      <c r="D153" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:5">
-      <c r="A154" s="11" t="s">
-        <v>38</v>
+    <row r="154" customHeight="1" spans="1:4">
+      <c r="A154" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C154" s="1">
         <v>2147</v>
       </c>
-      <c r="D154" s="13">
-        <v>4</v>
-      </c>
-      <c r="E154" s="15">
+      <c r="D154" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:5">
-      <c r="A155" s="11" t="s">
-        <v>38</v>
+    <row r="155" customHeight="1" spans="1:4">
+      <c r="A155" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C155" s="1">
         <v>2148</v>
       </c>
-      <c r="D155" s="13">
+      <c r="D155" s="14">
         <v>4</v>
       </c>
-      <c r="E155" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" customHeight="1" spans="1:5">
-      <c r="A156" s="11" t="s">
-        <v>38</v>
+    </row>
+    <row r="156" customHeight="1" spans="1:4">
+      <c r="A156" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C156" s="1">
         <v>2149</v>
       </c>
-      <c r="D156" s="13">
-        <v>4</v>
-      </c>
-      <c r="E156" s="15">
+      <c r="D156" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:5">
-      <c r="A157" s="11" t="s">
-        <v>39</v>
+    <row r="157" customHeight="1" spans="1:4">
+      <c r="A157" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C157" s="1">
         <v>2150</v>
       </c>
-      <c r="D157" s="13">
-        <v>4</v>
-      </c>
-      <c r="E157" s="13">
+      <c r="D157" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:5">
-      <c r="A158" s="11" t="s">
-        <v>39</v>
+    <row r="158" customHeight="1" spans="1:4">
+      <c r="A158" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C158" s="1">
         <v>2151</v>
       </c>
-      <c r="D158" s="13">
-        <v>4</v>
-      </c>
-      <c r="E158" s="15">
+      <c r="D158" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:5">
-      <c r="A159" s="11" t="s">
-        <v>39</v>
+    <row r="159" customHeight="1" spans="1:4">
+      <c r="A159" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C159" s="1">
         <v>2152</v>
       </c>
-      <c r="D159" s="13">
-        <v>4</v>
-      </c>
-      <c r="E159" s="15">
+      <c r="D159" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:5">
-      <c r="A160" s="11" t="s">
-        <v>39</v>
+    <row r="160" customHeight="1" spans="1:4">
+      <c r="A160" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C160" s="1">
         <v>2153</v>
       </c>
-      <c r="D160" s="13">
-        <v>4</v>
-      </c>
-      <c r="E160" s="15">
+      <c r="D160" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:5">
-      <c r="A161" s="11" t="s">
-        <v>39</v>
+    <row r="161" customHeight="1" spans="1:4">
+      <c r="A161" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C161" s="1">
         <v>2154</v>
       </c>
-      <c r="D161" s="13">
+      <c r="D161" s="14">
         <v>4</v>
       </c>
-      <c r="E161" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" customHeight="1" spans="1:5">
-      <c r="A162" s="11" t="s">
-        <v>39</v>
+    </row>
+    <row r="162" customHeight="1" spans="1:4">
+      <c r="A162" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C162" s="1">
         <v>2155</v>
       </c>
-      <c r="D162" s="13">
-        <v>4</v>
-      </c>
-      <c r="E162" s="15">
+      <c r="D162" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:5">
-      <c r="A163" s="11" t="s">
-        <v>40</v>
+    <row r="163" customHeight="1" spans="1:4">
+      <c r="A163" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C163" s="1">
         <v>2156</v>
       </c>
-      <c r="D163" s="13">
-        <v>4</v>
-      </c>
-      <c r="E163" s="13">
+      <c r="D163" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:5">
-      <c r="A164" s="11" t="s">
-        <v>40</v>
+    <row r="164" customHeight="1" spans="1:4">
+      <c r="A164" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C164" s="1">
         <v>2157</v>
       </c>
-      <c r="D164" s="13">
-        <v>4</v>
-      </c>
-      <c r="E164" s="15">
+      <c r="D164" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:5">
-      <c r="A165" s="11" t="s">
-        <v>40</v>
+    <row r="165" customHeight="1" spans="1:4">
+      <c r="A165" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C165" s="1">
         <v>2158</v>
       </c>
-      <c r="D165" s="13">
-        <v>4</v>
-      </c>
-      <c r="E165" s="15">
+      <c r="D165" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:5">
-      <c r="A166" s="11" t="s">
-        <v>40</v>
+    <row r="166" customHeight="1" spans="1:4">
+      <c r="A166" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C166" s="1">
         <v>2159</v>
       </c>
-      <c r="D166" s="13">
-        <v>4</v>
-      </c>
-      <c r="E166" s="15">
+      <c r="D166" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:5">
-      <c r="A167" s="11" t="s">
-        <v>40</v>
+    <row r="167" customHeight="1" spans="1:4">
+      <c r="A167" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C167" s="1">
         <v>2160</v>
       </c>
-      <c r="D167" s="13">
+      <c r="D167" s="14">
         <v>4</v>
       </c>
-      <c r="E167" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" customHeight="1" spans="1:5">
-      <c r="A168" s="11" t="s">
-        <v>40</v>
+    </row>
+    <row r="168" customHeight="1" spans="1:4">
+      <c r="A168" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C168" s="1">
         <v>2161</v>
       </c>
-      <c r="D168" s="13">
-        <v>4</v>
-      </c>
-      <c r="E168" s="15">
+      <c r="D168" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:5">
-      <c r="A169" s="11" t="s">
-        <v>41</v>
+    <row r="169" customHeight="1" spans="1:4">
+      <c r="A169" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C169" s="1">
         <v>2162</v>
       </c>
-      <c r="D169" s="13">
-        <v>4</v>
-      </c>
-      <c r="E169" s="13">
+      <c r="D169" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="170" customHeight="1" spans="1:5">
-      <c r="A170" s="11" t="s">
-        <v>41</v>
+    <row r="170" customHeight="1" spans="1:4">
+      <c r="A170" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C170" s="1">
         <v>2163</v>
       </c>
-      <c r="D170" s="13">
-        <v>4</v>
-      </c>
-      <c r="E170" s="15">
+      <c r="D170" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:5">
-      <c r="A171" s="11" t="s">
-        <v>41</v>
+    <row r="171" customHeight="1" spans="1:4">
+      <c r="A171" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C171" s="1">
         <v>2164</v>
       </c>
-      <c r="D171" s="13">
-        <v>4</v>
-      </c>
-      <c r="E171" s="15">
+      <c r="D171" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:5">
-      <c r="A172" s="11" t="s">
-        <v>41</v>
+    <row r="172" customHeight="1" spans="1:4">
+      <c r="A172" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C172" s="1">
         <v>2165</v>
       </c>
-      <c r="D172" s="13">
-        <v>4</v>
-      </c>
-      <c r="E172" s="15">
+      <c r="D172" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:5">
-      <c r="A173" s="11" t="s">
-        <v>41</v>
+    <row r="173" customHeight="1" spans="1:4">
+      <c r="A173" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C173" s="1">
         <v>2166</v>
       </c>
-      <c r="D173" s="13">
+      <c r="D173" s="14">
         <v>4</v>
       </c>
-      <c r="E173" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" customHeight="1" spans="1:5">
-      <c r="A174" s="11" t="s">
-        <v>41</v>
+    </row>
+    <row r="174" customHeight="1" spans="1:4">
+      <c r="A174" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C174" s="1">
         <v>2167</v>
       </c>
-      <c r="D174" s="13">
-        <v>4</v>
-      </c>
-      <c r="E174" s="15">
+      <c r="D174" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:5">
-      <c r="A175" s="11" t="s">
-        <v>42</v>
+    <row r="175" customHeight="1" spans="1:4">
+      <c r="A175" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C175" s="1">
         <v>2168</v>
       </c>
-      <c r="D175" s="13">
-        <v>4</v>
-      </c>
-      <c r="E175" s="13">
+      <c r="D175" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:5">
-      <c r="A176" s="11" t="s">
-        <v>42</v>
+    <row r="176" customHeight="1" spans="1:4">
+      <c r="A176" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C176" s="1">
         <v>2169</v>
       </c>
-      <c r="D176" s="13">
-        <v>4</v>
-      </c>
-      <c r="E176" s="15">
+      <c r="D176" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:5">
-      <c r="A177" s="11" t="s">
-        <v>42</v>
+    <row r="177" customHeight="1" spans="1:4">
+      <c r="A177" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C177" s="1">
         <v>2170</v>
       </c>
-      <c r="D177" s="13">
-        <v>4</v>
-      </c>
-      <c r="E177" s="15">
+      <c r="D177" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:5">
-      <c r="A178" s="11" t="s">
-        <v>42</v>
+    <row r="178" customHeight="1" spans="1:4">
+      <c r="A178" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C178" s="1">
         <v>2171</v>
       </c>
-      <c r="D178" s="13">
-        <v>4</v>
-      </c>
-      <c r="E178" s="15">
+      <c r="D178" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="179" customHeight="1" spans="1:5">
-      <c r="A179" s="11" t="s">
-        <v>42</v>
+    <row r="179" customHeight="1" spans="1:4">
+      <c r="A179" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C179" s="1">
         <v>2172</v>
       </c>
-      <c r="D179" s="13">
+      <c r="D179" s="14">
         <v>4</v>
       </c>
-      <c r="E179" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" customHeight="1" spans="1:5">
-      <c r="A180" s="11" t="s">
-        <v>42</v>
+    </row>
+    <row r="180" customHeight="1" spans="1:4">
+      <c r="A180" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C180" s="1">
         <v>2173</v>
       </c>
-      <c r="D180" s="13">
-        <v>4</v>
-      </c>
-      <c r="E180" s="15">
+      <c r="D180" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="1:5">
-      <c r="A181" s="11" t="s">
-        <v>43</v>
+    <row r="181" customHeight="1" spans="1:4">
+      <c r="A181" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C181" s="1">
         <v>2174</v>
       </c>
-      <c r="D181" s="13">
-        <v>4</v>
-      </c>
-      <c r="E181" s="13">
+      <c r="D181" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:5">
-      <c r="A182" s="11" t="s">
-        <v>43</v>
+    <row r="182" customHeight="1" spans="1:4">
+      <c r="A182" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C182" s="1">
         <v>2175</v>
       </c>
-      <c r="D182" s="13">
-        <v>4</v>
-      </c>
-      <c r="E182" s="15">
+      <c r="D182" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:5">
-      <c r="A183" s="11" t="s">
-        <v>43</v>
+    <row r="183" customHeight="1" spans="1:4">
+      <c r="A183" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C183" s="1">
         <v>2176</v>
       </c>
-      <c r="D183" s="13">
-        <v>4</v>
-      </c>
-      <c r="E183" s="15">
+      <c r="D183" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:5">
-      <c r="A184" s="11" t="s">
-        <v>43</v>
+    <row r="184" customHeight="1" spans="1:4">
+      <c r="A184" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C184" s="1">
         <v>2177</v>
       </c>
-      <c r="D184" s="13">
-        <v>4</v>
-      </c>
-      <c r="E184" s="15">
+      <c r="D184" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:5">
-      <c r="A185" s="11" t="s">
-        <v>43</v>
+    <row r="185" customHeight="1" spans="1:4">
+      <c r="A185" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C185" s="1">
         <v>2178</v>
       </c>
-      <c r="D185" s="13">
+      <c r="D185" s="14">
         <v>4</v>
       </c>
-      <c r="E185" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" customHeight="1" spans="1:5">
-      <c r="A186" s="11" t="s">
-        <v>43</v>
+    </row>
+    <row r="186" customHeight="1" spans="1:4">
+      <c r="A186" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C186" s="1">
         <v>2179</v>
       </c>
-      <c r="D186" s="13">
-        <v>4</v>
-      </c>
-      <c r="E186" s="15">
+      <c r="D186" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:5">
-      <c r="A187" s="11" t="s">
-        <v>44</v>
+    <row r="187" customHeight="1" spans="1:4">
+      <c r="A187" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C187" s="1">
         <v>2180</v>
       </c>
-      <c r="D187" s="13">
-        <v>5</v>
-      </c>
-      <c r="E187" s="13">
+      <c r="D187" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="188" customHeight="1" spans="1:5">
-      <c r="A188" s="11" t="s">
-        <v>44</v>
+    <row r="188" customHeight="1" spans="1:4">
+      <c r="A188" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C188" s="1">
         <v>2181</v>
       </c>
-      <c r="D188" s="13">
-        <v>5</v>
-      </c>
-      <c r="E188" s="15">
+      <c r="D188" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:5">
-      <c r="A189" s="11" t="s">
-        <v>44</v>
+    <row r="189" customHeight="1" spans="1:4">
+      <c r="A189" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C189" s="1">
         <v>2182</v>
       </c>
-      <c r="D189" s="13">
-        <v>5</v>
-      </c>
-      <c r="E189" s="15">
+      <c r="D189" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="1:5">
-      <c r="A190" s="11" t="s">
-        <v>44</v>
+    <row r="190" customHeight="1" spans="1:4">
+      <c r="A190" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C190" s="1">
         <v>2183</v>
       </c>
-      <c r="D190" s="13">
-        <v>5</v>
-      </c>
-      <c r="E190" s="15">
+      <c r="D190" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:5">
-      <c r="A191" s="11" t="s">
-        <v>44</v>
+    <row r="191" customHeight="1" spans="1:4">
+      <c r="A191" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C191" s="1">
         <v>2184</v>
       </c>
-      <c r="D191" s="13">
-        <v>5</v>
-      </c>
-      <c r="E191" s="15">
+      <c r="D191" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="192" customHeight="1" spans="1:5">
-      <c r="A192" s="11" t="s">
-        <v>44</v>
+    <row r="192" customHeight="1" spans="1:4">
+      <c r="A192" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C192" s="1">
         <v>2185</v>
       </c>
-      <c r="D192" s="13">
+      <c r="D192" s="14">
         <v>5</v>
       </c>
-      <c r="E192" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" customHeight="1" spans="1:5">
-      <c r="A193" s="11" t="s">
-        <v>45</v>
+    </row>
+    <row r="193" customHeight="1" spans="1:4">
+      <c r="A193" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C193" s="1">
         <v>2186</v>
       </c>
-      <c r="D193" s="13">
-        <v>5</v>
-      </c>
-      <c r="E193" s="13">
+      <c r="D193" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="194" customHeight="1" spans="1:5">
-      <c r="A194" s="11" t="s">
-        <v>45</v>
+    <row r="194" customHeight="1" spans="1:4">
+      <c r="A194" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C194" s="1">
         <v>2187</v>
       </c>
-      <c r="D194" s="13">
-        <v>5</v>
-      </c>
-      <c r="E194" s="15">
+      <c r="D194" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="195" customHeight="1" spans="1:5">
-      <c r="A195" s="11" t="s">
-        <v>45</v>
+    <row r="195" customHeight="1" spans="1:4">
+      <c r="A195" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C195" s="1">
         <v>2188</v>
       </c>
-      <c r="D195" s="13">
-        <v>5</v>
-      </c>
-      <c r="E195" s="15">
+      <c r="D195" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="196" customHeight="1" spans="1:5">
-      <c r="A196" s="11" t="s">
-        <v>45</v>
+    <row r="196" customHeight="1" spans="1:4">
+      <c r="A196" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C196" s="1">
         <v>2189</v>
       </c>
-      <c r="D196" s="13">
-        <v>5</v>
-      </c>
-      <c r="E196" s="15">
+      <c r="D196" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="197" customHeight="1" spans="1:5">
-      <c r="A197" s="11" t="s">
-        <v>45</v>
+    <row r="197" customHeight="1" spans="1:4">
+      <c r="A197" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C197" s="1">
         <v>2190</v>
       </c>
-      <c r="D197" s="13">
-        <v>5</v>
-      </c>
-      <c r="E197" s="15">
+      <c r="D197" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="198" customHeight="1" spans="1:5">
-      <c r="A198" s="11" t="s">
-        <v>45</v>
+    <row r="198" customHeight="1" spans="1:4">
+      <c r="A198" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C198" s="1">
         <v>2191</v>
       </c>
-      <c r="D198" s="13">
+      <c r="D198" s="14">
         <v>5</v>
       </c>
-      <c r="E198" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" customHeight="1" spans="1:5">
-      <c r="A199" s="11" t="s">
-        <v>46</v>
+    </row>
+    <row r="199" customHeight="1" spans="1:4">
+      <c r="A199" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C199" s="1">
         <v>2192</v>
       </c>
-      <c r="D199" s="13">
-        <v>5</v>
-      </c>
-      <c r="E199" s="13">
+      <c r="D199" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="200" customHeight="1" spans="1:5">
-      <c r="A200" s="11" t="s">
-        <v>46</v>
+    <row r="200" customHeight="1" spans="1:4">
+      <c r="A200" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C200" s="1">
         <v>2193</v>
       </c>
-      <c r="D200" s="13">
-        <v>5</v>
-      </c>
-      <c r="E200" s="15">
+      <c r="D200" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="201" customHeight="1" spans="1:5">
-      <c r="A201" s="11" t="s">
-        <v>46</v>
+    <row r="201" customHeight="1" spans="1:4">
+      <c r="A201" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C201" s="1">
         <v>2194</v>
       </c>
-      <c r="D201" s="13">
-        <v>5</v>
-      </c>
-      <c r="E201" s="15">
+      <c r="D201" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="202" customHeight="1" spans="1:5">
-      <c r="A202" s="11" t="s">
-        <v>46</v>
+    <row r="202" customHeight="1" spans="1:4">
+      <c r="A202" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C202" s="1">
         <v>2195</v>
       </c>
-      <c r="D202" s="13">
-        <v>5</v>
-      </c>
-      <c r="E202" s="15">
+      <c r="D202" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="203" customHeight="1" spans="1:5">
-      <c r="A203" s="11" t="s">
-        <v>46</v>
+    <row r="203" customHeight="1" spans="1:4">
+      <c r="A203" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C203" s="1">
         <v>2196</v>
       </c>
-      <c r="D203" s="13">
-        <v>5</v>
-      </c>
-      <c r="E203" s="15">
+      <c r="D203" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="204" customHeight="1" spans="1:5">
-      <c r="A204" s="11" t="s">
-        <v>46</v>
+    <row r="204" customHeight="1" spans="1:4">
+      <c r="A204" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C204" s="1">
         <v>2197</v>
       </c>
-      <c r="D204" s="13">
+      <c r="D204" s="14">
         <v>5</v>
       </c>
-      <c r="E204" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" customHeight="1" spans="1:5">
-      <c r="A205" s="11" t="s">
-        <v>47</v>
+    </row>
+    <row r="205" customHeight="1" spans="1:4">
+      <c r="A205" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C205" s="1">
         <v>2198</v>
       </c>
-      <c r="D205" s="13">
-        <v>5</v>
-      </c>
-      <c r="E205" s="13">
+      <c r="D205" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="206" customHeight="1" spans="1:5">
-      <c r="A206" s="11" t="s">
-        <v>47</v>
+    <row r="206" customHeight="1" spans="1:4">
+      <c r="A206" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C206" s="1">
         <v>2199</v>
       </c>
-      <c r="D206" s="13">
-        <v>5</v>
-      </c>
-      <c r="E206" s="15">
+      <c r="D206" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="207" customHeight="1" spans="1:5">
-      <c r="A207" s="11" t="s">
-        <v>47</v>
+    <row r="207" customHeight="1" spans="1:4">
+      <c r="A207" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C207" s="1">
         <v>2200</v>
       </c>
-      <c r="D207" s="13">
-        <v>5</v>
-      </c>
-      <c r="E207" s="15">
+      <c r="D207" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="208" customHeight="1" spans="1:5">
-      <c r="A208" s="11" t="s">
-        <v>47</v>
+    <row r="208" customHeight="1" spans="1:4">
+      <c r="A208" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C208" s="1">
         <v>2201</v>
       </c>
-      <c r="D208" s="13">
-        <v>5</v>
-      </c>
-      <c r="E208" s="15">
+      <c r="D208" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="209" customHeight="1" spans="1:5">
-      <c r="A209" s="11" t="s">
-        <v>47</v>
+    <row r="209" customHeight="1" spans="1:4">
+      <c r="A209" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C209" s="1">
         <v>2202</v>
       </c>
-      <c r="D209" s="13">
-        <v>5</v>
-      </c>
-      <c r="E209" s="15">
+      <c r="D209" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="210" customHeight="1" spans="1:5">
-      <c r="A210" s="11" t="s">
-        <v>47</v>
+    <row r="210" customHeight="1" spans="1:4">
+      <c r="A210" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C210" s="1">
         <v>2203</v>
       </c>
-      <c r="D210" s="13">
+      <c r="D210" s="14">
         <v>5</v>
       </c>
-      <c r="E210" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" customHeight="1" spans="1:5">
-      <c r="A211" s="11" t="s">
-        <v>48</v>
+    </row>
+    <row r="211" customHeight="1" spans="1:4">
+      <c r="A211" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C211" s="1">
         <v>2204</v>
       </c>
-      <c r="D211" s="13">
-        <v>5</v>
-      </c>
-      <c r="E211" s="13">
+      <c r="D211" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="212" customHeight="1" spans="1:5">
-      <c r="A212" s="11" t="s">
-        <v>48</v>
+    <row r="212" customHeight="1" spans="1:4">
+      <c r="A212" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C212" s="1">
         <v>2205</v>
       </c>
-      <c r="D212" s="13">
-        <v>5</v>
-      </c>
-      <c r="E212" s="15">
+      <c r="D212" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="213" customHeight="1" spans="1:5">
-      <c r="A213" s="11" t="s">
-        <v>48</v>
+    <row r="213" customHeight="1" spans="1:4">
+      <c r="A213" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C213" s="1">
         <v>2206</v>
       </c>
-      <c r="D213" s="13">
-        <v>5</v>
-      </c>
-      <c r="E213" s="15">
+      <c r="D213" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="214" customHeight="1" spans="1:5">
-      <c r="A214" s="11" t="s">
-        <v>48</v>
+    <row r="214" customHeight="1" spans="1:4">
+      <c r="A214" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C214" s="1">
         <v>2207</v>
       </c>
-      <c r="D214" s="13">
-        <v>5</v>
-      </c>
-      <c r="E214" s="15">
+      <c r="D214" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="215" customHeight="1" spans="1:5">
-      <c r="A215" s="11" t="s">
-        <v>48</v>
+    <row r="215" customHeight="1" spans="1:4">
+      <c r="A215" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C215" s="1">
         <v>2208</v>
       </c>
-      <c r="D215" s="13">
-        <v>5</v>
-      </c>
-      <c r="E215" s="15">
+      <c r="D215" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="216" customHeight="1" spans="1:5">
-      <c r="A216" s="11" t="s">
-        <v>48</v>
+    <row r="216" customHeight="1" spans="1:4">
+      <c r="A216" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C216" s="1">
         <v>2209</v>
       </c>
-      <c r="D216" s="13">
+      <c r="D216" s="14">
         <v>5</v>
       </c>
-      <c r="E216" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" customHeight="1" spans="1:5">
-      <c r="A217" s="11" t="s">
-        <v>49</v>
+    </row>
+    <row r="217" customHeight="1" spans="1:4">
+      <c r="A217" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C217" s="1">
         <v>2210</v>
       </c>
-      <c r="D217" s="13">
-        <v>5</v>
-      </c>
-      <c r="E217" s="13">
+      <c r="D217" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="218" customHeight="1" spans="1:5">
-      <c r="A218" s="11" t="s">
-        <v>49</v>
+    <row r="218" customHeight="1" spans="1:4">
+      <c r="A218" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C218" s="1">
         <v>2211</v>
       </c>
-      <c r="D218" s="13">
-        <v>5</v>
-      </c>
-      <c r="E218" s="15">
+      <c r="D218" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="219" customHeight="1" spans="1:5">
-      <c r="A219" s="11" t="s">
-        <v>49</v>
+    <row r="219" customHeight="1" spans="1:4">
+      <c r="A219" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C219" s="1">
         <v>2212</v>
       </c>
-      <c r="D219" s="13">
-        <v>5</v>
-      </c>
-      <c r="E219" s="15">
+      <c r="D219" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="220" customHeight="1" spans="1:5">
-      <c r="A220" s="11" t="s">
-        <v>49</v>
+    <row r="220" customHeight="1" spans="1:4">
+      <c r="A220" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C220" s="1">
         <v>2213</v>
       </c>
-      <c r="D220" s="13">
-        <v>5</v>
-      </c>
-      <c r="E220" s="15">
+      <c r="D220" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="221" customHeight="1" spans="1:5">
-      <c r="A221" s="11" t="s">
-        <v>49</v>
+    <row r="221" customHeight="1" spans="1:4">
+      <c r="A221" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C221" s="1">
         <v>2214</v>
       </c>
-      <c r="D221" s="13">
-        <v>5</v>
-      </c>
-      <c r="E221" s="15">
+      <c r="D221" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="222" customHeight="1" spans="1:5">
-      <c r="A222" s="11" t="s">
-        <v>49</v>
+    <row r="222" customHeight="1" spans="1:4">
+      <c r="A222" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C222" s="1">
         <v>2215</v>
       </c>
-      <c r="D222" s="13">
+      <c r="D222" s="14">
         <v>5</v>
       </c>
-      <c r="E222" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" customHeight="1" spans="1:5">
-      <c r="A223" s="11" t="s">
-        <v>50</v>
+    </row>
+    <row r="223" customHeight="1" spans="1:4">
+      <c r="A223" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C223" s="1">
         <v>2216</v>
       </c>
-      <c r="D223" s="13">
-        <v>6</v>
-      </c>
-      <c r="E223" s="13">
+      <c r="D223" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="224" customHeight="1" spans="1:5">
-      <c r="A224" s="11" t="s">
-        <v>50</v>
+    <row r="224" customHeight="1" spans="1:4">
+      <c r="A224" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C224" s="1">
         <v>2217</v>
       </c>
-      <c r="D224" s="13">
-        <v>6</v>
-      </c>
-      <c r="E224" s="15">
+      <c r="D224" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="225" customHeight="1" spans="1:5">
-      <c r="A225" s="11" t="s">
-        <v>50</v>
+    <row r="225" customHeight="1" spans="1:4">
+      <c r="A225" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C225" s="1">
         <v>2218</v>
       </c>
-      <c r="D225" s="13">
-        <v>6</v>
-      </c>
-      <c r="E225" s="15">
+      <c r="D225" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="226" customHeight="1" spans="1:5">
-      <c r="A226" s="11" t="s">
-        <v>50</v>
+    <row r="226" customHeight="1" spans="1:4">
+      <c r="A226" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C226" s="1">
         <v>2219</v>
       </c>
-      <c r="D226" s="13">
-        <v>6</v>
-      </c>
-      <c r="E226" s="15">
+      <c r="D226" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="227" customHeight="1" spans="1:5">
-      <c r="A227" s="11" t="s">
-        <v>50</v>
+    <row r="227" customHeight="1" spans="1:4">
+      <c r="A227" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C227" s="1">
         <v>2220</v>
       </c>
-      <c r="D227" s="13">
-        <v>6</v>
-      </c>
-      <c r="E227" s="15">
+      <c r="D227" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="228" customHeight="1" spans="1:5">
-      <c r="A228" s="11" t="s">
-        <v>50</v>
+    <row r="228" customHeight="1" spans="1:4">
+      <c r="A228" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C228" s="1">
         <v>2221</v>
       </c>
-      <c r="D228" s="13">
-        <v>6</v>
-      </c>
-      <c r="E228" s="15">
+      <c r="D228" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="229" customHeight="1" spans="1:5">
-      <c r="A229" s="11" t="s">
-        <v>51</v>
+    <row r="229" customHeight="1" spans="1:4">
+      <c r="A229" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C229" s="1">
         <v>2222</v>
       </c>
-      <c r="D229" s="13">
-        <v>6</v>
-      </c>
-      <c r="E229" s="13">
+      <c r="D229" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="230" customHeight="1" spans="1:5">
-      <c r="A230" s="11" t="s">
-        <v>51</v>
+    <row r="230" customHeight="1" spans="1:4">
+      <c r="A230" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C230" s="1">
         <v>2223</v>
       </c>
-      <c r="D230" s="13">
-        <v>6</v>
-      </c>
-      <c r="E230" s="15">
+      <c r="D230" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="231" customHeight="1" spans="1:5">
-      <c r="A231" s="11" t="s">
-        <v>51</v>
+    <row r="231" customHeight="1" spans="1:4">
+      <c r="A231" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C231" s="1">
         <v>2224</v>
       </c>
-      <c r="D231" s="13">
-        <v>6</v>
-      </c>
-      <c r="E231" s="15">
+      <c r="D231" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="232" customHeight="1" spans="1:5">
-      <c r="A232" s="11" t="s">
-        <v>51</v>
+    <row r="232" customHeight="1" spans="1:4">
+      <c r="A232" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C232" s="1">
         <v>2225</v>
       </c>
-      <c r="D232" s="13">
-        <v>6</v>
-      </c>
-      <c r="E232" s="15">
+      <c r="D232" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="233" customHeight="1" spans="1:5">
-      <c r="A233" s="11" t="s">
-        <v>51</v>
+    <row r="233" customHeight="1" spans="1:4">
+      <c r="A233" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C233" s="1">
         <v>2226</v>
       </c>
-      <c r="D233" s="13">
-        <v>6</v>
-      </c>
-      <c r="E233" s="15">
+      <c r="D233" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="234" customHeight="1" spans="1:5">
-      <c r="A234" s="11" t="s">
-        <v>51</v>
+    <row r="234" customHeight="1" spans="1:4">
+      <c r="A234" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C234" s="1">
         <v>2227</v>
       </c>
-      <c r="D234" s="13">
-        <v>6</v>
-      </c>
-      <c r="E234" s="15">
+      <c r="D234" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="235" customHeight="1" spans="1:5">
-      <c r="A235" s="11" t="s">
-        <v>52</v>
+    <row r="235" customHeight="1" spans="1:4">
+      <c r="A235" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C235" s="1">
         <v>2228</v>
       </c>
-      <c r="D235" s="13">
-        <v>6</v>
-      </c>
-      <c r="E235" s="13">
+      <c r="D235" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="236" customHeight="1" spans="1:5">
-      <c r="A236" s="11" t="s">
-        <v>52</v>
+    <row r="236" customHeight="1" spans="1:4">
+      <c r="A236" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C236" s="1">
         <v>2229</v>
       </c>
-      <c r="D236" s="13">
-        <v>6</v>
-      </c>
-      <c r="E236" s="15">
+      <c r="D236" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="237" customHeight="1" spans="1:5">
-      <c r="A237" s="11" t="s">
-        <v>52</v>
+    <row r="237" customHeight="1" spans="1:4">
+      <c r="A237" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C237" s="1">
         <v>2230</v>
       </c>
-      <c r="D237" s="13">
-        <v>6</v>
-      </c>
-      <c r="E237" s="15">
+      <c r="D237" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="238" customHeight="1" spans="1:5">
-      <c r="A238" s="11" t="s">
-        <v>52</v>
+    <row r="238" customHeight="1" spans="1:4">
+      <c r="A238" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C238" s="1">
         <v>2231</v>
       </c>
-      <c r="D238" s="13">
-        <v>6</v>
-      </c>
-      <c r="E238" s="15">
+      <c r="D238" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="239" customHeight="1" spans="1:5">
-      <c r="A239" s="11" t="s">
-        <v>52</v>
+    <row r="239" customHeight="1" spans="1:4">
+      <c r="A239" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C239" s="1">
         <v>2232</v>
       </c>
-      <c r="D239" s="13">
-        <v>6</v>
-      </c>
-      <c r="E239" s="15">
+      <c r="D239" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="240" customHeight="1" spans="1:5">
-      <c r="A240" s="11" t="s">
-        <v>52</v>
+    <row r="240" customHeight="1" spans="1:4">
+      <c r="A240" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C240" s="1">
         <v>2233</v>
       </c>
-      <c r="D240" s="13">
-        <v>6</v>
-      </c>
-      <c r="E240" s="15">
+      <c r="D240" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="241" customHeight="1" spans="1:5">
-      <c r="A241" s="11" t="s">
-        <v>53</v>
+    <row r="241" customHeight="1" spans="1:4">
+      <c r="A241" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C241" s="1">
         <v>2234</v>
       </c>
-      <c r="D241" s="13">
-        <v>6</v>
-      </c>
-      <c r="E241" s="13">
+      <c r="D241" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="242" customHeight="1" spans="1:5">
-      <c r="A242" s="11" t="s">
-        <v>53</v>
+    <row r="242" customHeight="1" spans="1:4">
+      <c r="A242" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C242" s="1">
         <v>2235</v>
       </c>
-      <c r="D242" s="13">
-        <v>6</v>
-      </c>
-      <c r="E242" s="15">
+      <c r="D242" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="243" customHeight="1" spans="1:5">
-      <c r="A243" s="11" t="s">
-        <v>53</v>
+    <row r="243" customHeight="1" spans="1:4">
+      <c r="A243" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C243" s="1">
         <v>2236</v>
       </c>
-      <c r="D243" s="13">
-        <v>6</v>
-      </c>
-      <c r="E243" s="15">
+      <c r="D243" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="244" customHeight="1" spans="1:5">
-      <c r="A244" s="11" t="s">
-        <v>53</v>
+    <row r="244" customHeight="1" spans="1:4">
+      <c r="A244" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C244" s="1">
         <v>2237</v>
       </c>
-      <c r="D244" s="13">
-        <v>6</v>
-      </c>
-      <c r="E244" s="15">
+      <c r="D244" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="245" customHeight="1" spans="1:5">
-      <c r="A245" s="11" t="s">
-        <v>53</v>
+    <row r="245" customHeight="1" spans="1:4">
+      <c r="A245" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C245" s="1">
         <v>2238</v>
       </c>
-      <c r="D245" s="13">
-        <v>6</v>
-      </c>
-      <c r="E245" s="15">
+      <c r="D245" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="246" customHeight="1" spans="1:5">
-      <c r="A246" s="11" t="s">
-        <v>53</v>
+    <row r="246" customHeight="1" spans="1:4">
+      <c r="A246" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C246" s="1">
         <v>2239</v>
       </c>
-      <c r="D246" s="13">
-        <v>6</v>
-      </c>
-      <c r="E246" s="15">
+      <c r="D246" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="247" customHeight="1" spans="1:5">
-      <c r="A247" s="11" t="s">
-        <v>54</v>
+    <row r="247" customHeight="1" spans="1:4">
+      <c r="A247" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C247" s="1">
         <v>2240</v>
       </c>
-      <c r="D247" s="13">
-        <v>6</v>
-      </c>
-      <c r="E247" s="13">
+      <c r="D247" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="248" customHeight="1" spans="1:5">
-      <c r="A248" s="11" t="s">
-        <v>54</v>
+    <row r="248" customHeight="1" spans="1:4">
+      <c r="A248" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C248" s="1">
         <v>2241</v>
       </c>
-      <c r="D248" s="13">
-        <v>6</v>
-      </c>
-      <c r="E248" s="15">
+      <c r="D248" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="249" customHeight="1" spans="1:5">
-      <c r="A249" s="11" t="s">
-        <v>54</v>
+    <row r="249" customHeight="1" spans="1:4">
+      <c r="A249" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C249" s="1">
         <v>2242</v>
       </c>
-      <c r="D249" s="13">
-        <v>6</v>
-      </c>
-      <c r="E249" s="15">
+      <c r="D249" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="250" customHeight="1" spans="1:5">
-      <c r="A250" s="11" t="s">
-        <v>54</v>
+    <row r="250" customHeight="1" spans="1:4">
+      <c r="A250" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C250" s="1">
         <v>2243</v>
       </c>
-      <c r="D250" s="13">
-        <v>6</v>
-      </c>
-      <c r="E250" s="15">
+      <c r="D250" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="251" customHeight="1" spans="1:5">
-      <c r="A251" s="11" t="s">
-        <v>54</v>
+    <row r="251" customHeight="1" spans="1:4">
+      <c r="A251" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C251" s="1">
         <v>2244</v>
       </c>
-      <c r="D251" s="13">
-        <v>6</v>
-      </c>
-      <c r="E251" s="15">
+      <c r="D251" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="252" customHeight="1" spans="1:5">
-      <c r="A252" s="11" t="s">
-        <v>54</v>
+    <row r="252" customHeight="1" spans="1:4">
+      <c r="A252" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C252" s="1">
         <v>2245</v>
       </c>
-      <c r="D252" s="13">
-        <v>6</v>
-      </c>
-      <c r="E252" s="15">
+      <c r="D252" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="253" customHeight="1" spans="1:5">
-      <c r="A253" s="11" t="s">
-        <v>55</v>
+    <row r="253" customHeight="1" spans="1:4">
+      <c r="A253" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C253" s="1">
         <v>2246</v>
       </c>
-      <c r="D253" s="13">
-        <v>6</v>
-      </c>
-      <c r="E253" s="13">
+      <c r="D253" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="254" customHeight="1" spans="1:5">
-      <c r="A254" s="11" t="s">
-        <v>55</v>
+    <row r="254" customHeight="1" spans="1:4">
+      <c r="A254" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C254" s="1">
         <v>2247</v>
       </c>
-      <c r="D254" s="13">
-        <v>6</v>
-      </c>
-      <c r="E254" s="15">
+      <c r="D254" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="255" customHeight="1" spans="1:5">
-      <c r="A255" s="11" t="s">
-        <v>55</v>
+    <row r="255" customHeight="1" spans="1:4">
+      <c r="A255" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C255" s="1">
         <v>2248</v>
       </c>
-      <c r="D255" s="13">
-        <v>6</v>
-      </c>
-      <c r="E255" s="15">
+      <c r="D255" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="256" customHeight="1" spans="1:5">
-      <c r="A256" s="11" t="s">
-        <v>55</v>
+    <row r="256" customHeight="1" spans="1:4">
+      <c r="A256" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C256" s="1">
         <v>2249</v>
       </c>
-      <c r="D256" s="13">
-        <v>6</v>
-      </c>
-      <c r="E256" s="15">
+      <c r="D256" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="257" customHeight="1" spans="1:5">
-      <c r="A257" s="11" t="s">
-        <v>55</v>
+    <row r="257" customHeight="1" spans="1:4">
+      <c r="A257" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C257" s="1">
         <v>2250</v>
       </c>
-      <c r="D257" s="13">
-        <v>6</v>
-      </c>
-      <c r="E257" s="15">
+      <c r="D257" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="258" customHeight="1" spans="1:5">
-      <c r="A258" s="11" t="s">
-        <v>55</v>
+    <row r="258" customHeight="1" spans="1:4">
+      <c r="A258" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C258" s="1">
         <v>2251</v>
       </c>
-      <c r="D258" s="13">
-        <v>6</v>
-      </c>
-      <c r="E258" s="15">
+      <c r="D258" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="259" customHeight="1" spans="1:5">
-      <c r="A259" s="11" t="s">
-        <v>56</v>
+    <row r="259" customHeight="1" spans="1:4">
+      <c r="A259" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C259" s="1">
         <v>2252</v>
       </c>
-      <c r="D259" s="13">
-        <v>7</v>
-      </c>
-      <c r="E259" s="13">
+      <c r="D259" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="260" customHeight="1" spans="1:5">
-      <c r="A260" s="11" t="s">
-        <v>56</v>
+    <row r="260" customHeight="1" spans="1:4">
+      <c r="A260" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C260" s="1">
         <v>2253</v>
       </c>
-      <c r="D260" s="13">
-        <v>7</v>
-      </c>
-      <c r="E260" s="15">
+      <c r="D260" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="261" customHeight="1" spans="1:5">
-      <c r="A261" s="11" t="s">
-        <v>56</v>
+    <row r="261" customHeight="1" spans="1:4">
+      <c r="A261" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C261" s="1">
         <v>2254</v>
       </c>
-      <c r="D261" s="13">
-        <v>7</v>
-      </c>
-      <c r="E261" s="15">
+      <c r="D261" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="262" customHeight="1" spans="1:5">
-      <c r="A262" s="11" t="s">
-        <v>56</v>
+    <row r="262" customHeight="1" spans="1:4">
+      <c r="A262" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C262" s="1">
         <v>2255</v>
       </c>
-      <c r="D262" s="13">
-        <v>7</v>
-      </c>
-      <c r="E262" s="15">
+      <c r="D262" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="263" customHeight="1" spans="1:5">
-      <c r="A263" s="11" t="s">
-        <v>56</v>
+    <row r="263" customHeight="1" spans="1:4">
+      <c r="A263" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C263" s="1">
         <v>2256</v>
       </c>
-      <c r="D263" s="13">
-        <v>7</v>
-      </c>
-      <c r="E263" s="15">
+      <c r="D263" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="264" customHeight="1" spans="1:5">
-      <c r="A264" s="11" t="s">
-        <v>56</v>
+    <row r="264" customHeight="1" spans="1:4">
+      <c r="A264" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C264" s="1">
         <v>2257</v>
       </c>
-      <c r="D264" s="13">
-        <v>7</v>
-      </c>
-      <c r="E264" s="15">
+      <c r="D264" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="265" customHeight="1" spans="1:5">
-      <c r="A265" s="11" t="s">
-        <v>57</v>
+    <row r="265" customHeight="1" spans="1:4">
+      <c r="A265" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C265" s="1">
         <v>2258</v>
       </c>
-      <c r="D265" s="13">
-        <v>7</v>
-      </c>
-      <c r="E265" s="13">
+      <c r="D265" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="266" customHeight="1" spans="1:5">
-      <c r="A266" s="11" t="s">
-        <v>57</v>
+    <row r="266" customHeight="1" spans="1:4">
+      <c r="A266" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C266" s="1">
         <v>2259</v>
       </c>
-      <c r="D266" s="13">
-        <v>7</v>
-      </c>
-      <c r="E266" s="15">
+      <c r="D266" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="267" customHeight="1" spans="1:5">
-      <c r="A267" s="11" t="s">
-        <v>57</v>
+    <row r="267" customHeight="1" spans="1:4">
+      <c r="A267" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C267" s="1">
         <v>2260</v>
       </c>
-      <c r="D267" s="13">
-        <v>7</v>
-      </c>
-      <c r="E267" s="15">
+      <c r="D267" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="268" customHeight="1" spans="1:5">
-      <c r="A268" s="11" t="s">
-        <v>57</v>
+    <row r="268" customHeight="1" spans="1:4">
+      <c r="A268" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C268" s="1">
         <v>2261</v>
       </c>
-      <c r="D268" s="13">
-        <v>7</v>
-      </c>
-      <c r="E268" s="15">
+      <c r="D268" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="269" customHeight="1" spans="1:5">
-      <c r="A269" s="11" t="s">
-        <v>57</v>
+    <row r="269" customHeight="1" spans="1:4">
+      <c r="A269" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C269" s="1">
         <v>2262</v>
       </c>
-      <c r="D269" s="13">
-        <v>7</v>
-      </c>
-      <c r="E269" s="15">
+      <c r="D269" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="270" customHeight="1" spans="1:5">
-      <c r="A270" s="11" t="s">
-        <v>57</v>
+    <row r="270" customHeight="1" spans="1:4">
+      <c r="A270" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C270" s="1">
         <v>2263</v>
       </c>
-      <c r="D270" s="13">
-        <v>7</v>
-      </c>
-      <c r="E270" s="15">
+      <c r="D270" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="271" customHeight="1" spans="1:5">
-      <c r="A271" s="11" t="s">
-        <v>58</v>
+    <row r="271" customHeight="1" spans="1:4">
+      <c r="A271" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C271" s="1">
         <v>2264</v>
       </c>
-      <c r="D271" s="13">
-        <v>7</v>
-      </c>
-      <c r="E271" s="13">
+      <c r="D271" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="272" customHeight="1" spans="1:5">
-      <c r="A272" s="11" t="s">
-        <v>58</v>
+    <row r="272" customHeight="1" spans="1:4">
+      <c r="A272" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C272" s="1">
         <v>2265</v>
       </c>
-      <c r="D272" s="13">
-        <v>7</v>
-      </c>
-      <c r="E272" s="15">
+      <c r="D272" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="273" customHeight="1" spans="1:5">
-      <c r="A273" s="11" t="s">
-        <v>58</v>
+    <row r="273" customHeight="1" spans="1:4">
+      <c r="A273" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C273" s="1">
         <v>2266</v>
       </c>
-      <c r="D273" s="13">
-        <v>7</v>
-      </c>
-      <c r="E273" s="15">
+      <c r="D273" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="274" customHeight="1" spans="1:5">
-      <c r="A274" s="11" t="s">
-        <v>58</v>
+    <row r="274" customHeight="1" spans="1:4">
+      <c r="A274" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C274" s="1">
         <v>2267</v>
       </c>
-      <c r="D274" s="13">
-        <v>7</v>
-      </c>
-      <c r="E274" s="15">
+      <c r="D274" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="275" customHeight="1" spans="1:5">
-      <c r="A275" s="11" t="s">
-        <v>58</v>
+    <row r="275" customHeight="1" spans="1:4">
+      <c r="A275" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C275" s="1">
         <v>2268</v>
       </c>
-      <c r="D275" s="13">
-        <v>7</v>
-      </c>
-      <c r="E275" s="15">
+      <c r="D275" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="276" customHeight="1" spans="1:5">
-      <c r="A276" s="11" t="s">
-        <v>58</v>
+    <row r="276" customHeight="1" spans="1:4">
+      <c r="A276" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C276" s="1">
         <v>2269</v>
       </c>
-      <c r="D276" s="13">
-        <v>7</v>
-      </c>
-      <c r="E276" s="15">
+      <c r="D276" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="277" customHeight="1" spans="1:5">
-      <c r="A277" s="11" t="s">
-        <v>59</v>
+    <row r="277" customHeight="1" spans="1:4">
+      <c r="A277" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C277" s="1">
         <v>2270</v>
       </c>
-      <c r="D277" s="13">
-        <v>7</v>
-      </c>
-      <c r="E277" s="13">
+      <c r="D277" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="278" customHeight="1" spans="1:5">
-      <c r="A278" s="11" t="s">
-        <v>59</v>
+    <row r="278" customHeight="1" spans="1:4">
+      <c r="A278" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C278" s="1">
         <v>2271</v>
       </c>
-      <c r="D278" s="13">
-        <v>7</v>
-      </c>
-      <c r="E278" s="15">
+      <c r="D278" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="279" customHeight="1" spans="1:5">
-      <c r="A279" s="11" t="s">
-        <v>59</v>
+    <row r="279" customHeight="1" spans="1:4">
+      <c r="A279" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C279" s="1">
         <v>2272</v>
       </c>
-      <c r="D279" s="13">
-        <v>7</v>
-      </c>
-      <c r="E279" s="15">
+      <c r="D279" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="280" customHeight="1" spans="1:5">
-      <c r="A280" s="11" t="s">
-        <v>59</v>
+    <row r="280" customHeight="1" spans="1:4">
+      <c r="A280" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C280" s="1">
         <v>2273</v>
       </c>
-      <c r="D280" s="13">
-        <v>7</v>
-      </c>
-      <c r="E280" s="15">
+      <c r="D280" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="281" customHeight="1" spans="1:5">
-      <c r="A281" s="11" t="s">
-        <v>59</v>
+    <row r="281" customHeight="1" spans="1:4">
+      <c r="A281" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C281" s="1">
         <v>2274</v>
       </c>
-      <c r="D281" s="13">
-        <v>7</v>
-      </c>
-      <c r="E281" s="15">
+      <c r="D281" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="282" customHeight="1" spans="1:5">
-      <c r="A282" s="11" t="s">
-        <v>59</v>
+    <row r="282" customHeight="1" spans="1:4">
+      <c r="A282" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C282" s="1">
         <v>2275</v>
       </c>
-      <c r="D282" s="13">
-        <v>7</v>
-      </c>
-      <c r="E282" s="15">
+      <c r="D282" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="283" customHeight="1" spans="1:5">
-      <c r="A283" s="11" t="s">
-        <v>60</v>
+    <row r="283" customHeight="1" spans="1:4">
+      <c r="A283" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C283" s="1">
         <v>2276</v>
       </c>
-      <c r="D283" s="13">
-        <v>7</v>
-      </c>
-      <c r="E283" s="13">
+      <c r="D283" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="284" customHeight="1" spans="1:5">
-      <c r="A284" s="11" t="s">
-        <v>60</v>
+    <row r="284" customHeight="1" spans="1:4">
+      <c r="A284" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C284" s="1">
         <v>2277</v>
       </c>
-      <c r="D284" s="13">
-        <v>7</v>
-      </c>
-      <c r="E284" s="15">
+      <c r="D284" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="285" customHeight="1" spans="1:5">
-      <c r="A285" s="11" t="s">
-        <v>60</v>
+    <row r="285" customHeight="1" spans="1:4">
+      <c r="A285" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C285" s="1">
         <v>2278</v>
       </c>
-      <c r="D285" s="13">
-        <v>7</v>
-      </c>
-      <c r="E285" s="15">
+      <c r="D285" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="286" customHeight="1" spans="1:5">
-      <c r="A286" s="11" t="s">
-        <v>60</v>
+    <row r="286" customHeight="1" spans="1:4">
+      <c r="A286" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C286" s="1">
         <v>2279</v>
       </c>
-      <c r="D286" s="13">
-        <v>7</v>
-      </c>
-      <c r="E286" s="15">
+      <c r="D286" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="287" customHeight="1" spans="1:5">
-      <c r="A287" s="11" t="s">
-        <v>60</v>
+    <row r="287" customHeight="1" spans="1:4">
+      <c r="A287" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C287" s="1">
         <v>2280</v>
       </c>
-      <c r="D287" s="13">
-        <v>7</v>
-      </c>
-      <c r="E287" s="15">
+      <c r="D287" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="288" customHeight="1" spans="1:5">
-      <c r="A288" s="11" t="s">
-        <v>60</v>
+    <row r="288" customHeight="1" spans="1:4">
+      <c r="A288" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C288" s="1">
         <v>2281</v>
       </c>
-      <c r="D288" s="13">
-        <v>7</v>
-      </c>
-      <c r="E288" s="15">
+      <c r="D288" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="289" customHeight="1" spans="1:5">
-      <c r="A289" s="11" t="s">
-        <v>61</v>
+    <row r="289" customHeight="1" spans="1:4">
+      <c r="A289" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C289" s="1">
         <v>2282</v>
       </c>
-      <c r="D289" s="13">
-        <v>7</v>
-      </c>
-      <c r="E289" s="13">
+      <c r="D289" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="290" customHeight="1" spans="1:5">
-      <c r="A290" s="11" t="s">
-        <v>61</v>
+    <row r="290" customHeight="1" spans="1:4">
+      <c r="A290" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C290" s="1">
         <v>2283</v>
       </c>
-      <c r="D290" s="13">
-        <v>7</v>
-      </c>
-      <c r="E290" s="15">
+      <c r="D290" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="291" customHeight="1" spans="1:5">
-      <c r="A291" s="11" t="s">
-        <v>61</v>
+    <row r="291" customHeight="1" spans="1:4">
+      <c r="A291" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C291" s="1">
         <v>2284</v>
       </c>
-      <c r="D291" s="13">
-        <v>7</v>
-      </c>
-      <c r="E291" s="15">
+      <c r="D291" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="292" customHeight="1" spans="1:5">
-      <c r="A292" s="11" t="s">
-        <v>61</v>
+    <row r="292" customHeight="1" spans="1:4">
+      <c r="A292" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C292" s="1">
         <v>2285</v>
       </c>
-      <c r="D292" s="13">
-        <v>7</v>
-      </c>
-      <c r="E292" s="15">
+      <c r="D292" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="293" customHeight="1" spans="1:5">
-      <c r="A293" s="11" t="s">
-        <v>61</v>
+    <row r="293" customHeight="1" spans="1:4">
+      <c r="A293" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C293" s="1">
         <v>2286</v>
       </c>
-      <c r="D293" s="13">
-        <v>7</v>
-      </c>
-      <c r="E293" s="15">
+      <c r="D293" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="294" customHeight="1" spans="1:5">
-      <c r="A294" s="11" t="s">
-        <v>61</v>
+    <row r="294" customHeight="1" spans="1:4">
+      <c r="A294" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C294" s="1">
         <v>2287</v>
       </c>
-      <c r="D294" s="13">
-        <v>7</v>
-      </c>
-      <c r="E294" s="15">
+      <c r="D294" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="295" customHeight="1" spans="1:5">
-      <c r="A295" s="11" t="s">
-        <v>62</v>
+    <row r="295" customHeight="1" spans="1:4">
+      <c r="A295" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C295" s="1">
         <v>2288</v>
       </c>
-      <c r="D295" s="13">
-        <v>8</v>
-      </c>
-      <c r="E295" s="13">
+      <c r="D295" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="296" customHeight="1" spans="1:5">
-      <c r="A296" s="11" t="s">
-        <v>62</v>
+    <row r="296" customHeight="1" spans="1:4">
+      <c r="A296" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C296" s="1">
         <v>2289</v>
       </c>
-      <c r="D296" s="13">
-        <v>8</v>
-      </c>
-      <c r="E296" s="15">
+      <c r="D296" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="297" customHeight="1" spans="1:5">
-      <c r="A297" s="11" t="s">
-        <v>62</v>
+    <row r="297" customHeight="1" spans="1:4">
+      <c r="A297" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C297" s="1">
         <v>2290</v>
       </c>
-      <c r="D297" s="13">
-        <v>8</v>
-      </c>
-      <c r="E297" s="15">
+      <c r="D297" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="298" customHeight="1" spans="1:5">
-      <c r="A298" s="11" t="s">
-        <v>62</v>
+    <row r="298" customHeight="1" spans="1:4">
+      <c r="A298" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C298" s="1">
         <v>2291</v>
       </c>
-      <c r="D298" s="13">
-        <v>8</v>
-      </c>
-      <c r="E298" s="15">
+      <c r="D298" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="299" customHeight="1" spans="1:5">
-      <c r="A299" s="11" t="s">
-        <v>62</v>
+    <row r="299" customHeight="1" spans="1:4">
+      <c r="A299" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C299" s="1">
         <v>2292</v>
       </c>
-      <c r="D299" s="13">
-        <v>8</v>
-      </c>
-      <c r="E299" s="15">
+      <c r="D299" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="300" customHeight="1" spans="1:5">
-      <c r="A300" s="11" t="s">
-        <v>62</v>
+    <row r="300" customHeight="1" spans="1:4">
+      <c r="A300" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C300" s="1">
         <v>2293</v>
       </c>
-      <c r="D300" s="13">
-        <v>8</v>
-      </c>
-      <c r="E300" s="15">
+      <c r="D300" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="301" customHeight="1" spans="1:5">
-      <c r="A301" s="11" t="s">
-        <v>63</v>
+    <row r="301" customHeight="1" spans="1:4">
+      <c r="A301" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C301" s="1">
         <v>2294</v>
       </c>
-      <c r="D301" s="13">
-        <v>8</v>
-      </c>
-      <c r="E301" s="13">
+      <c r="D301" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="302" customHeight="1" spans="1:5">
-      <c r="A302" s="11" t="s">
-        <v>63</v>
+    <row r="302" customHeight="1" spans="1:4">
+      <c r="A302" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C302" s="1">
         <v>2295</v>
       </c>
-      <c r="D302" s="13">
-        <v>8</v>
-      </c>
-      <c r="E302" s="15">
+      <c r="D302" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="303" customHeight="1" spans="1:5">
-      <c r="A303" s="11" t="s">
-        <v>63</v>
+    <row r="303" customHeight="1" spans="1:4">
+      <c r="A303" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C303" s="1">
         <v>2296</v>
       </c>
-      <c r="D303" s="13">
-        <v>8</v>
-      </c>
-      <c r="E303" s="15">
+      <c r="D303" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="304" customHeight="1" spans="1:5">
-      <c r="A304" s="11" t="s">
-        <v>63</v>
+    <row r="304" customHeight="1" spans="1:4">
+      <c r="A304" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C304" s="1">
         <v>2297</v>
       </c>
-      <c r="D304" s="13">
-        <v>8</v>
-      </c>
-      <c r="E304" s="15">
+      <c r="D304" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="305" customHeight="1" spans="1:5">
-      <c r="A305" s="11" t="s">
-        <v>63</v>
+    <row r="305" customHeight="1" spans="1:4">
+      <c r="A305" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C305" s="1">
         <v>2298</v>
       </c>
-      <c r="D305" s="13">
-        <v>8</v>
-      </c>
-      <c r="E305" s="15">
+      <c r="D305" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="306" customHeight="1" spans="1:5">
-      <c r="A306" s="11" t="s">
-        <v>63</v>
+    <row r="306" customHeight="1" spans="1:4">
+      <c r="A306" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C306" s="1">
         <v>2299</v>
       </c>
-      <c r="D306" s="13">
-        <v>8</v>
-      </c>
-      <c r="E306" s="15">
+      <c r="D306" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="307" customHeight="1" spans="1:5">
-      <c r="A307" s="11" t="s">
-        <v>64</v>
+    <row r="307" customHeight="1" spans="1:4">
+      <c r="A307" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C307" s="1">
         <v>2300</v>
       </c>
-      <c r="D307" s="13">
-        <v>8</v>
-      </c>
-      <c r="E307" s="13">
+      <c r="D307" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="308" customHeight="1" spans="1:5">
-      <c r="A308" s="11" t="s">
-        <v>64</v>
+    <row r="308" customHeight="1" spans="1:4">
+      <c r="A308" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C308" s="1">
         <v>2301</v>
       </c>
-      <c r="D308" s="13">
-        <v>8</v>
-      </c>
-      <c r="E308" s="15">
+      <c r="D308" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="309" customHeight="1" spans="1:5">
-      <c r="A309" s="11" t="s">
-        <v>64</v>
+    <row r="309" customHeight="1" spans="1:4">
+      <c r="A309" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C309" s="1">
         <v>2302</v>
       </c>
-      <c r="D309" s="13">
-        <v>8</v>
-      </c>
-      <c r="E309" s="15">
+      <c r="D309" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="310" customHeight="1" spans="1:5">
-      <c r="A310" s="11" t="s">
-        <v>64</v>
+    <row r="310" customHeight="1" spans="1:4">
+      <c r="A310" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C310" s="1">
         <v>2303</v>
       </c>
-      <c r="D310" s="13">
-        <v>8</v>
-      </c>
-      <c r="E310" s="15">
+      <c r="D310" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="311" customHeight="1" spans="1:5">
-      <c r="A311" s="11" t="s">
-        <v>64</v>
+    <row r="311" customHeight="1" spans="1:4">
+      <c r="A311" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C311" s="1">
         <v>2304</v>
       </c>
-      <c r="D311" s="13">
-        <v>8</v>
-      </c>
-      <c r="E311" s="15">
+      <c r="D311" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="312" customHeight="1" spans="1:5">
-      <c r="A312" s="11" t="s">
-        <v>64</v>
+    <row r="312" customHeight="1" spans="1:4">
+      <c r="A312" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C312" s="1">
         <v>2305</v>
       </c>
-      <c r="D312" s="13">
-        <v>8</v>
-      </c>
-      <c r="E312" s="15">
+      <c r="D312" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="313" customHeight="1" spans="1:5">
-      <c r="A313" s="11" t="s">
-        <v>65</v>
+    <row r="313" customHeight="1" spans="1:4">
+      <c r="A313" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C313" s="1">
         <v>2306</v>
       </c>
-      <c r="D313" s="13">
-        <v>8</v>
-      </c>
-      <c r="E313" s="13">
+      <c r="D313" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="314" customHeight="1" spans="1:5">
-      <c r="A314" s="11" t="s">
-        <v>65</v>
+    <row r="314" customHeight="1" spans="1:4">
+      <c r="A314" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C314" s="1">
         <v>2307</v>
       </c>
-      <c r="D314" s="13">
-        <v>8</v>
-      </c>
-      <c r="E314" s="15">
+      <c r="D314" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="315" customHeight="1" spans="1:5">
-      <c r="A315" s="11" t="s">
-        <v>65</v>
+    <row r="315" customHeight="1" spans="1:4">
+      <c r="A315" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C315" s="1">
         <v>2308</v>
       </c>
-      <c r="D315" s="13">
-        <v>8</v>
-      </c>
-      <c r="E315" s="15">
+      <c r="D315" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="316" customHeight="1" spans="1:5">
-      <c r="A316" s="11" t="s">
-        <v>65</v>
+    <row r="316" customHeight="1" spans="1:4">
+      <c r="A316" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C316" s="1">
         <v>2309</v>
       </c>
-      <c r="D316" s="13">
-        <v>8</v>
-      </c>
-      <c r="E316" s="15">
+      <c r="D316" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="317" customHeight="1" spans="1:5">
-      <c r="A317" s="11" t="s">
-        <v>65</v>
+    <row r="317" customHeight="1" spans="1:4">
+      <c r="A317" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C317" s="1">
         <v>2310</v>
       </c>
-      <c r="D317" s="13">
-        <v>8</v>
-      </c>
-      <c r="E317" s="15">
+      <c r="D317" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="318" customHeight="1" spans="1:5">
-      <c r="A318" s="11" t="s">
-        <v>65</v>
+    <row r="318" customHeight="1" spans="1:4">
+      <c r="A318" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C318" s="1">
         <v>2311</v>
       </c>
-      <c r="D318" s="13">
-        <v>8</v>
-      </c>
-      <c r="E318" s="15">
+      <c r="D318" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="319" customHeight="1" spans="1:5">
-      <c r="A319" s="11" t="s">
-        <v>66</v>
+    <row r="319" customHeight="1" spans="1:4">
+      <c r="A319" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C319" s="1">
         <v>2312</v>
       </c>
-      <c r="D319" s="13">
-        <v>8</v>
-      </c>
-      <c r="E319" s="13">
+      <c r="D319" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="320" customHeight="1" spans="1:5">
-      <c r="A320" s="11" t="s">
-        <v>66</v>
+    <row r="320" customHeight="1" spans="1:4">
+      <c r="A320" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C320" s="1">
         <v>2313</v>
       </c>
-      <c r="D320" s="13">
-        <v>8</v>
-      </c>
-      <c r="E320" s="15">
+      <c r="D320" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="321" customHeight="1" spans="1:5">
-      <c r="A321" s="11" t="s">
-        <v>66</v>
+    <row r="321" customHeight="1" spans="1:4">
+      <c r="A321" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C321" s="1">
         <v>2314</v>
       </c>
-      <c r="D321" s="13">
-        <v>8</v>
-      </c>
-      <c r="E321" s="15">
+      <c r="D321" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="322" customHeight="1" spans="1:5">
-      <c r="A322" s="11" t="s">
-        <v>66</v>
+    <row r="322" customHeight="1" spans="1:4">
+      <c r="A322" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C322" s="1">
         <v>2315</v>
       </c>
-      <c r="D322" s="13">
-        <v>8</v>
-      </c>
-      <c r="E322" s="15">
+      <c r="D322" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="323" customHeight="1" spans="1:5">
-      <c r="A323" s="11" t="s">
-        <v>66</v>
+    <row r="323" customHeight="1" spans="1:4">
+      <c r="A323" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C323" s="1">
         <v>2316</v>
       </c>
-      <c r="D323" s="13">
-        <v>8</v>
-      </c>
-      <c r="E323" s="15">
+      <c r="D323" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="324" customHeight="1" spans="1:5">
-      <c r="A324" s="11" t="s">
-        <v>66</v>
+    <row r="324" customHeight="1" spans="1:4">
+      <c r="A324" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C324" s="1">
         <v>2317</v>
       </c>
-      <c r="D324" s="13">
-        <v>8</v>
-      </c>
-      <c r="E324" s="15">
+      <c r="D324" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="325" customHeight="1" spans="1:5">
-      <c r="A325" s="11" t="s">
-        <v>67</v>
+    <row r="325" customHeight="1" spans="1:4">
+      <c r="A325" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C325" s="1">
         <v>2318</v>
       </c>
-      <c r="D325" s="13">
-        <v>8</v>
-      </c>
-      <c r="E325" s="13">
+      <c r="D325" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="326" customHeight="1" spans="1:5">
-      <c r="A326" s="11" t="s">
-        <v>67</v>
+    <row r="326" customHeight="1" spans="1:4">
+      <c r="A326" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C326" s="1">
         <v>2319</v>
       </c>
-      <c r="D326" s="13">
-        <v>8</v>
-      </c>
-      <c r="E326" s="15">
+      <c r="D326" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="327" customHeight="1" spans="1:5">
-      <c r="A327" s="11" t="s">
-        <v>67</v>
+    <row r="327" customHeight="1" spans="1:4">
+      <c r="A327" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C327" s="1">
         <v>2320</v>
       </c>
-      <c r="D327" s="13">
-        <v>8</v>
-      </c>
-      <c r="E327" s="15">
+      <c r="D327" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="328" customHeight="1" spans="1:5">
-      <c r="A328" s="11" t="s">
-        <v>67</v>
+    <row r="328" customHeight="1" spans="1:4">
+      <c r="A328" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C328" s="1">
         <v>2321</v>
       </c>
-      <c r="D328" s="13">
-        <v>8</v>
-      </c>
-      <c r="E328" s="15">
+      <c r="D328" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="329" customHeight="1" spans="1:5">
-      <c r="A329" s="11" t="s">
-        <v>67</v>
+    <row r="329" customHeight="1" spans="1:4">
+      <c r="A329" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C329" s="1">
         <v>2322</v>
       </c>
-      <c r="D329" s="13">
-        <v>8</v>
-      </c>
-      <c r="E329" s="15">
+      <c r="D329" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="330" customHeight="1" spans="1:5">
-      <c r="A330" s="11" t="s">
-        <v>67</v>
+    <row r="330" customHeight="1" spans="1:4">
+      <c r="A330" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C330" s="1">
         <v>2323</v>
       </c>
-      <c r="D330" s="13">
-        <v>8</v>
-      </c>
-      <c r="E330" s="15">
+      <c r="D330" s="14">
         <v>5</v>
       </c>
     </row>

--- a/config/excel/Crystal.xlsx
+++ b/config/excel/Crystal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Crystal" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -242,8 +242,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,21 +265,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,69 +354,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -369,27 +369,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -414,157 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,19 +432,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,6 +691,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -717,20 +743,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,36 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -791,49 +791,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,101 +842,101 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -956,7 +956,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2163,8 +2162,8 @@
   <sheetPr/>
   <dimension ref="A1:D330"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
@@ -2245,7 +2244,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -2256,10 +2255,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="13">
-        <v>2001</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C8" s="11">
+        <v>3001</v>
+      </c>
+      <c r="D8" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2268,10 +2267,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="13">
-        <v>2002</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="C9" s="11">
+        <v>3002</v>
+      </c>
+      <c r="D9" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2280,10 +2279,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="13">
-        <v>2003</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="C10" s="11">
+        <v>3003</v>
+      </c>
+      <c r="D10" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2292,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="13">
-        <v>2004</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="C11" s="11">
+        <v>3004</v>
+      </c>
+      <c r="D11" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2304,10 +2303,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="13">
-        <v>2005</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="C12" s="11">
+        <v>3005</v>
+      </c>
+      <c r="D12" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2315,9 +2314,9 @@
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15">
-        <v>2006</v>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11">
+        <v>3006</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
@@ -2327,10 +2326,10 @@
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="11">
+        <v>3007</v>
+      </c>
+      <c r="D14" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2338,10 +2337,10 @@
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="11">
+        <v>3008</v>
+      </c>
+      <c r="D15" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2349,10 +2348,10 @@
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="11">
+        <v>3009</v>
+      </c>
+      <c r="D16" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2360,10 +2359,10 @@
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="C17" s="11">
+        <v>3010</v>
+      </c>
+      <c r="D17" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2371,10 +2370,10 @@
       <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="11">
+        <v>3011</v>
+      </c>
+      <c r="D18" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2382,8 +2381,8 @@
       <c r="A19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1">
-        <v>2012</v>
+      <c r="C19" s="11">
+        <v>3012</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -2393,10 +2392,10 @@
       <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="11">
+        <v>3013</v>
+      </c>
+      <c r="D20" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2404,10 +2403,10 @@
       <c r="A21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="C21" s="11">
+        <v>3014</v>
+      </c>
+      <c r="D21" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2415,10 +2414,10 @@
       <c r="A22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="C22" s="11">
+        <v>3015</v>
+      </c>
+      <c r="D22" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2426,10 +2425,10 @@
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="C23" s="11">
+        <v>3016</v>
+      </c>
+      <c r="D23" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2437,10 +2436,10 @@
       <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="C24" s="11">
+        <v>3017</v>
+      </c>
+      <c r="D24" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2448,8 +2447,8 @@
       <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1">
-        <v>2018</v>
+      <c r="C25" s="11">
+        <v>3018</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
@@ -2459,10 +2458,10 @@
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="C26" s="11">
+        <v>3019</v>
+      </c>
+      <c r="D26" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2470,10 +2469,10 @@
       <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="C27" s="11">
+        <v>3020</v>
+      </c>
+      <c r="D27" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2481,10 +2480,10 @@
       <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="C28" s="11">
+        <v>3021</v>
+      </c>
+      <c r="D28" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2492,10 +2491,10 @@
       <c r="A29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="14">
+      <c r="C29" s="11">
+        <v>3022</v>
+      </c>
+      <c r="D29" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2503,10 +2502,10 @@
       <c r="A30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D30" s="14">
+      <c r="C30" s="11">
+        <v>3023</v>
+      </c>
+      <c r="D30" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2514,8 +2513,8 @@
       <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="1">
-        <v>2024</v>
+      <c r="C31" s="11">
+        <v>3024</v>
       </c>
       <c r="D31" s="12">
         <v>0</v>
@@ -2525,10 +2524,10 @@
       <c r="A32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="1">
-        <v>2025</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="C32" s="11">
+        <v>3025</v>
+      </c>
+      <c r="D32" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2536,10 +2535,10 @@
       <c r="A33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="1">
-        <v>2026</v>
-      </c>
-      <c r="D33" s="14">
+      <c r="C33" s="11">
+        <v>3026</v>
+      </c>
+      <c r="D33" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2547,10 +2546,10 @@
       <c r="A34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="1">
-        <v>2027</v>
-      </c>
-      <c r="D34" s="14">
+      <c r="C34" s="11">
+        <v>3027</v>
+      </c>
+      <c r="D34" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2558,10 +2557,10 @@
       <c r="A35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="1">
-        <v>2028</v>
-      </c>
-      <c r="D35" s="14">
+      <c r="C35" s="11">
+        <v>3028</v>
+      </c>
+      <c r="D35" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2569,10 +2568,10 @@
       <c r="A36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="1">
-        <v>2029</v>
-      </c>
-      <c r="D36" s="14">
+      <c r="C36" s="11">
+        <v>3029</v>
+      </c>
+      <c r="D36" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2580,8 +2579,8 @@
       <c r="A37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="1">
-        <v>2030</v>
+      <c r="C37" s="11">
+        <v>3030</v>
       </c>
       <c r="D37" s="12">
         <v>0</v>
@@ -2591,10 +2590,10 @@
       <c r="A38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1">
-        <v>2031</v>
-      </c>
-      <c r="D38" s="14">
+      <c r="C38" s="11">
+        <v>3031</v>
+      </c>
+      <c r="D38" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2602,10 +2601,10 @@
       <c r="A39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="1">
-        <v>2032</v>
-      </c>
-      <c r="D39" s="14">
+      <c r="C39" s="11">
+        <v>3032</v>
+      </c>
+      <c r="D39" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2613,10 +2612,10 @@
       <c r="A40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="1">
-        <v>2033</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="C40" s="11">
+        <v>3033</v>
+      </c>
+      <c r="D40" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2624,10 +2623,10 @@
       <c r="A41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="1">
-        <v>2034</v>
-      </c>
-      <c r="D41" s="14">
+      <c r="C41" s="11">
+        <v>3034</v>
+      </c>
+      <c r="D41" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2635,10 +2634,10 @@
       <c r="A42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="1">
-        <v>2035</v>
-      </c>
-      <c r="D42" s="14">
+      <c r="C42" s="11">
+        <v>3035</v>
+      </c>
+      <c r="D42" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2646,8 +2645,8 @@
       <c r="A43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="1">
-        <v>2036</v>
+      <c r="C43" s="11">
+        <v>3036</v>
       </c>
       <c r="D43" s="12">
         <v>0</v>
@@ -2657,10 +2656,10 @@
       <c r="A44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="1">
-        <v>2037</v>
-      </c>
-      <c r="D44" s="14">
+      <c r="C44" s="11">
+        <v>3037</v>
+      </c>
+      <c r="D44" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2668,10 +2667,10 @@
       <c r="A45" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="1">
-        <v>2038</v>
-      </c>
-      <c r="D45" s="14">
+      <c r="C45" s="11">
+        <v>3038</v>
+      </c>
+      <c r="D45" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2679,10 +2678,10 @@
       <c r="A46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="1">
-        <v>2039</v>
-      </c>
-      <c r="D46" s="14">
+      <c r="C46" s="11">
+        <v>3039</v>
+      </c>
+      <c r="D46" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2690,10 +2689,10 @@
       <c r="A47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="1">
-        <v>2040</v>
-      </c>
-      <c r="D47" s="14">
+      <c r="C47" s="11">
+        <v>3040</v>
+      </c>
+      <c r="D47" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2701,10 +2700,10 @@
       <c r="A48" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="1">
-        <v>2041</v>
-      </c>
-      <c r="D48" s="14">
+      <c r="C48" s="11">
+        <v>3041</v>
+      </c>
+      <c r="D48" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2712,8 +2711,8 @@
       <c r="A49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="1">
-        <v>2042</v>
+      <c r="C49" s="11">
+        <v>3042</v>
       </c>
       <c r="D49" s="12">
         <v>0</v>
@@ -2723,10 +2722,10 @@
       <c r="A50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="1">
-        <v>2043</v>
-      </c>
-      <c r="D50" s="14">
+      <c r="C50" s="11">
+        <v>3043</v>
+      </c>
+      <c r="D50" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2734,10 +2733,10 @@
       <c r="A51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="1">
-        <v>2044</v>
-      </c>
-      <c r="D51" s="14">
+      <c r="C51" s="11">
+        <v>3044</v>
+      </c>
+      <c r="D51" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2745,10 +2744,10 @@
       <c r="A52" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="1">
-        <v>2045</v>
-      </c>
-      <c r="D52" s="14">
+      <c r="C52" s="11">
+        <v>3045</v>
+      </c>
+      <c r="D52" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2756,10 +2755,10 @@
       <c r="A53" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="1">
-        <v>2046</v>
-      </c>
-      <c r="D53" s="14">
+      <c r="C53" s="11">
+        <v>3046</v>
+      </c>
+      <c r="D53" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2767,10 +2766,10 @@
       <c r="A54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="1">
-        <v>2047</v>
-      </c>
-      <c r="D54" s="14">
+      <c r="C54" s="11">
+        <v>3047</v>
+      </c>
+      <c r="D54" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2778,8 +2777,8 @@
       <c r="A55" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="1">
-        <v>2048</v>
+      <c r="C55" s="11">
+        <v>3048</v>
       </c>
       <c r="D55" s="12">
         <v>0</v>
@@ -2789,10 +2788,10 @@
       <c r="A56" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="1">
-        <v>2049</v>
-      </c>
-      <c r="D56" s="14">
+      <c r="C56" s="11">
+        <v>3049</v>
+      </c>
+      <c r="D56" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2800,10 +2799,10 @@
       <c r="A57" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="1">
-        <v>2050</v>
-      </c>
-      <c r="D57" s="14">
+      <c r="C57" s="11">
+        <v>3050</v>
+      </c>
+      <c r="D57" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2811,10 +2810,10 @@
       <c r="A58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="1">
-        <v>2051</v>
-      </c>
-      <c r="D58" s="14">
+      <c r="C58" s="11">
+        <v>3051</v>
+      </c>
+      <c r="D58" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2822,10 +2821,10 @@
       <c r="A59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="1">
-        <v>2052</v>
-      </c>
-      <c r="D59" s="14">
+      <c r="C59" s="11">
+        <v>3052</v>
+      </c>
+      <c r="D59" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2833,10 +2832,10 @@
       <c r="A60" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="1">
-        <v>2053</v>
-      </c>
-      <c r="D60" s="14">
+      <c r="C60" s="11">
+        <v>3053</v>
+      </c>
+      <c r="D60" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2844,8 +2843,8 @@
       <c r="A61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="1">
-        <v>2054</v>
+      <c r="C61" s="11">
+        <v>3054</v>
       </c>
       <c r="D61" s="12">
         <v>0</v>
@@ -2855,10 +2854,10 @@
       <c r="A62" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="1">
-        <v>2055</v>
-      </c>
-      <c r="D62" s="14">
+      <c r="C62" s="11">
+        <v>3055</v>
+      </c>
+      <c r="D62" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2866,10 +2865,10 @@
       <c r="A63" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="1">
-        <v>2056</v>
-      </c>
-      <c r="D63" s="14">
+      <c r="C63" s="11">
+        <v>3056</v>
+      </c>
+      <c r="D63" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2877,10 +2876,10 @@
       <c r="A64" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="1">
-        <v>2057</v>
-      </c>
-      <c r="D64" s="14">
+      <c r="C64" s="11">
+        <v>3057</v>
+      </c>
+      <c r="D64" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2888,10 +2887,10 @@
       <c r="A65" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="1">
-        <v>2058</v>
-      </c>
-      <c r="D65" s="14">
+      <c r="C65" s="11">
+        <v>3058</v>
+      </c>
+      <c r="D65" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2899,10 +2898,10 @@
       <c r="A66" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="1">
-        <v>2059</v>
-      </c>
-      <c r="D66" s="14">
+      <c r="C66" s="11">
+        <v>3059</v>
+      </c>
+      <c r="D66" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2910,8 +2909,8 @@
       <c r="A67" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="1">
-        <v>2060</v>
+      <c r="C67" s="11">
+        <v>3060</v>
       </c>
       <c r="D67" s="12">
         <v>0</v>
@@ -2921,10 +2920,10 @@
       <c r="A68" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="1">
-        <v>2061</v>
-      </c>
-      <c r="D68" s="14">
+      <c r="C68" s="11">
+        <v>3061</v>
+      </c>
+      <c r="D68" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2932,10 +2931,10 @@
       <c r="A69" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="1">
-        <v>2062</v>
-      </c>
-      <c r="D69" s="14">
+      <c r="C69" s="11">
+        <v>3062</v>
+      </c>
+      <c r="D69" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2943,10 +2942,10 @@
       <c r="A70" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="1">
-        <v>2063</v>
-      </c>
-      <c r="D70" s="14">
+      <c r="C70" s="11">
+        <v>3063</v>
+      </c>
+      <c r="D70" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2954,10 +2953,10 @@
       <c r="A71" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="1">
-        <v>2064</v>
-      </c>
-      <c r="D71" s="14">
+      <c r="C71" s="11">
+        <v>3064</v>
+      </c>
+      <c r="D71" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2965,10 +2964,10 @@
       <c r="A72" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="1">
-        <v>2065</v>
-      </c>
-      <c r="D72" s="14">
+      <c r="C72" s="11">
+        <v>3065</v>
+      </c>
+      <c r="D72" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2976,8 +2975,8 @@
       <c r="A73" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="1">
-        <v>2066</v>
+      <c r="C73" s="11">
+        <v>3066</v>
       </c>
       <c r="D73" s="12">
         <v>0</v>
@@ -2987,10 +2986,10 @@
       <c r="A74" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="1">
-        <v>2067</v>
-      </c>
-      <c r="D74" s="14">
+      <c r="C74" s="11">
+        <v>3067</v>
+      </c>
+      <c r="D74" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2998,10 +2997,10 @@
       <c r="A75" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="1">
-        <v>2068</v>
-      </c>
-      <c r="D75" s="14">
+      <c r="C75" s="11">
+        <v>3068</v>
+      </c>
+      <c r="D75" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3009,10 +3008,10 @@
       <c r="A76" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="1">
-        <v>2069</v>
-      </c>
-      <c r="D76" s="14">
+      <c r="C76" s="11">
+        <v>3069</v>
+      </c>
+      <c r="D76" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3020,10 +3019,10 @@
       <c r="A77" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="1">
-        <v>2070</v>
-      </c>
-      <c r="D77" s="14">
+      <c r="C77" s="11">
+        <v>3070</v>
+      </c>
+      <c r="D77" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3031,10 +3030,10 @@
       <c r="A78" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="1">
-        <v>2071</v>
-      </c>
-      <c r="D78" s="14">
+      <c r="C78" s="11">
+        <v>3071</v>
+      </c>
+      <c r="D78" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3042,8 +3041,8 @@
       <c r="A79" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="1">
-        <v>2072</v>
+      <c r="C79" s="11">
+        <v>3072</v>
       </c>
       <c r="D79" s="12">
         <v>0</v>
@@ -3053,10 +3052,10 @@
       <c r="A80" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="1">
-        <v>2073</v>
-      </c>
-      <c r="D80" s="14">
+      <c r="C80" s="11">
+        <v>3073</v>
+      </c>
+      <c r="D80" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3064,10 +3063,10 @@
       <c r="A81" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="1">
-        <v>2074</v>
-      </c>
-      <c r="D81" s="14">
+      <c r="C81" s="11">
+        <v>3074</v>
+      </c>
+      <c r="D81" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3075,10 +3074,10 @@
       <c r="A82" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="1">
-        <v>2075</v>
-      </c>
-      <c r="D82" s="14">
+      <c r="C82" s="11">
+        <v>3075</v>
+      </c>
+      <c r="D82" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3086,10 +3085,10 @@
       <c r="A83" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="1">
-        <v>2076</v>
-      </c>
-      <c r="D83" s="14">
+      <c r="C83" s="11">
+        <v>3076</v>
+      </c>
+      <c r="D83" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3097,10 +3096,10 @@
       <c r="A84" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="1">
-        <v>2077</v>
-      </c>
-      <c r="D84" s="14">
+      <c r="C84" s="11">
+        <v>3077</v>
+      </c>
+      <c r="D84" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3108,8 +3107,8 @@
       <c r="A85" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="1">
-        <v>2078</v>
+      <c r="C85" s="11">
+        <v>3078</v>
       </c>
       <c r="D85" s="12">
         <v>0</v>
@@ -3119,10 +3118,10 @@
       <c r="A86" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="1">
-        <v>2079</v>
-      </c>
-      <c r="D86" s="14">
+      <c r="C86" s="11">
+        <v>3079</v>
+      </c>
+      <c r="D86" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3130,10 +3129,10 @@
       <c r="A87" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="1">
-        <v>2080</v>
-      </c>
-      <c r="D87" s="14">
+      <c r="C87" s="11">
+        <v>3080</v>
+      </c>
+      <c r="D87" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3141,10 +3140,10 @@
       <c r="A88" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="1">
-        <v>2081</v>
-      </c>
-      <c r="D88" s="14">
+      <c r="C88" s="11">
+        <v>3081</v>
+      </c>
+      <c r="D88" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3152,10 +3151,10 @@
       <c r="A89" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="1">
-        <v>2082</v>
-      </c>
-      <c r="D89" s="14">
+      <c r="C89" s="11">
+        <v>3082</v>
+      </c>
+      <c r="D89" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3163,10 +3162,10 @@
       <c r="A90" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="1">
-        <v>2083</v>
-      </c>
-      <c r="D90" s="14">
+      <c r="C90" s="11">
+        <v>3083</v>
+      </c>
+      <c r="D90" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3174,8 +3173,8 @@
       <c r="A91" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="1">
-        <v>2084</v>
+      <c r="C91" s="11">
+        <v>3084</v>
       </c>
       <c r="D91" s="12">
         <v>0</v>
@@ -3185,10 +3184,10 @@
       <c r="A92" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="1">
-        <v>2085</v>
-      </c>
-      <c r="D92" s="14">
+      <c r="C92" s="11">
+        <v>3085</v>
+      </c>
+      <c r="D92" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3196,10 +3195,10 @@
       <c r="A93" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="1">
-        <v>2086</v>
-      </c>
-      <c r="D93" s="14">
+      <c r="C93" s="11">
+        <v>3086</v>
+      </c>
+      <c r="D93" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3207,10 +3206,10 @@
       <c r="A94" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="1">
-        <v>2087</v>
-      </c>
-      <c r="D94" s="14">
+      <c r="C94" s="11">
+        <v>3087</v>
+      </c>
+      <c r="D94" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3218,10 +3217,10 @@
       <c r="A95" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="1">
-        <v>2088</v>
-      </c>
-      <c r="D95" s="14">
+      <c r="C95" s="11">
+        <v>3088</v>
+      </c>
+      <c r="D95" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3229,10 +3228,10 @@
       <c r="A96" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="1">
-        <v>2089</v>
-      </c>
-      <c r="D96" s="14">
+      <c r="C96" s="11">
+        <v>3089</v>
+      </c>
+      <c r="D96" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3240,8 +3239,8 @@
       <c r="A97" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="1">
-        <v>2090</v>
+      <c r="C97" s="11">
+        <v>3090</v>
       </c>
       <c r="D97" s="12">
         <v>0</v>
@@ -3251,10 +3250,10 @@
       <c r="A98" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="1">
-        <v>2091</v>
-      </c>
-      <c r="D98" s="14">
+      <c r="C98" s="11">
+        <v>3091</v>
+      </c>
+      <c r="D98" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3262,10 +3261,10 @@
       <c r="A99" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="1">
-        <v>2092</v>
-      </c>
-      <c r="D99" s="14">
+      <c r="C99" s="11">
+        <v>3092</v>
+      </c>
+      <c r="D99" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3273,10 +3272,10 @@
       <c r="A100" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="1">
-        <v>2093</v>
-      </c>
-      <c r="D100" s="14">
+      <c r="C100" s="11">
+        <v>3093</v>
+      </c>
+      <c r="D100" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3284,10 +3283,10 @@
       <c r="A101" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="1">
-        <v>2094</v>
-      </c>
-      <c r="D101" s="14">
+      <c r="C101" s="11">
+        <v>3094</v>
+      </c>
+      <c r="D101" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3295,10 +3294,10 @@
       <c r="A102" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="1">
-        <v>2095</v>
-      </c>
-      <c r="D102" s="14">
+      <c r="C102" s="11">
+        <v>3095</v>
+      </c>
+      <c r="D102" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3306,8 +3305,8 @@
       <c r="A103" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="1">
-        <v>2096</v>
+      <c r="C103" s="11">
+        <v>3096</v>
       </c>
       <c r="D103" s="12">
         <v>0</v>
@@ -3317,10 +3316,10 @@
       <c r="A104" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="1">
-        <v>2097</v>
-      </c>
-      <c r="D104" s="14">
+      <c r="C104" s="11">
+        <v>3097</v>
+      </c>
+      <c r="D104" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3328,10 +3327,10 @@
       <c r="A105" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="1">
-        <v>2098</v>
-      </c>
-      <c r="D105" s="14">
+      <c r="C105" s="11">
+        <v>3098</v>
+      </c>
+      <c r="D105" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3339,10 +3338,10 @@
       <c r="A106" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C106" s="1">
-        <v>2099</v>
-      </c>
-      <c r="D106" s="14">
+      <c r="C106" s="11">
+        <v>3099</v>
+      </c>
+      <c r="D106" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3350,10 +3349,10 @@
       <c r="A107" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="1">
-        <v>2100</v>
-      </c>
-      <c r="D107" s="14">
+      <c r="C107" s="11">
+        <v>3100</v>
+      </c>
+      <c r="D107" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3361,10 +3360,10 @@
       <c r="A108" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="1">
-        <v>2101</v>
-      </c>
-      <c r="D108" s="14">
+      <c r="C108" s="11">
+        <v>3101</v>
+      </c>
+      <c r="D108" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3372,8 +3371,8 @@
       <c r="A109" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="1">
-        <v>2102</v>
+      <c r="C109" s="11">
+        <v>3102</v>
       </c>
       <c r="D109" s="12">
         <v>0</v>
@@ -3383,10 +3382,10 @@
       <c r="A110" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C110" s="1">
-        <v>2103</v>
-      </c>
-      <c r="D110" s="14">
+      <c r="C110" s="11">
+        <v>3103</v>
+      </c>
+      <c r="D110" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3394,10 +3393,10 @@
       <c r="A111" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="1">
-        <v>2104</v>
-      </c>
-      <c r="D111" s="14">
+      <c r="C111" s="11">
+        <v>3104</v>
+      </c>
+      <c r="D111" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3405,10 +3404,10 @@
       <c r="A112" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="1">
-        <v>2105</v>
-      </c>
-      <c r="D112" s="14">
+      <c r="C112" s="11">
+        <v>3105</v>
+      </c>
+      <c r="D112" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3416,10 +3415,10 @@
       <c r="A113" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="1">
-        <v>2106</v>
-      </c>
-      <c r="D113" s="14">
+      <c r="C113" s="11">
+        <v>3106</v>
+      </c>
+      <c r="D113" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3427,10 +3426,10 @@
       <c r="A114" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C114" s="1">
-        <v>2107</v>
-      </c>
-      <c r="D114" s="14">
+      <c r="C114" s="11">
+        <v>3107</v>
+      </c>
+      <c r="D114" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3438,8 +3437,8 @@
       <c r="A115" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="1">
-        <v>2108</v>
+      <c r="C115" s="11">
+        <v>3108</v>
       </c>
       <c r="D115" s="12">
         <v>0</v>
@@ -3449,10 +3448,10 @@
       <c r="A116" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="1">
-        <v>2109</v>
-      </c>
-      <c r="D116" s="14">
+      <c r="C116" s="11">
+        <v>3109</v>
+      </c>
+      <c r="D116" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3460,10 +3459,10 @@
       <c r="A117" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C117" s="1">
-        <v>2110</v>
-      </c>
-      <c r="D117" s="14">
+      <c r="C117" s="11">
+        <v>3110</v>
+      </c>
+      <c r="D117" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3471,10 +3470,10 @@
       <c r="A118" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C118" s="1">
-        <v>2111</v>
-      </c>
-      <c r="D118" s="14">
+      <c r="C118" s="11">
+        <v>3111</v>
+      </c>
+      <c r="D118" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3482,10 +3481,10 @@
       <c r="A119" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="1">
-        <v>2112</v>
-      </c>
-      <c r="D119" s="14">
+      <c r="C119" s="11">
+        <v>3112</v>
+      </c>
+      <c r="D119" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3493,10 +3492,10 @@
       <c r="A120" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="1">
-        <v>2113</v>
-      </c>
-      <c r="D120" s="14">
+      <c r="C120" s="11">
+        <v>3113</v>
+      </c>
+      <c r="D120" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3504,8 +3503,8 @@
       <c r="A121" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C121" s="1">
-        <v>2114</v>
+      <c r="C121" s="11">
+        <v>3114</v>
       </c>
       <c r="D121" s="12">
         <v>0</v>
@@ -3515,10 +3514,10 @@
       <c r="A122" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="1">
-        <v>2115</v>
-      </c>
-      <c r="D122" s="14">
+      <c r="C122" s="11">
+        <v>3115</v>
+      </c>
+      <c r="D122" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3526,10 +3525,10 @@
       <c r="A123" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="1">
-        <v>2116</v>
-      </c>
-      <c r="D123" s="14">
+      <c r="C123" s="11">
+        <v>3116</v>
+      </c>
+      <c r="D123" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3537,10 +3536,10 @@
       <c r="A124" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C124" s="1">
-        <v>2117</v>
-      </c>
-      <c r="D124" s="14">
+      <c r="C124" s="11">
+        <v>3117</v>
+      </c>
+      <c r="D124" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3548,10 +3547,10 @@
       <c r="A125" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C125" s="1">
-        <v>2118</v>
-      </c>
-      <c r="D125" s="14">
+      <c r="C125" s="11">
+        <v>3118</v>
+      </c>
+      <c r="D125" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3559,10 +3558,10 @@
       <c r="A126" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C126" s="1">
-        <v>2119</v>
-      </c>
-      <c r="D126" s="14">
+      <c r="C126" s="11">
+        <v>3119</v>
+      </c>
+      <c r="D126" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3570,8 +3569,8 @@
       <c r="A127" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C127" s="1">
-        <v>2120</v>
+      <c r="C127" s="11">
+        <v>3120</v>
       </c>
       <c r="D127" s="12">
         <v>0</v>
@@ -3581,10 +3580,10 @@
       <c r="A128" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="1">
-        <v>2121</v>
-      </c>
-      <c r="D128" s="14">
+      <c r="C128" s="11">
+        <v>3121</v>
+      </c>
+      <c r="D128" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3592,10 +3591,10 @@
       <c r="A129" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C129" s="1">
-        <v>2122</v>
-      </c>
-      <c r="D129" s="14">
+      <c r="C129" s="11">
+        <v>3122</v>
+      </c>
+      <c r="D129" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3603,10 +3602,10 @@
       <c r="A130" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C130" s="1">
-        <v>2123</v>
-      </c>
-      <c r="D130" s="14">
+      <c r="C130" s="11">
+        <v>3123</v>
+      </c>
+      <c r="D130" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3614,10 +3613,10 @@
       <c r="A131" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C131" s="1">
-        <v>2124</v>
-      </c>
-      <c r="D131" s="14">
+      <c r="C131" s="11">
+        <v>3124</v>
+      </c>
+      <c r="D131" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3625,10 +3624,10 @@
       <c r="A132" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="1">
-        <v>2125</v>
-      </c>
-      <c r="D132" s="14">
+      <c r="C132" s="11">
+        <v>3125</v>
+      </c>
+      <c r="D132" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3636,8 +3635,8 @@
       <c r="A133" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C133" s="1">
-        <v>2126</v>
+      <c r="C133" s="11">
+        <v>3126</v>
       </c>
       <c r="D133" s="12">
         <v>0</v>
@@ -3647,10 +3646,10 @@
       <c r="A134" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C134" s="1">
-        <v>2127</v>
-      </c>
-      <c r="D134" s="14">
+      <c r="C134" s="11">
+        <v>3127</v>
+      </c>
+      <c r="D134" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3658,10 +3657,10 @@
       <c r="A135" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C135" s="1">
-        <v>2128</v>
-      </c>
-      <c r="D135" s="14">
+      <c r="C135" s="11">
+        <v>3128</v>
+      </c>
+      <c r="D135" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3669,10 +3668,10 @@
       <c r="A136" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C136" s="1">
-        <v>2129</v>
-      </c>
-      <c r="D136" s="14">
+      <c r="C136" s="11">
+        <v>3129</v>
+      </c>
+      <c r="D136" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3680,10 +3679,10 @@
       <c r="A137" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C137" s="1">
-        <v>2130</v>
-      </c>
-      <c r="D137" s="14">
+      <c r="C137" s="11">
+        <v>3130</v>
+      </c>
+      <c r="D137" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3691,10 +3690,10 @@
       <c r="A138" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C138" s="1">
-        <v>2131</v>
-      </c>
-      <c r="D138" s="14">
+      <c r="C138" s="11">
+        <v>3131</v>
+      </c>
+      <c r="D138" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3702,8 +3701,8 @@
       <c r="A139" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C139" s="1">
-        <v>2132</v>
+      <c r="C139" s="11">
+        <v>3132</v>
       </c>
       <c r="D139" s="12">
         <v>0</v>
@@ -3713,10 +3712,10 @@
       <c r="A140" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C140" s="1">
-        <v>2133</v>
-      </c>
-      <c r="D140" s="14">
+      <c r="C140" s="11">
+        <v>3133</v>
+      </c>
+      <c r="D140" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3724,10 +3723,10 @@
       <c r="A141" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C141" s="1">
-        <v>2134</v>
-      </c>
-      <c r="D141" s="14">
+      <c r="C141" s="11">
+        <v>3134</v>
+      </c>
+      <c r="D141" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3735,10 +3734,10 @@
       <c r="A142" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C142" s="1">
-        <v>2135</v>
-      </c>
-      <c r="D142" s="14">
+      <c r="C142" s="11">
+        <v>3135</v>
+      </c>
+      <c r="D142" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3746,10 +3745,10 @@
       <c r="A143" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C143" s="1">
-        <v>2136</v>
-      </c>
-      <c r="D143" s="14">
+      <c r="C143" s="11">
+        <v>3136</v>
+      </c>
+      <c r="D143" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3757,10 +3756,10 @@
       <c r="A144" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C144" s="1">
-        <v>2137</v>
-      </c>
-      <c r="D144" s="14">
+      <c r="C144" s="11">
+        <v>3137</v>
+      </c>
+      <c r="D144" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3768,8 +3767,8 @@
       <c r="A145" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C145" s="1">
-        <v>2138</v>
+      <c r="C145" s="11">
+        <v>3138</v>
       </c>
       <c r="D145" s="12">
         <v>0</v>
@@ -3779,10 +3778,10 @@
       <c r="A146" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C146" s="1">
-        <v>2139</v>
-      </c>
-      <c r="D146" s="14">
+      <c r="C146" s="11">
+        <v>3139</v>
+      </c>
+      <c r="D146" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3790,10 +3789,10 @@
       <c r="A147" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C147" s="1">
-        <v>2140</v>
-      </c>
-      <c r="D147" s="14">
+      <c r="C147" s="11">
+        <v>3140</v>
+      </c>
+      <c r="D147" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3801,10 +3800,10 @@
       <c r="A148" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C148" s="1">
-        <v>2141</v>
-      </c>
-      <c r="D148" s="14">
+      <c r="C148" s="11">
+        <v>3141</v>
+      </c>
+      <c r="D148" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3812,10 +3811,10 @@
       <c r="A149" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C149" s="1">
-        <v>2142</v>
-      </c>
-      <c r="D149" s="14">
+      <c r="C149" s="11">
+        <v>3142</v>
+      </c>
+      <c r="D149" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3823,10 +3822,10 @@
       <c r="A150" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C150" s="1">
-        <v>2143</v>
-      </c>
-      <c r="D150" s="14">
+      <c r="C150" s="11">
+        <v>3143</v>
+      </c>
+      <c r="D150" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3834,8 +3833,8 @@
       <c r="A151" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C151" s="1">
-        <v>2144</v>
+      <c r="C151" s="11">
+        <v>3144</v>
       </c>
       <c r="D151" s="12">
         <v>0</v>
@@ -3845,10 +3844,10 @@
       <c r="A152" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C152" s="1">
-        <v>2145</v>
-      </c>
-      <c r="D152" s="14">
+      <c r="C152" s="11">
+        <v>3145</v>
+      </c>
+      <c r="D152" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3856,10 +3855,10 @@
       <c r="A153" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C153" s="1">
-        <v>2146</v>
-      </c>
-      <c r="D153" s="14">
+      <c r="C153" s="11">
+        <v>3146</v>
+      </c>
+      <c r="D153" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3867,10 +3866,10 @@
       <c r="A154" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C154" s="1">
-        <v>2147</v>
-      </c>
-      <c r="D154" s="14">
+      <c r="C154" s="11">
+        <v>3147</v>
+      </c>
+      <c r="D154" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3878,10 +3877,10 @@
       <c r="A155" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C155" s="1">
-        <v>2148</v>
-      </c>
-      <c r="D155" s="14">
+      <c r="C155" s="11">
+        <v>3148</v>
+      </c>
+      <c r="D155" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3889,10 +3888,10 @@
       <c r="A156" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C156" s="1">
-        <v>2149</v>
-      </c>
-      <c r="D156" s="14">
+      <c r="C156" s="11">
+        <v>3149</v>
+      </c>
+      <c r="D156" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3900,8 +3899,8 @@
       <c r="A157" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C157" s="1">
-        <v>2150</v>
+      <c r="C157" s="11">
+        <v>3150</v>
       </c>
       <c r="D157" s="12">
         <v>0</v>
@@ -3911,10 +3910,10 @@
       <c r="A158" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C158" s="1">
-        <v>2151</v>
-      </c>
-      <c r="D158" s="14">
+      <c r="C158" s="11">
+        <v>3151</v>
+      </c>
+      <c r="D158" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3922,10 +3921,10 @@
       <c r="A159" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C159" s="1">
-        <v>2152</v>
-      </c>
-      <c r="D159" s="14">
+      <c r="C159" s="11">
+        <v>3152</v>
+      </c>
+      <c r="D159" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3933,10 +3932,10 @@
       <c r="A160" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C160" s="1">
-        <v>2153</v>
-      </c>
-      <c r="D160" s="14">
+      <c r="C160" s="11">
+        <v>3153</v>
+      </c>
+      <c r="D160" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3944,10 +3943,10 @@
       <c r="A161" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C161" s="1">
-        <v>2154</v>
-      </c>
-      <c r="D161" s="14">
+      <c r="C161" s="11">
+        <v>3154</v>
+      </c>
+      <c r="D161" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3955,10 +3954,10 @@
       <c r="A162" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C162" s="1">
-        <v>2155</v>
-      </c>
-      <c r="D162" s="14">
+      <c r="C162" s="11">
+        <v>3155</v>
+      </c>
+      <c r="D162" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3966,8 +3965,8 @@
       <c r="A163" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C163" s="1">
-        <v>2156</v>
+      <c r="C163" s="11">
+        <v>3156</v>
       </c>
       <c r="D163" s="12">
         <v>0</v>
@@ -3977,10 +3976,10 @@
       <c r="A164" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C164" s="1">
-        <v>2157</v>
-      </c>
-      <c r="D164" s="14">
+      <c r="C164" s="11">
+        <v>3157</v>
+      </c>
+      <c r="D164" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3988,10 +3987,10 @@
       <c r="A165" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C165" s="1">
-        <v>2158</v>
-      </c>
-      <c r="D165" s="14">
+      <c r="C165" s="11">
+        <v>3158</v>
+      </c>
+      <c r="D165" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3999,10 +3998,10 @@
       <c r="A166" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C166" s="1">
-        <v>2159</v>
-      </c>
-      <c r="D166" s="14">
+      <c r="C166" s="11">
+        <v>3159</v>
+      </c>
+      <c r="D166" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4010,10 +4009,10 @@
       <c r="A167" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C167" s="1">
-        <v>2160</v>
-      </c>
-      <c r="D167" s="14">
+      <c r="C167" s="11">
+        <v>3160</v>
+      </c>
+      <c r="D167" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4021,10 +4020,10 @@
       <c r="A168" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C168" s="1">
-        <v>2161</v>
-      </c>
-      <c r="D168" s="14">
+      <c r="C168" s="11">
+        <v>3161</v>
+      </c>
+      <c r="D168" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4032,8 +4031,8 @@
       <c r="A169" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C169" s="1">
-        <v>2162</v>
+      <c r="C169" s="11">
+        <v>3162</v>
       </c>
       <c r="D169" s="12">
         <v>0</v>
@@ -4043,10 +4042,10 @@
       <c r="A170" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C170" s="1">
-        <v>2163</v>
-      </c>
-      <c r="D170" s="14">
+      <c r="C170" s="11">
+        <v>3163</v>
+      </c>
+      <c r="D170" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4054,10 +4053,10 @@
       <c r="A171" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C171" s="1">
-        <v>2164</v>
-      </c>
-      <c r="D171" s="14">
+      <c r="C171" s="11">
+        <v>3164</v>
+      </c>
+      <c r="D171" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4065,10 +4064,10 @@
       <c r="A172" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C172" s="1">
-        <v>2165</v>
-      </c>
-      <c r="D172" s="14">
+      <c r="C172" s="11">
+        <v>3165</v>
+      </c>
+      <c r="D172" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4076,10 +4075,10 @@
       <c r="A173" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C173" s="1">
-        <v>2166</v>
-      </c>
-      <c r="D173" s="14">
+      <c r="C173" s="11">
+        <v>3166</v>
+      </c>
+      <c r="D173" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4087,10 +4086,10 @@
       <c r="A174" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C174" s="1">
-        <v>2167</v>
-      </c>
-      <c r="D174" s="14">
+      <c r="C174" s="11">
+        <v>3167</v>
+      </c>
+      <c r="D174" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4098,8 +4097,8 @@
       <c r="A175" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C175" s="1">
-        <v>2168</v>
+      <c r="C175" s="11">
+        <v>3168</v>
       </c>
       <c r="D175" s="12">
         <v>0</v>
@@ -4109,10 +4108,10 @@
       <c r="A176" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C176" s="1">
-        <v>2169</v>
-      </c>
-      <c r="D176" s="14">
+      <c r="C176" s="11">
+        <v>3169</v>
+      </c>
+      <c r="D176" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4120,10 +4119,10 @@
       <c r="A177" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C177" s="1">
-        <v>2170</v>
-      </c>
-      <c r="D177" s="14">
+      <c r="C177" s="11">
+        <v>3170</v>
+      </c>
+      <c r="D177" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4131,10 +4130,10 @@
       <c r="A178" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C178" s="1">
-        <v>2171</v>
-      </c>
-      <c r="D178" s="14">
+      <c r="C178" s="11">
+        <v>3171</v>
+      </c>
+      <c r="D178" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4142,10 +4141,10 @@
       <c r="A179" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C179" s="1">
-        <v>2172</v>
-      </c>
-      <c r="D179" s="14">
+      <c r="C179" s="11">
+        <v>3172</v>
+      </c>
+      <c r="D179" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4153,10 +4152,10 @@
       <c r="A180" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C180" s="1">
-        <v>2173</v>
-      </c>
-      <c r="D180" s="14">
+      <c r="C180" s="11">
+        <v>3173</v>
+      </c>
+      <c r="D180" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4164,8 +4163,8 @@
       <c r="A181" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C181" s="1">
-        <v>2174</v>
+      <c r="C181" s="11">
+        <v>3174</v>
       </c>
       <c r="D181" s="12">
         <v>0</v>
@@ -4175,10 +4174,10 @@
       <c r="A182" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C182" s="1">
-        <v>2175</v>
-      </c>
-      <c r="D182" s="14">
+      <c r="C182" s="11">
+        <v>3175</v>
+      </c>
+      <c r="D182" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4186,10 +4185,10 @@
       <c r="A183" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C183" s="1">
-        <v>2176</v>
-      </c>
-      <c r="D183" s="14">
+      <c r="C183" s="11">
+        <v>3176</v>
+      </c>
+      <c r="D183" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4197,10 +4196,10 @@
       <c r="A184" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C184" s="1">
-        <v>2177</v>
-      </c>
-      <c r="D184" s="14">
+      <c r="C184" s="11">
+        <v>3177</v>
+      </c>
+      <c r="D184" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4208,10 +4207,10 @@
       <c r="A185" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C185" s="1">
-        <v>2178</v>
-      </c>
-      <c r="D185" s="14">
+      <c r="C185" s="11">
+        <v>3178</v>
+      </c>
+      <c r="D185" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4219,10 +4218,10 @@
       <c r="A186" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C186" s="1">
-        <v>2179</v>
-      </c>
-      <c r="D186" s="14">
+      <c r="C186" s="11">
+        <v>3179</v>
+      </c>
+      <c r="D186" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4230,8 +4229,8 @@
       <c r="A187" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C187" s="1">
-        <v>2180</v>
+      <c r="C187" s="11">
+        <v>3180</v>
       </c>
       <c r="D187" s="12">
         <v>0</v>
@@ -4241,10 +4240,10 @@
       <c r="A188" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C188" s="1">
-        <v>2181</v>
-      </c>
-      <c r="D188" s="14">
+      <c r="C188" s="11">
+        <v>3181</v>
+      </c>
+      <c r="D188" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4252,10 +4251,10 @@
       <c r="A189" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C189" s="1">
-        <v>2182</v>
-      </c>
-      <c r="D189" s="14">
+      <c r="C189" s="11">
+        <v>3182</v>
+      </c>
+      <c r="D189" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4263,10 +4262,10 @@
       <c r="A190" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C190" s="1">
-        <v>2183</v>
-      </c>
-      <c r="D190" s="14">
+      <c r="C190" s="11">
+        <v>3183</v>
+      </c>
+      <c r="D190" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4274,10 +4273,10 @@
       <c r="A191" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C191" s="1">
-        <v>2184</v>
-      </c>
-      <c r="D191" s="14">
+      <c r="C191" s="11">
+        <v>3184</v>
+      </c>
+      <c r="D191" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4285,10 +4284,10 @@
       <c r="A192" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C192" s="1">
-        <v>2185</v>
-      </c>
-      <c r="D192" s="14">
+      <c r="C192" s="11">
+        <v>3185</v>
+      </c>
+      <c r="D192" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4296,8 +4295,8 @@
       <c r="A193" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C193" s="1">
-        <v>2186</v>
+      <c r="C193" s="11">
+        <v>3186</v>
       </c>
       <c r="D193" s="12">
         <v>0</v>
@@ -4307,10 +4306,10 @@
       <c r="A194" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C194" s="1">
-        <v>2187</v>
-      </c>
-      <c r="D194" s="14">
+      <c r="C194" s="11">
+        <v>3187</v>
+      </c>
+      <c r="D194" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4318,10 +4317,10 @@
       <c r="A195" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C195" s="1">
-        <v>2188</v>
-      </c>
-      <c r="D195" s="14">
+      <c r="C195" s="11">
+        <v>3188</v>
+      </c>
+      <c r="D195" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4329,10 +4328,10 @@
       <c r="A196" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="1">
-        <v>2189</v>
-      </c>
-      <c r="D196" s="14">
+      <c r="C196" s="11">
+        <v>3189</v>
+      </c>
+      <c r="D196" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4340,10 +4339,10 @@
       <c r="A197" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C197" s="1">
-        <v>2190</v>
-      </c>
-      <c r="D197" s="14">
+      <c r="C197" s="11">
+        <v>3190</v>
+      </c>
+      <c r="D197" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4351,10 +4350,10 @@
       <c r="A198" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C198" s="1">
-        <v>2191</v>
-      </c>
-      <c r="D198" s="14">
+      <c r="C198" s="11">
+        <v>3191</v>
+      </c>
+      <c r="D198" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4362,8 +4361,8 @@
       <c r="A199" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C199" s="1">
-        <v>2192</v>
+      <c r="C199" s="11">
+        <v>3192</v>
       </c>
       <c r="D199" s="12">
         <v>0</v>
@@ -4373,10 +4372,10 @@
       <c r="A200" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C200" s="1">
-        <v>2193</v>
-      </c>
-      <c r="D200" s="14">
+      <c r="C200" s="11">
+        <v>3193</v>
+      </c>
+      <c r="D200" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4384,10 +4383,10 @@
       <c r="A201" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C201" s="1">
-        <v>2194</v>
-      </c>
-      <c r="D201" s="14">
+      <c r="C201" s="11">
+        <v>3194</v>
+      </c>
+      <c r="D201" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4395,10 +4394,10 @@
       <c r="A202" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C202" s="1">
-        <v>2195</v>
-      </c>
-      <c r="D202" s="14">
+      <c r="C202" s="11">
+        <v>3195</v>
+      </c>
+      <c r="D202" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4406,10 +4405,10 @@
       <c r="A203" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C203" s="1">
-        <v>2196</v>
-      </c>
-      <c r="D203" s="14">
+      <c r="C203" s="11">
+        <v>3196</v>
+      </c>
+      <c r="D203" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4417,10 +4416,10 @@
       <c r="A204" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C204" s="1">
-        <v>2197</v>
-      </c>
-      <c r="D204" s="14">
+      <c r="C204" s="11">
+        <v>3197</v>
+      </c>
+      <c r="D204" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4428,8 +4427,8 @@
       <c r="A205" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C205" s="1">
-        <v>2198</v>
+      <c r="C205" s="11">
+        <v>3198</v>
       </c>
       <c r="D205" s="12">
         <v>0</v>
@@ -4439,10 +4438,10 @@
       <c r="A206" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C206" s="1">
-        <v>2199</v>
-      </c>
-      <c r="D206" s="14">
+      <c r="C206" s="11">
+        <v>3199</v>
+      </c>
+      <c r="D206" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4450,10 +4449,10 @@
       <c r="A207" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C207" s="1">
-        <v>2200</v>
-      </c>
-      <c r="D207" s="14">
+      <c r="C207" s="11">
+        <v>3200</v>
+      </c>
+      <c r="D207" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4461,10 +4460,10 @@
       <c r="A208" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C208" s="1">
-        <v>2201</v>
-      </c>
-      <c r="D208" s="14">
+      <c r="C208" s="11">
+        <v>3201</v>
+      </c>
+      <c r="D208" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4472,10 +4471,10 @@
       <c r="A209" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C209" s="1">
-        <v>2202</v>
-      </c>
-      <c r="D209" s="14">
+      <c r="C209" s="11">
+        <v>3202</v>
+      </c>
+      <c r="D209" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4483,10 +4482,10 @@
       <c r="A210" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C210" s="1">
-        <v>2203</v>
-      </c>
-      <c r="D210" s="14">
+      <c r="C210" s="11">
+        <v>3203</v>
+      </c>
+      <c r="D210" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4494,8 +4493,8 @@
       <c r="A211" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C211" s="1">
-        <v>2204</v>
+      <c r="C211" s="11">
+        <v>3204</v>
       </c>
       <c r="D211" s="12">
         <v>0</v>
@@ -4505,10 +4504,10 @@
       <c r="A212" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C212" s="1">
-        <v>2205</v>
-      </c>
-      <c r="D212" s="14">
+      <c r="C212" s="11">
+        <v>3205</v>
+      </c>
+      <c r="D212" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4516,10 +4515,10 @@
       <c r="A213" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C213" s="1">
-        <v>2206</v>
-      </c>
-      <c r="D213" s="14">
+      <c r="C213" s="11">
+        <v>3206</v>
+      </c>
+      <c r="D213" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4527,10 +4526,10 @@
       <c r="A214" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C214" s="1">
-        <v>2207</v>
-      </c>
-      <c r="D214" s="14">
+      <c r="C214" s="11">
+        <v>3207</v>
+      </c>
+      <c r="D214" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4538,10 +4537,10 @@
       <c r="A215" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C215" s="1">
-        <v>2208</v>
-      </c>
-      <c r="D215" s="14">
+      <c r="C215" s="11">
+        <v>3208</v>
+      </c>
+      <c r="D215" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4549,10 +4548,10 @@
       <c r="A216" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C216" s="1">
-        <v>2209</v>
-      </c>
-      <c r="D216" s="14">
+      <c r="C216" s="11">
+        <v>3209</v>
+      </c>
+      <c r="D216" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4560,8 +4559,8 @@
       <c r="A217" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C217" s="1">
-        <v>2210</v>
+      <c r="C217" s="11">
+        <v>3210</v>
       </c>
       <c r="D217" s="12">
         <v>0</v>
@@ -4571,10 +4570,10 @@
       <c r="A218" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C218" s="1">
-        <v>2211</v>
-      </c>
-      <c r="D218" s="14">
+      <c r="C218" s="11">
+        <v>3211</v>
+      </c>
+      <c r="D218" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4582,10 +4581,10 @@
       <c r="A219" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C219" s="1">
-        <v>2212</v>
-      </c>
-      <c r="D219" s="14">
+      <c r="C219" s="11">
+        <v>3212</v>
+      </c>
+      <c r="D219" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4593,10 +4592,10 @@
       <c r="A220" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C220" s="1">
-        <v>2213</v>
-      </c>
-      <c r="D220" s="14">
+      <c r="C220" s="11">
+        <v>3213</v>
+      </c>
+      <c r="D220" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4604,10 +4603,10 @@
       <c r="A221" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C221" s="1">
-        <v>2214</v>
-      </c>
-      <c r="D221" s="14">
+      <c r="C221" s="11">
+        <v>3214</v>
+      </c>
+      <c r="D221" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4615,10 +4614,10 @@
       <c r="A222" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C222" s="1">
-        <v>2215</v>
-      </c>
-      <c r="D222" s="14">
+      <c r="C222" s="11">
+        <v>3215</v>
+      </c>
+      <c r="D222" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4626,8 +4625,8 @@
       <c r="A223" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C223" s="1">
-        <v>2216</v>
+      <c r="C223" s="11">
+        <v>3216</v>
       </c>
       <c r="D223" s="12">
         <v>0</v>
@@ -4637,10 +4636,10 @@
       <c r="A224" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C224" s="1">
-        <v>2217</v>
-      </c>
-      <c r="D224" s="14">
+      <c r="C224" s="11">
+        <v>3217</v>
+      </c>
+      <c r="D224" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4648,10 +4647,10 @@
       <c r="A225" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C225" s="1">
-        <v>2218</v>
-      </c>
-      <c r="D225" s="14">
+      <c r="C225" s="11">
+        <v>3218</v>
+      </c>
+      <c r="D225" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4659,10 +4658,10 @@
       <c r="A226" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C226" s="1">
-        <v>2219</v>
-      </c>
-      <c r="D226" s="14">
+      <c r="C226" s="11">
+        <v>3219</v>
+      </c>
+      <c r="D226" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4670,10 +4669,10 @@
       <c r="A227" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C227" s="1">
-        <v>2220</v>
-      </c>
-      <c r="D227" s="14">
+      <c r="C227" s="11">
+        <v>3220</v>
+      </c>
+      <c r="D227" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4681,10 +4680,10 @@
       <c r="A228" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C228" s="1">
-        <v>2221</v>
-      </c>
-      <c r="D228" s="14">
+      <c r="C228" s="11">
+        <v>3221</v>
+      </c>
+      <c r="D228" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4692,8 +4691,8 @@
       <c r="A229" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C229" s="1">
-        <v>2222</v>
+      <c r="C229" s="11">
+        <v>3222</v>
       </c>
       <c r="D229" s="12">
         <v>0</v>
@@ -4703,10 +4702,10 @@
       <c r="A230" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C230" s="1">
-        <v>2223</v>
-      </c>
-      <c r="D230" s="14">
+      <c r="C230" s="11">
+        <v>3223</v>
+      </c>
+      <c r="D230" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4714,10 +4713,10 @@
       <c r="A231" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C231" s="1">
-        <v>2224</v>
-      </c>
-      <c r="D231" s="14">
+      <c r="C231" s="11">
+        <v>3224</v>
+      </c>
+      <c r="D231" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4725,10 +4724,10 @@
       <c r="A232" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C232" s="1">
-        <v>2225</v>
-      </c>
-      <c r="D232" s="14">
+      <c r="C232" s="11">
+        <v>3225</v>
+      </c>
+      <c r="D232" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4736,10 +4735,10 @@
       <c r="A233" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C233" s="1">
-        <v>2226</v>
-      </c>
-      <c r="D233" s="14">
+      <c r="C233" s="11">
+        <v>3226</v>
+      </c>
+      <c r="D233" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4747,10 +4746,10 @@
       <c r="A234" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C234" s="1">
-        <v>2227</v>
-      </c>
-      <c r="D234" s="14">
+      <c r="C234" s="11">
+        <v>3227</v>
+      </c>
+      <c r="D234" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4758,8 +4757,8 @@
       <c r="A235" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C235" s="1">
-        <v>2228</v>
+      <c r="C235" s="11">
+        <v>3228</v>
       </c>
       <c r="D235" s="12">
         <v>0</v>
@@ -4769,10 +4768,10 @@
       <c r="A236" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C236" s="1">
-        <v>2229</v>
-      </c>
-      <c r="D236" s="14">
+      <c r="C236" s="11">
+        <v>3229</v>
+      </c>
+      <c r="D236" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4780,10 +4779,10 @@
       <c r="A237" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C237" s="1">
-        <v>2230</v>
-      </c>
-      <c r="D237" s="14">
+      <c r="C237" s="11">
+        <v>3230</v>
+      </c>
+      <c r="D237" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4791,10 +4790,10 @@
       <c r="A238" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C238" s="1">
-        <v>2231</v>
-      </c>
-      <c r="D238" s="14">
+      <c r="C238" s="11">
+        <v>3231</v>
+      </c>
+      <c r="D238" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4802,10 +4801,10 @@
       <c r="A239" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C239" s="1">
-        <v>2232</v>
-      </c>
-      <c r="D239" s="14">
+      <c r="C239" s="11">
+        <v>3232</v>
+      </c>
+      <c r="D239" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4813,10 +4812,10 @@
       <c r="A240" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C240" s="1">
-        <v>2233</v>
-      </c>
-      <c r="D240" s="14">
+      <c r="C240" s="11">
+        <v>3233</v>
+      </c>
+      <c r="D240" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4824,8 +4823,8 @@
       <c r="A241" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C241" s="1">
-        <v>2234</v>
+      <c r="C241" s="11">
+        <v>3234</v>
       </c>
       <c r="D241" s="12">
         <v>0</v>
@@ -4835,10 +4834,10 @@
       <c r="A242" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C242" s="1">
-        <v>2235</v>
-      </c>
-      <c r="D242" s="14">
+      <c r="C242" s="11">
+        <v>3235</v>
+      </c>
+      <c r="D242" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4846,10 +4845,10 @@
       <c r="A243" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C243" s="1">
-        <v>2236</v>
-      </c>
-      <c r="D243" s="14">
+      <c r="C243" s="11">
+        <v>3236</v>
+      </c>
+      <c r="D243" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4857,10 +4856,10 @@
       <c r="A244" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C244" s="1">
-        <v>2237</v>
-      </c>
-      <c r="D244" s="14">
+      <c r="C244" s="11">
+        <v>3237</v>
+      </c>
+      <c r="D244" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4868,10 +4867,10 @@
       <c r="A245" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C245" s="1">
-        <v>2238</v>
-      </c>
-      <c r="D245" s="14">
+      <c r="C245" s="11">
+        <v>3238</v>
+      </c>
+      <c r="D245" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4879,10 +4878,10 @@
       <c r="A246" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C246" s="1">
-        <v>2239</v>
-      </c>
-      <c r="D246" s="14">
+      <c r="C246" s="11">
+        <v>3239</v>
+      </c>
+      <c r="D246" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4890,8 +4889,8 @@
       <c r="A247" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C247" s="1">
-        <v>2240</v>
+      <c r="C247" s="11">
+        <v>3240</v>
       </c>
       <c r="D247" s="12">
         <v>0</v>
@@ -4901,10 +4900,10 @@
       <c r="A248" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C248" s="1">
-        <v>2241</v>
-      </c>
-      <c r="D248" s="14">
+      <c r="C248" s="11">
+        <v>3241</v>
+      </c>
+      <c r="D248" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4912,10 +4911,10 @@
       <c r="A249" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C249" s="1">
-        <v>2242</v>
-      </c>
-      <c r="D249" s="14">
+      <c r="C249" s="11">
+        <v>3242</v>
+      </c>
+      <c r="D249" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4923,10 +4922,10 @@
       <c r="A250" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C250" s="1">
-        <v>2243</v>
-      </c>
-      <c r="D250" s="14">
+      <c r="C250" s="11">
+        <v>3243</v>
+      </c>
+      <c r="D250" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4934,10 +4933,10 @@
       <c r="A251" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C251" s="1">
-        <v>2244</v>
-      </c>
-      <c r="D251" s="14">
+      <c r="C251" s="11">
+        <v>3244</v>
+      </c>
+      <c r="D251" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4945,10 +4944,10 @@
       <c r="A252" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C252" s="1">
-        <v>2245</v>
-      </c>
-      <c r="D252" s="14">
+      <c r="C252" s="11">
+        <v>3245</v>
+      </c>
+      <c r="D252" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4956,8 +4955,8 @@
       <c r="A253" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C253" s="1">
-        <v>2246</v>
+      <c r="C253" s="11">
+        <v>3246</v>
       </c>
       <c r="D253" s="12">
         <v>0</v>
@@ -4967,10 +4966,10 @@
       <c r="A254" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C254" s="1">
-        <v>2247</v>
-      </c>
-      <c r="D254" s="14">
+      <c r="C254" s="11">
+        <v>3247</v>
+      </c>
+      <c r="D254" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4978,10 +4977,10 @@
       <c r="A255" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C255" s="1">
-        <v>2248</v>
-      </c>
-      <c r="D255" s="14">
+      <c r="C255" s="11">
+        <v>3248</v>
+      </c>
+      <c r="D255" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4989,10 +4988,10 @@
       <c r="A256" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C256" s="1">
-        <v>2249</v>
-      </c>
-      <c r="D256" s="14">
+      <c r="C256" s="11">
+        <v>3249</v>
+      </c>
+      <c r="D256" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5000,10 +4999,10 @@
       <c r="A257" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C257" s="1">
-        <v>2250</v>
-      </c>
-      <c r="D257" s="14">
+      <c r="C257" s="11">
+        <v>3250</v>
+      </c>
+      <c r="D257" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5011,10 +5010,10 @@
       <c r="A258" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C258" s="1">
-        <v>2251</v>
-      </c>
-      <c r="D258" s="14">
+      <c r="C258" s="11">
+        <v>3251</v>
+      </c>
+      <c r="D258" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5022,8 +5021,8 @@
       <c r="A259" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C259" s="1">
-        <v>2252</v>
+      <c r="C259" s="11">
+        <v>3252</v>
       </c>
       <c r="D259" s="12">
         <v>0</v>
@@ -5033,10 +5032,10 @@
       <c r="A260" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C260" s="1">
-        <v>2253</v>
-      </c>
-      <c r="D260" s="14">
+      <c r="C260" s="11">
+        <v>3253</v>
+      </c>
+      <c r="D260" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5044,10 +5043,10 @@
       <c r="A261" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C261" s="1">
-        <v>2254</v>
-      </c>
-      <c r="D261" s="14">
+      <c r="C261" s="11">
+        <v>3254</v>
+      </c>
+      <c r="D261" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5055,10 +5054,10 @@
       <c r="A262" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C262" s="1">
-        <v>2255</v>
-      </c>
-      <c r="D262" s="14">
+      <c r="C262" s="11">
+        <v>3255</v>
+      </c>
+      <c r="D262" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5066,10 +5065,10 @@
       <c r="A263" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C263" s="1">
-        <v>2256</v>
-      </c>
-      <c r="D263" s="14">
+      <c r="C263" s="11">
+        <v>3256</v>
+      </c>
+      <c r="D263" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5077,10 +5076,10 @@
       <c r="A264" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C264" s="1">
-        <v>2257</v>
-      </c>
-      <c r="D264" s="14">
+      <c r="C264" s="11">
+        <v>3257</v>
+      </c>
+      <c r="D264" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5088,8 +5087,8 @@
       <c r="A265" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C265" s="1">
-        <v>2258</v>
+      <c r="C265" s="11">
+        <v>3258</v>
       </c>
       <c r="D265" s="12">
         <v>0</v>
@@ -5099,10 +5098,10 @@
       <c r="A266" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C266" s="1">
-        <v>2259</v>
-      </c>
-      <c r="D266" s="14">
+      <c r="C266" s="11">
+        <v>3259</v>
+      </c>
+      <c r="D266" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5110,10 +5109,10 @@
       <c r="A267" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C267" s="1">
-        <v>2260</v>
-      </c>
-      <c r="D267" s="14">
+      <c r="C267" s="11">
+        <v>3260</v>
+      </c>
+      <c r="D267" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5121,10 +5120,10 @@
       <c r="A268" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C268" s="1">
-        <v>2261</v>
-      </c>
-      <c r="D268" s="14">
+      <c r="C268" s="11">
+        <v>3261</v>
+      </c>
+      <c r="D268" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5132,10 +5131,10 @@
       <c r="A269" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C269" s="1">
-        <v>2262</v>
-      </c>
-      <c r="D269" s="14">
+      <c r="C269" s="11">
+        <v>3262</v>
+      </c>
+      <c r="D269" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5143,10 +5142,10 @@
       <c r="A270" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C270" s="1">
-        <v>2263</v>
-      </c>
-      <c r="D270" s="14">
+      <c r="C270" s="11">
+        <v>3263</v>
+      </c>
+      <c r="D270" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5154,8 +5153,8 @@
       <c r="A271" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C271" s="1">
-        <v>2264</v>
+      <c r="C271" s="11">
+        <v>3264</v>
       </c>
       <c r="D271" s="12">
         <v>0</v>
@@ -5165,10 +5164,10 @@
       <c r="A272" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C272" s="1">
-        <v>2265</v>
-      </c>
-      <c r="D272" s="14">
+      <c r="C272" s="11">
+        <v>3265</v>
+      </c>
+      <c r="D272" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5176,10 +5175,10 @@
       <c r="A273" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C273" s="1">
-        <v>2266</v>
-      </c>
-      <c r="D273" s="14">
+      <c r="C273" s="11">
+        <v>3266</v>
+      </c>
+      <c r="D273" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5187,10 +5186,10 @@
       <c r="A274" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C274" s="1">
-        <v>2267</v>
-      </c>
-      <c r="D274" s="14">
+      <c r="C274" s="11">
+        <v>3267</v>
+      </c>
+      <c r="D274" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5198,10 +5197,10 @@
       <c r="A275" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C275" s="1">
-        <v>2268</v>
-      </c>
-      <c r="D275" s="14">
+      <c r="C275" s="11">
+        <v>3268</v>
+      </c>
+      <c r="D275" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5209,10 +5208,10 @@
       <c r="A276" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C276" s="1">
-        <v>2269</v>
-      </c>
-      <c r="D276" s="14">
+      <c r="C276" s="11">
+        <v>3269</v>
+      </c>
+      <c r="D276" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5220,8 +5219,8 @@
       <c r="A277" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C277" s="1">
-        <v>2270</v>
+      <c r="C277" s="11">
+        <v>3270</v>
       </c>
       <c r="D277" s="12">
         <v>0</v>
@@ -5231,10 +5230,10 @@
       <c r="A278" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C278" s="1">
-        <v>2271</v>
-      </c>
-      <c r="D278" s="14">
+      <c r="C278" s="11">
+        <v>3271</v>
+      </c>
+      <c r="D278" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5242,10 +5241,10 @@
       <c r="A279" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C279" s="1">
-        <v>2272</v>
-      </c>
-      <c r="D279" s="14">
+      <c r="C279" s="11">
+        <v>3272</v>
+      </c>
+      <c r="D279" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5253,10 +5252,10 @@
       <c r="A280" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C280" s="1">
-        <v>2273</v>
-      </c>
-      <c r="D280" s="14">
+      <c r="C280" s="11">
+        <v>3273</v>
+      </c>
+      <c r="D280" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5264,10 +5263,10 @@
       <c r="A281" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C281" s="1">
-        <v>2274</v>
-      </c>
-      <c r="D281" s="14">
+      <c r="C281" s="11">
+        <v>3274</v>
+      </c>
+      <c r="D281" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5275,10 +5274,10 @@
       <c r="A282" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C282" s="1">
-        <v>2275</v>
-      </c>
-      <c r="D282" s="14">
+      <c r="C282" s="11">
+        <v>3275</v>
+      </c>
+      <c r="D282" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5286,8 +5285,8 @@
       <c r="A283" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C283" s="1">
-        <v>2276</v>
+      <c r="C283" s="11">
+        <v>3276</v>
       </c>
       <c r="D283" s="12">
         <v>0</v>
@@ -5297,10 +5296,10 @@
       <c r="A284" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C284" s="1">
-        <v>2277</v>
-      </c>
-      <c r="D284" s="14">
+      <c r="C284" s="11">
+        <v>3277</v>
+      </c>
+      <c r="D284" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5308,10 +5307,10 @@
       <c r="A285" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C285" s="1">
-        <v>2278</v>
-      </c>
-      <c r="D285" s="14">
+      <c r="C285" s="11">
+        <v>3278</v>
+      </c>
+      <c r="D285" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5319,10 +5318,10 @@
       <c r="A286" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C286" s="1">
-        <v>2279</v>
-      </c>
-      <c r="D286" s="14">
+      <c r="C286" s="11">
+        <v>3279</v>
+      </c>
+      <c r="D286" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5330,10 +5329,10 @@
       <c r="A287" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C287" s="1">
-        <v>2280</v>
-      </c>
-      <c r="D287" s="14">
+      <c r="C287" s="11">
+        <v>3280</v>
+      </c>
+      <c r="D287" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5341,10 +5340,10 @@
       <c r="A288" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C288" s="1">
-        <v>2281</v>
-      </c>
-      <c r="D288" s="14">
+      <c r="C288" s="11">
+        <v>3281</v>
+      </c>
+      <c r="D288" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5352,8 +5351,8 @@
       <c r="A289" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C289" s="1">
-        <v>2282</v>
+      <c r="C289" s="11">
+        <v>3282</v>
       </c>
       <c r="D289" s="12">
         <v>0</v>
@@ -5363,10 +5362,10 @@
       <c r="A290" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C290" s="1">
-        <v>2283</v>
-      </c>
-      <c r="D290" s="14">
+      <c r="C290" s="11">
+        <v>3283</v>
+      </c>
+      <c r="D290" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5374,10 +5373,10 @@
       <c r="A291" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C291" s="1">
-        <v>2284</v>
-      </c>
-      <c r="D291" s="14">
+      <c r="C291" s="11">
+        <v>3284</v>
+      </c>
+      <c r="D291" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5385,10 +5384,10 @@
       <c r="A292" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C292" s="1">
-        <v>2285</v>
-      </c>
-      <c r="D292" s="14">
+      <c r="C292" s="11">
+        <v>3285</v>
+      </c>
+      <c r="D292" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5396,10 +5395,10 @@
       <c r="A293" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C293" s="1">
-        <v>2286</v>
-      </c>
-      <c r="D293" s="14">
+      <c r="C293" s="11">
+        <v>3286</v>
+      </c>
+      <c r="D293" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5407,10 +5406,10 @@
       <c r="A294" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C294" s="1">
-        <v>2287</v>
-      </c>
-      <c r="D294" s="14">
+      <c r="C294" s="11">
+        <v>3287</v>
+      </c>
+      <c r="D294" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5418,8 +5417,8 @@
       <c r="A295" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C295" s="1">
-        <v>2288</v>
+      <c r="C295" s="11">
+        <v>3288</v>
       </c>
       <c r="D295" s="12">
         <v>0</v>
@@ -5429,10 +5428,10 @@
       <c r="A296" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C296" s="1">
-        <v>2289</v>
-      </c>
-      <c r="D296" s="14">
+      <c r="C296" s="11">
+        <v>3289</v>
+      </c>
+      <c r="D296" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5440,10 +5439,10 @@
       <c r="A297" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C297" s="1">
-        <v>2290</v>
-      </c>
-      <c r="D297" s="14">
+      <c r="C297" s="11">
+        <v>3290</v>
+      </c>
+      <c r="D297" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5451,10 +5450,10 @@
       <c r="A298" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C298" s="1">
-        <v>2291</v>
-      </c>
-      <c r="D298" s="14">
+      <c r="C298" s="11">
+        <v>3291</v>
+      </c>
+      <c r="D298" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5462,10 +5461,10 @@
       <c r="A299" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C299" s="1">
-        <v>2292</v>
-      </c>
-      <c r="D299" s="14">
+      <c r="C299" s="11">
+        <v>3292</v>
+      </c>
+      <c r="D299" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5473,10 +5472,10 @@
       <c r="A300" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C300" s="1">
-        <v>2293</v>
-      </c>
-      <c r="D300" s="14">
+      <c r="C300" s="11">
+        <v>3293</v>
+      </c>
+      <c r="D300" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5484,8 +5483,8 @@
       <c r="A301" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C301" s="1">
-        <v>2294</v>
+      <c r="C301" s="11">
+        <v>3294</v>
       </c>
       <c r="D301" s="12">
         <v>0</v>
@@ -5495,10 +5494,10 @@
       <c r="A302" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C302" s="1">
-        <v>2295</v>
-      </c>
-      <c r="D302" s="14">
+      <c r="C302" s="11">
+        <v>3295</v>
+      </c>
+      <c r="D302" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5506,10 +5505,10 @@
       <c r="A303" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C303" s="1">
-        <v>2296</v>
-      </c>
-      <c r="D303" s="14">
+      <c r="C303" s="11">
+        <v>3296</v>
+      </c>
+      <c r="D303" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5517,10 +5516,10 @@
       <c r="A304" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C304" s="1">
-        <v>2297</v>
-      </c>
-      <c r="D304" s="14">
+      <c r="C304" s="11">
+        <v>3297</v>
+      </c>
+      <c r="D304" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5528,10 +5527,10 @@
       <c r="A305" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C305" s="1">
-        <v>2298</v>
-      </c>
-      <c r="D305" s="14">
+      <c r="C305" s="11">
+        <v>3298</v>
+      </c>
+      <c r="D305" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5539,10 +5538,10 @@
       <c r="A306" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C306" s="1">
-        <v>2299</v>
-      </c>
-      <c r="D306" s="14">
+      <c r="C306" s="11">
+        <v>3299</v>
+      </c>
+      <c r="D306" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5550,8 +5549,8 @@
       <c r="A307" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C307" s="1">
-        <v>2300</v>
+      <c r="C307" s="11">
+        <v>3300</v>
       </c>
       <c r="D307" s="12">
         <v>0</v>
@@ -5561,10 +5560,10 @@
       <c r="A308" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C308" s="1">
-        <v>2301</v>
-      </c>
-      <c r="D308" s="14">
+      <c r="C308" s="11">
+        <v>3301</v>
+      </c>
+      <c r="D308" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5572,10 +5571,10 @@
       <c r="A309" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C309" s="1">
-        <v>2302</v>
-      </c>
-      <c r="D309" s="14">
+      <c r="C309" s="11">
+        <v>3302</v>
+      </c>
+      <c r="D309" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5583,10 +5582,10 @@
       <c r="A310" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C310" s="1">
-        <v>2303</v>
-      </c>
-      <c r="D310" s="14">
+      <c r="C310" s="11">
+        <v>3303</v>
+      </c>
+      <c r="D310" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5594,10 +5593,10 @@
       <c r="A311" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C311" s="1">
-        <v>2304</v>
-      </c>
-      <c r="D311" s="14">
+      <c r="C311" s="11">
+        <v>3304</v>
+      </c>
+      <c r="D311" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5605,10 +5604,10 @@
       <c r="A312" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C312" s="1">
-        <v>2305</v>
-      </c>
-      <c r="D312" s="14">
+      <c r="C312" s="11">
+        <v>3305</v>
+      </c>
+      <c r="D312" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5616,8 +5615,8 @@
       <c r="A313" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C313" s="1">
-        <v>2306</v>
+      <c r="C313" s="11">
+        <v>3306</v>
       </c>
       <c r="D313" s="12">
         <v>0</v>
@@ -5627,10 +5626,10 @@
       <c r="A314" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C314" s="1">
-        <v>2307</v>
-      </c>
-      <c r="D314" s="14">
+      <c r="C314" s="11">
+        <v>3307</v>
+      </c>
+      <c r="D314" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5638,10 +5637,10 @@
       <c r="A315" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C315" s="1">
-        <v>2308</v>
-      </c>
-      <c r="D315" s="14">
+      <c r="C315" s="11">
+        <v>3308</v>
+      </c>
+      <c r="D315" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5649,10 +5648,10 @@
       <c r="A316" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C316" s="1">
-        <v>2309</v>
-      </c>
-      <c r="D316" s="14">
+      <c r="C316" s="11">
+        <v>3309</v>
+      </c>
+      <c r="D316" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5660,10 +5659,10 @@
       <c r="A317" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C317" s="1">
-        <v>2310</v>
-      </c>
-      <c r="D317" s="14">
+      <c r="C317" s="11">
+        <v>3310</v>
+      </c>
+      <c r="D317" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5671,10 +5670,10 @@
       <c r="A318" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C318" s="1">
-        <v>2311</v>
-      </c>
-      <c r="D318" s="14">
+      <c r="C318" s="11">
+        <v>3311</v>
+      </c>
+      <c r="D318" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5682,8 +5681,8 @@
       <c r="A319" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C319" s="1">
-        <v>2312</v>
+      <c r="C319" s="11">
+        <v>3312</v>
       </c>
       <c r="D319" s="12">
         <v>0</v>
@@ -5693,10 +5692,10 @@
       <c r="A320" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C320" s="1">
-        <v>2313</v>
-      </c>
-      <c r="D320" s="14">
+      <c r="C320" s="11">
+        <v>3313</v>
+      </c>
+      <c r="D320" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5704,10 +5703,10 @@
       <c r="A321" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C321" s="1">
-        <v>2314</v>
-      </c>
-      <c r="D321" s="14">
+      <c r="C321" s="11">
+        <v>3314</v>
+      </c>
+      <c r="D321" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5715,10 +5714,10 @@
       <c r="A322" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C322" s="1">
-        <v>2315</v>
-      </c>
-      <c r="D322" s="14">
+      <c r="C322" s="11">
+        <v>3315</v>
+      </c>
+      <c r="D322" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5726,10 +5725,10 @@
       <c r="A323" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C323" s="1">
-        <v>2316</v>
-      </c>
-      <c r="D323" s="14">
+      <c r="C323" s="11">
+        <v>3316</v>
+      </c>
+      <c r="D323" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5737,10 +5736,10 @@
       <c r="A324" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C324" s="1">
-        <v>2317</v>
-      </c>
-      <c r="D324" s="14">
+      <c r="C324" s="11">
+        <v>3317</v>
+      </c>
+      <c r="D324" s="13">
         <v>5</v>
       </c>
     </row>
@@ -5748,8 +5747,8 @@
       <c r="A325" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C325" s="1">
-        <v>2318</v>
+      <c r="C325" s="11">
+        <v>3318</v>
       </c>
       <c r="D325" s="12">
         <v>0</v>
@@ -5759,10 +5758,10 @@
       <c r="A326" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C326" s="1">
-        <v>2319</v>
-      </c>
-      <c r="D326" s="14">
+      <c r="C326" s="11">
+        <v>3319</v>
+      </c>
+      <c r="D326" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5770,10 +5769,10 @@
       <c r="A327" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C327" s="1">
-        <v>2320</v>
-      </c>
-      <c r="D327" s="14">
+      <c r="C327" s="11">
+        <v>3320</v>
+      </c>
+      <c r="D327" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5781,10 +5780,10 @@
       <c r="A328" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C328" s="1">
-        <v>2321</v>
-      </c>
-      <c r="D328" s="14">
+      <c r="C328" s="11">
+        <v>3321</v>
+      </c>
+      <c r="D328" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5792,10 +5791,10 @@
       <c r="A329" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C329" s="1">
-        <v>2322</v>
-      </c>
-      <c r="D329" s="14">
+      <c r="C329" s="11">
+        <v>3322</v>
+      </c>
+      <c r="D329" s="13">
         <v>4</v>
       </c>
     </row>
@@ -5803,10 +5802,10 @@
       <c r="A330" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C330" s="1">
-        <v>2323</v>
-      </c>
-      <c r="D330" s="14">
+      <c r="C330" s="11">
+        <v>3323</v>
+      </c>
+      <c r="D330" s="13">
         <v>5</v>
       </c>
     </row>
